--- a/PYPL.xlsx
+++ b/PYPL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060FA682-B0B7-41EC-91E4-591F355A8EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCAE169-DDFC-477D-BEAC-5F95323CAF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" xr2:uid="{B690896D-DF4D-4BA1-A25A-CD8C19559281}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="329">
   <si>
     <t>PYPL</t>
   </si>
@@ -1040,6 +1040,15 @@
   </si>
   <si>
     <t>PayPal DCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paypal stable coin PYUSD = 1 USD -&gt; aims to yield 3.7% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MarketCap PYUSD: </t>
+  </si>
+  <si>
+    <t>MarketCap Thether:</t>
   </si>
 </sst>
 </file>
@@ -1925,10 +1934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F113AC37-A5A9-4DE4-95F6-ABC9256F2DCD}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,18 +2101,39 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D20">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>328</v>
+      </c>
+      <c r="D21" s="3">
+        <v>128000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>146</v>
       </c>
     </row>
@@ -15406,14 +15436,14 @@
       </c>
       <c r="E4" s="71">
         <f ca="1">+TODAY()</f>
-        <v>45760</v>
+        <v>45772</v>
       </c>
       <c r="G4" t="s">
         <v>153</v>
       </c>
       <c r="J4" s="17">
         <f ca="1">V62</f>
-        <v>84.733495222498291</v>
+        <v>84.841990627586384</v>
       </c>
       <c r="L4" t="s">
         <v>154</v>
@@ -15435,7 +15465,7 @@
       </c>
       <c r="J5" s="20">
         <f ca="1">J4/J3-1</f>
-        <v>0.47055701531583294</v>
+        <v>0.47243996229757701</v>
       </c>
       <c r="L5" t="s">
         <v>156</v>
@@ -16887,43 +16917,43 @@
       <c r="L52" s="45"/>
       <c r="M52" s="45">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>2810.3167793945145</v>
+        <v>2687.3128417718303</v>
       </c>
       <c r="N52" s="45">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>4044.3181012804116</v>
+        <v>4055.9524708940517</v>
       </c>
       <c r="O52" s="45">
         <f t="shared" ref="O52:U52" ca="1" si="17">O51/(1+$E$18)^O53</f>
-        <v>4157.2890746961739</v>
+        <v>4169.2484301362047</v>
       </c>
       <c r="P52" s="45">
         <f t="shared" ca="1" si="17"/>
-        <v>4259.9195792003156</v>
+        <v>4272.1741738359624</v>
       </c>
       <c r="Q52" s="45">
         <f t="shared" ca="1" si="17"/>
-        <v>4202.947197034905</v>
+        <v>4215.0378980955938</v>
       </c>
       <c r="R52" s="45">
         <f t="shared" ca="1" si="17"/>
-        <v>4064.7691987172748</v>
+        <v>4076.4624004060943</v>
       </c>
       <c r="S52" s="45">
         <f t="shared" ca="1" si="17"/>
-        <v>3921.034605489936</v>
+        <v>3932.3143230407636</v>
       </c>
       <c r="T52" s="45">
         <f t="shared" ca="1" si="17"/>
-        <v>3773.1274631101696</v>
+        <v>3783.981693268599</v>
       </c>
       <c r="U52" s="45">
         <f t="shared" ca="1" si="17"/>
-        <v>3622.3388555340653</v>
+        <v>3632.7593091323588</v>
       </c>
       <c r="V52" s="46">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>3469.8598535051974</v>
+        <v>3479.8416677523087</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
@@ -16932,43 +16962,43 @@
       </c>
       <c r="M53" s="70">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.71666666666666667</v>
+        <v>0.68333333333333335</v>
       </c>
       <c r="N53" s="70">
         <f ca="1">M53+1</f>
-        <v>1.7166666666666668</v>
+        <v>1.6833333333333333</v>
       </c>
       <c r="O53" s="70">
         <f ca="1">N53+1</f>
-        <v>2.7166666666666668</v>
+        <v>2.6833333333333336</v>
       </c>
       <c r="P53" s="70">
         <f t="shared" ref="P53:V53" ca="1" si="18">O53+1</f>
-        <v>3.7166666666666668</v>
+        <v>3.6833333333333336</v>
       </c>
       <c r="Q53" s="70">
         <f t="shared" ca="1" si="18"/>
-        <v>4.7166666666666668</v>
+        <v>4.6833333333333336</v>
       </c>
       <c r="R53" s="70">
         <f t="shared" ca="1" si="18"/>
-        <v>5.7166666666666668</v>
+        <v>5.6833333333333336</v>
       </c>
       <c r="S53" s="70">
         <f t="shared" ca="1" si="18"/>
-        <v>6.7166666666666668</v>
+        <v>6.6833333333333336</v>
       </c>
       <c r="T53" s="70">
         <f t="shared" ca="1" si="18"/>
-        <v>7.7166666666666668</v>
+        <v>7.6833333333333336</v>
       </c>
       <c r="U53" s="70">
         <f t="shared" ca="1" si="18"/>
-        <v>8.7166666666666668</v>
+        <v>8.6833333333333336</v>
       </c>
       <c r="V53" s="70">
         <f t="shared" ca="1" si="18"/>
-        <v>9.7166666666666668</v>
+        <v>9.6833333333333336</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
@@ -16981,7 +17011,7 @@
       <c r="Q54" s="47"/>
       <c r="V54" s="27">
         <f ca="1">SUM(M52:V52)</f>
-        <v>38325.920707962963</v>
+        <v>38305.08520833376</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
@@ -17025,7 +17055,7 @@
       <c r="U56" s="49"/>
       <c r="V56" s="50">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>44552.049872471529</v>
+        <v>44680.213632660802</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
@@ -17053,7 +17083,7 @@
       <c r="U57" s="52"/>
       <c r="V57" s="53">
         <f ca="1">V54+V56</f>
-        <v>82877.970580434485</v>
+        <v>82985.298840994568</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
@@ -17107,7 +17137,7 @@
       <c r="Q60" s="47"/>
       <c r="V60" s="54">
         <f ca="1">V57+V58-V59</f>
-        <v>83821.970580434485</v>
+        <v>83929.298840994568</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.25">
@@ -17144,7 +17174,7 @@
       </c>
       <c r="V62" s="54">
         <f ca="1">V60/V61</f>
-        <v>84.733495222498291</v>
+        <v>84.841990627586384</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -17205,7 +17235,7 @@
       </c>
       <c r="C69" s="56">
         <f ca="1">+J4</f>
-        <v>84.733495222498291</v>
+        <v>84.841990627586384</v>
       </c>
       <c r="D69" s="57"/>
       <c r="E69" s="57"/>
@@ -17219,7 +17249,7 @@
       </c>
       <c r="N69" s="56">
         <f ca="1">+J4</f>
-        <v>84.733495222498291</v>
+        <v>84.841990627586384</v>
       </c>
       <c r="O69" s="57"/>
       <c r="P69" s="57"/>

--- a/PYPL.xlsx
+++ b/PYPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C84B51D-20E7-4AB2-9BF8-51EFD9F6EDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D71510-0BBA-459E-BD18-7D01A446E30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{B690896D-DF4D-4BA1-A25A-CD8C19559281}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{B690896D-DF4D-4BA1-A25A-CD8C19559281}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="336">
   <si>
     <t>PYPL</t>
   </si>
@@ -1067,6 +1067,9 @@
   </si>
   <si>
     <t>drive psp profitability, scale next-gen growth vectors (crypto, agentic commerce)</t>
+  </si>
+  <si>
+    <t>Launch of Paypal virtual credit card in Germany -&gt; banking license in Luxembourg</t>
   </si>
 </sst>
 </file>
@@ -1508,6 +1511,7 @@
     <xf numFmtId="16" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1526,7 +1530,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1956,7 +1959,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2128,6 +2131,11 @@
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -2979,39 +2987,39 @@
       <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="78">
+      <c r="C13" s="72">
         <f t="shared" ref="C13:D13" si="15">+C19/C12</f>
         <v>1.9858508129576766E-2</v>
       </c>
-      <c r="D13" s="78">
+      <c r="D13" s="72">
         <f t="shared" si="15"/>
         <v>1.9352628419973549E-2</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="72">
         <f>+E19/E12</f>
         <v>1.913330117796962E-2</v>
       </c>
-      <c r="F13" s="78">
+      <c r="F13" s="72">
         <f t="shared" ref="F13:I13" si="16">+F19/F12</f>
         <v>1.9583634269651956E-2</v>
       </c>
-      <c r="G13" s="78">
+      <c r="G13" s="72">
         <f t="shared" si="16"/>
         <v>1.9063536869212104E-2</v>
       </c>
-      <c r="H13" s="78">
+      <c r="H13" s="72">
         <f t="shared" si="16"/>
         <v>1.8917310838887369E-2</v>
       </c>
-      <c r="I13" s="78">
+      <c r="I13" s="72">
         <f t="shared" si="16"/>
         <v>1.8566584879365702E-2</v>
       </c>
-      <c r="J13" s="78">
+      <c r="J13" s="72">
         <f>+J19/J12</f>
         <v>1.9107611068984735E-2</v>
       </c>
-      <c r="K13" s="78">
+      <c r="K13" s="72">
         <f>+K19/K12</f>
         <v>1.8674138559183907E-2</v>
       </c>
@@ -3019,39 +3027,39 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="78">
+      <c r="P13" s="72">
         <f t="shared" ref="P13:R13" si="17">+P19/P12</f>
         <v>3.012269120490765E-2</v>
       </c>
-      <c r="Q13" s="78">
+      <c r="Q13" s="72">
         <f t="shared" si="17"/>
         <v>2.8703644841169804E-2</v>
       </c>
-      <c r="R13" s="78">
+      <c r="R13" s="72">
         <f t="shared" si="17"/>
         <v>2.6712469680283669E-2</v>
       </c>
-      <c r="S13" s="78">
+      <c r="S13" s="72">
         <f t="shared" ref="S13:X13" si="18">+S19/S12</f>
         <v>2.4963303718790603E-2</v>
       </c>
-      <c r="T13" s="78">
+      <c r="T13" s="72">
         <f t="shared" si="18"/>
         <v>2.2919422004098019E-2</v>
       </c>
-      <c r="U13" s="78">
+      <c r="U13" s="72">
         <f t="shared" si="18"/>
         <v>2.0363935823623322E-2</v>
       </c>
-      <c r="V13" s="78">
+      <c r="V13" s="72">
         <f t="shared" si="18"/>
         <v>2.0276882084897932E-2</v>
       </c>
-      <c r="W13" s="78">
+      <c r="W13" s="72">
         <f t="shared" si="18"/>
         <v>1.9476258668999116E-2</v>
       </c>
-      <c r="X13" s="78">
+      <c r="X13" s="72">
         <f t="shared" si="18"/>
         <v>1.8913838741337775E-2</v>
       </c>
@@ -4973,23 +4981,23 @@
         <v>0.14232209737827706</v>
       </c>
       <c r="T37" s="6">
-        <f>+T7/S7-1</f>
+        <f t="shared" ref="T37:X38" si="49">+T7/S7-1</f>
         <v>0.23606557377049175</v>
       </c>
       <c r="U37" s="6">
-        <f>+U7/T7-1</f>
+        <f t="shared" si="49"/>
         <v>0.12997347480106103</v>
       </c>
       <c r="V37" s="6">
-        <f>+V7/U7-1</f>
+        <f t="shared" si="49"/>
         <v>2.1126760563380254E-2</v>
       </c>
       <c r="W37" s="6">
-        <f>+W7/V7-1</f>
+        <f t="shared" si="49"/>
         <v>-2.0689655172413834E-2</v>
       </c>
       <c r="X37" s="6">
-        <f>+X7/W7-1</f>
+        <f t="shared" si="49"/>
         <v>1.8779342723004744E-2</v>
       </c>
       <c r="Y37" s="3"/>
@@ -5022,19 +5030,19 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="6">
-        <f t="shared" ref="G38:J38" si="49">+G8/C8-1</f>
+        <f t="shared" ref="G38:J38" si="50">+G8/C8-1</f>
         <v>0.11482433590402752</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>8.3305893974316758E-2</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>5.6733067729083597E-2</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-2.6331273904089403E-2</v>
       </c>
       <c r="K38" s="6">
@@ -5047,35 +5055,35 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="6">
-        <f t="shared" ref="Q38:S38" si="50">+Q8/P8-1</f>
+        <f t="shared" ref="Q38:S38" si="51">+Q8/P8-1</f>
         <v>0.23415409054805392</v>
       </c>
       <c r="R38" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.27056249195520654</v>
       </c>
       <c r="S38" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.25225407760105356</v>
       </c>
       <c r="T38" s="6">
-        <f>+T8/S8-1</f>
+        <f t="shared" si="49"/>
         <v>0.24771458619852771</v>
       </c>
       <c r="U38" s="6">
-        <f>+U8/T8-1</f>
+        <f t="shared" si="49"/>
         <v>0.25449004733190694</v>
       </c>
       <c r="V38" s="6">
-        <f>+V8/U8-1</f>
+        <f t="shared" si="49"/>
         <v>0.15510647095307006</v>
       </c>
       <c r="W38" s="6">
-        <f>+W8/V8-1</f>
+        <f t="shared" si="49"/>
         <v>0.11776813280236254</v>
       </c>
       <c r="X38" s="6">
-        <f>+X8/W8-1</f>
+        <f t="shared" si="49"/>
         <v>5.4161162483487457E-2</v>
       </c>
       <c r="Y38" s="3"/>
@@ -5133,15 +5141,15 @@
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6">
-        <f t="shared" ref="Q39:S39" si="51">+Q12/P12-1</f>
+        <f t="shared" ref="Q39:S39" si="52">+Q12/P12-1</f>
         <v>0.26741737236336149</v>
       </c>
       <c r="R39" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.26796498742818065</v>
       </c>
       <c r="S39" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.23081192007869733</v>
       </c>
       <c r="T39" s="6">
@@ -5194,23 +5202,23 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="6">
-        <f t="shared" ref="G40:K42" si="52">+G17/C17-1</f>
+        <f t="shared" ref="G40:K42" si="53">+G17/C17-1</f>
         <v>0.10527969830295403</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1.6917827694057364E-2</v>
       </c>
       <c r="I40" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>6.2067929065223959E-2</v>
       </c>
       <c r="J40" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>4.1878346835095392E-2</v>
       </c>
       <c r="K40" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>-2.5589991470003071E-3</v>
       </c>
       <c r="L40" s="6"/>
@@ -5219,35 +5227,35 @@
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6">
-        <f t="shared" ref="Q40:S40" si="53">+Q17/P17-1</f>
+        <f t="shared" ref="Q40:S40" si="54">+Q17/P17-1</f>
         <v>0.19989567031820554</v>
       </c>
       <c r="R40" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.19198330579949574</v>
       </c>
       <c r="S40" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.17433802611423155</v>
       </c>
       <c r="T40" s="6">
-        <f t="shared" ref="T40:X42" si="54">+T17/S17-1</f>
+        <f t="shared" ref="T40:X42" si="55">+T17/S17-1</f>
         <v>0.23721970308714835</v>
       </c>
       <c r="U40" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.17491716035746552</v>
       </c>
       <c r="V40" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>7.7087428424921001E-2</v>
       </c>
       <c r="W40" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>6.5500277711656008E-2</v>
       </c>
       <c r="X40" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>7.3909967606210714E-2</v>
       </c>
       <c r="Y40" s="6"/>
@@ -5280,23 +5288,23 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>-1.6272189349112454E-2</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.10075187969924815</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>2.0942408376963373E-2</v>
       </c>
       <c r="J41" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>4.7106325706594898E-2</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.16541353383458657</v>
       </c>
       <c r="L41" s="6"/>
@@ -5305,35 +5313,35 @@
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6">
-        <f t="shared" ref="Q41:S41" si="55">+Q18/P18-1</f>
+        <f t="shared" ref="Q41:S41" si="56">+Q18/P18-1</f>
         <v>0.26730310262529833</v>
       </c>
       <c r="R41" s="6">
+        <f t="shared" si="56"/>
+        <v>9.3534212178280063E-2</v>
+      </c>
+      <c r="S41" s="6">
+        <f t="shared" si="56"/>
+        <v>-3.960964408725598E-2</v>
+      </c>
+      <c r="T41" s="6">
         <f t="shared" si="55"/>
-        <v>9.3534212178280063E-2</v>
-      </c>
-      <c r="S41" s="6">
+        <v>-8.1888822474596501E-2</v>
+      </c>
+      <c r="U41" s="6">
         <f t="shared" si="55"/>
-        <v>-3.960964408725598E-2</v>
-      </c>
-      <c r="T41" s="6">
-        <f t="shared" si="54"/>
-        <v>-8.1888822474596501E-2</v>
-      </c>
-      <c r="U41" s="6">
-        <f t="shared" si="54"/>
         <v>0.28190104166666674</v>
       </c>
       <c r="V41" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.17420010157440324</v>
       </c>
       <c r="W41" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.26038062283737018</v>
       </c>
       <c r="X41" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>1.4070006863418083E-2</v>
       </c>
       <c r="Y41" s="6"/>
@@ -5366,23 +5374,23 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>9.3607954545454453E-2</v>
       </c>
       <c r="H42" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>8.2063949499108002E-2</v>
       </c>
       <c r="I42" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>5.7832299811269916E-2</v>
       </c>
       <c r="J42" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>4.2362322452030865E-2</v>
       </c>
       <c r="K42" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1.1949603844655154E-2</v>
       </c>
       <c r="L42" s="9"/>
@@ -5391,35 +5399,35 @@
       <c r="O42" s="6"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="9">
-        <f t="shared" ref="Q42:S42" si="56">+Q19/P19-1</f>
+        <f t="shared" ref="Q42:S42" si="57">+Q19/P19-1</f>
         <v>0.20771075447334431</v>
       </c>
       <c r="R42" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.18000610966855057</v>
       </c>
       <c r="S42" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.15021681444566704</v>
       </c>
       <c r="T42" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.20717983344586988</v>
       </c>
       <c r="U42" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.18257667567819524</v>
       </c>
       <c r="V42" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>8.4624177210200546E-2</v>
       </c>
       <c r="W42" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>8.1873682680427384E-2</v>
       </c>
       <c r="X42" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>6.8052803063383793E-2</v>
       </c>
       <c r="Y42" s="9"/>
@@ -5448,39 +5456,39 @@
         <v>42</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" ref="C43:J43" si="57">+C22/C19</f>
+        <f t="shared" ref="C43:J43" si="58">+C22/C19</f>
         <v>0.47088068181818182</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.45944833264717994</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.45416554327311942</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.45751308248193373</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.44953890115599426</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.45757767913760306</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.46565566458519181</v>
       </c>
       <c r="J43" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.47035620368156827</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" ref="K43" si="58">+K22/K19</f>
+        <f t="shared" ref="K43" si="59">+K22/K19</f>
         <v>0.4769605955589783</v>
       </c>
       <c r="L43" s="6"/>
@@ -5488,19 +5496,19 @@
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6">
-        <f t="shared" ref="P43:S43" si="59">+P22/P19</f>
+        <f t="shared" ref="P43:S43" si="60">+P22/P19</f>
         <v>0.5242575170632725</v>
       </c>
       <c r="Q43" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.52382770734687645</v>
       </c>
       <c r="R43" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.50611610898970938</v>
       </c>
       <c r="S43" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.54028809363042984</v>
       </c>
       <c r="T43" s="6">
@@ -5549,39 +5557,39 @@
         <v>43</v>
       </c>
       <c r="C44" s="6">
-        <f t="shared" ref="C44:J44" si="60">+C28/C19</f>
+        <f t="shared" ref="C44:J44" si="61">+C28/C19</f>
         <v>0.14190340909090909</v>
       </c>
       <c r="D44" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.15548236585700562</v>
       </c>
       <c r="E44" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.15745483957940146</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.21530027410914529</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.15170801402779582</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.16804058338617628</v>
       </c>
       <c r="I44" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.17726519689053141</v>
       </c>
       <c r="J44" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.17224480038250059</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" ref="K44" si="61">+K28/K19</f>
+        <f t="shared" ref="K44" si="62">+K28/K19</f>
         <v>0.19638043896804006</v>
       </c>
       <c r="L44" s="6"/>
@@ -5589,39 +5597,39 @@
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6">
-        <f t="shared" ref="P44:R44" si="62">+P28/P19</f>
+        <f t="shared" ref="P44:R44" si="63">+P28/P19</f>
         <v>0.14628297362110312</v>
       </c>
       <c r="Q44" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.16244081258591722</v>
       </c>
       <c r="R44" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.1419972817293379</v>
       </c>
       <c r="S44" s="6">
-        <f t="shared" ref="S44:X44" si="63">+S28/S19</f>
+        <f t="shared" ref="S44:X44" si="64">+S28/S19</f>
         <v>0.15299347287868556</v>
       </c>
       <c r="T44" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.15330474503589075</v>
       </c>
       <c r="U44" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.16798707185369122</v>
       </c>
       <c r="V44" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.13943600552365723</v>
       </c>
       <c r="W44" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.16888918746431092</v>
       </c>
       <c r="X44" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.16746862911595434</v>
       </c>
       <c r="Y44" s="6"/>
@@ -5650,27 +5658,27 @@
         <v>44</v>
       </c>
       <c r="C45" s="6">
-        <f t="shared" ref="C45:H45" si="64">+C31/C30</f>
+        <f t="shared" ref="C45:H45" si="65">+C31/C30</f>
         <v>0.25977653631284914</v>
       </c>
       <c r="D45" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.21028396009209516</v>
       </c>
       <c r="E45" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.17808219178082191</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.2180702732849972</v>
       </c>
       <c r="G45" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.26550868486352358</v>
       </c>
       <c r="H45" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.1937097927090779</v>
       </c>
       <c r="I45" s="6">
@@ -5678,11 +5686,11 @@
         <v>0.2295957284515637</v>
       </c>
       <c r="J45" s="6">
-        <f t="shared" ref="J45:X45" si="65">+J31/J30</f>
+        <f t="shared" ref="J45:X45" si="66">+J31/J30</f>
         <v>0.20496453900709219</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" ref="K45" si="66">+K31/K30</f>
+        <f t="shared" ref="K45" si="67">+K31/K30</f>
         <v>0.19713038053649407</v>
       </c>
       <c r="L45" s="6"/>
@@ -5690,39 +5698,39 @@
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6">
-        <f t="shared" ref="P45:R45" si="67">+P31/P30</f>
+        <f t="shared" ref="P45:R45" si="68">+P31/P30</f>
         <v>0.14101778050275904</v>
       </c>
       <c r="Q45" s="6">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.18409090909090908</v>
       </c>
       <c r="R45" s="6">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.13425925925925927</v>
       </c>
       <c r="S45" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.17978652434956638</v>
       </c>
       <c r="T45" s="6">
-        <f t="shared" ref="T45:U45" si="68">+T31/T30</f>
+        <f t="shared" ref="T45:U45" si="69">+T31/T30</f>
         <v>0.17038499506416585</v>
       </c>
       <c r="U45" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>-1.7077335935594046E-2</v>
       </c>
       <c r="V45" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.28134284016636957</v>
       </c>
       <c r="W45" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.21530216226205878</v>
       </c>
       <c r="X45" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.22180521673860012</v>
       </c>
       <c r="Y45" s="6"/>
@@ -6237,31 +6245,31 @@
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3">
-        <f t="shared" ref="Q54:W54" si="69">+SUM(Q48:Q53)</f>
+        <f t="shared" ref="Q54:W54" si="70">+SUM(Q48:Q53)</f>
         <v>32645</v>
       </c>
       <c r="R54" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>32963</v>
       </c>
       <c r="S54" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>38495</v>
       </c>
       <c r="T54" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>50995</v>
       </c>
       <c r="U54" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>52574</v>
       </c>
       <c r="V54" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>57517</v>
       </c>
       <c r="W54" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>62569</v>
       </c>
       <c r="X54" s="3">
@@ -6631,23 +6639,23 @@
         <v>10369</v>
       </c>
       <c r="S60" s="3">
-        <f t="shared" ref="S60:W60" si="70">+SUM(S55:S59)</f>
+        <f t="shared" ref="S60:W60" si="71">+SUM(S55:S59)</f>
         <v>12838</v>
       </c>
       <c r="T60" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>19384</v>
       </c>
       <c r="U60" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>23229</v>
       </c>
       <c r="V60" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>21200</v>
       </c>
       <c r="W60" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>19597</v>
       </c>
       <c r="X60" s="3">
@@ -6702,23 +6710,23 @@
         <v>43332</v>
       </c>
       <c r="S61" s="3">
-        <f t="shared" ref="S61:W61" si="71">+S60+S54</f>
+        <f t="shared" ref="S61:W61" si="72">+S60+S54</f>
         <v>51333</v>
       </c>
       <c r="T61" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>70379</v>
       </c>
       <c r="U61" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>75803</v>
       </c>
       <c r="V61" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>78717</v>
       </c>
       <c r="W61" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>82166</v>
       </c>
       <c r="X61" s="3">
@@ -7027,31 +7035,31 @@
         <v>22863</v>
       </c>
       <c r="R66" s="3">
-        <f t="shared" ref="R66:X66" si="72">+SUM(R62:R65)</f>
+        <f t="shared" ref="R66:X66" si="73">+SUM(R62:R65)</f>
         <v>25904</v>
       </c>
       <c r="S66" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>26919</v>
       </c>
       <c r="T66" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>38447</v>
       </c>
       <c r="U66" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>43029</v>
       </c>
       <c r="V66" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>45101</v>
       </c>
       <c r="W66" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>48466</v>
       </c>
       <c r="X66" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>48376</v>
       </c>
       <c r="Y66" s="3"/>
@@ -7220,27 +7228,27 @@
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3">
-        <f t="shared" ref="Q69:V69" si="73">+SUM(Q67:Q68)</f>
+        <f t="shared" ref="Q69:V69" si="74">+SUM(Q67:Q68)</f>
         <v>1917</v>
       </c>
       <c r="R69" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2042</v>
       </c>
       <c r="S69" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>7485</v>
       </c>
       <c r="T69" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>11869</v>
       </c>
       <c r="U69" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>11047</v>
       </c>
       <c r="V69" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>13342</v>
       </c>
       <c r="W69" s="3">
@@ -7291,31 +7299,31 @@
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3">
-        <f t="shared" ref="Q70:W70" si="74">+Q69+Q66</f>
+        <f t="shared" ref="Q70:W70" si="75">+Q69+Q66</f>
         <v>24780</v>
       </c>
       <c r="R70" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>27946</v>
       </c>
       <c r="S70" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>34404</v>
       </c>
       <c r="T70" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>50316</v>
       </c>
       <c r="U70" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>54076</v>
       </c>
       <c r="V70" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>58443</v>
       </c>
       <c r="W70" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>61115</v>
       </c>
       <c r="X70" s="3">
@@ -7425,31 +7433,31 @@
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
       <c r="Q72" s="3">
-        <f t="shared" ref="Q72:W72" si="75">+Q70+Q71</f>
+        <f t="shared" ref="Q72:W72" si="76">+Q70+Q71</f>
         <v>40774</v>
       </c>
       <c r="R72" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>43332</v>
       </c>
       <c r="S72" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>51333</v>
       </c>
       <c r="T72" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>70379</v>
       </c>
       <c r="U72" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>75803</v>
       </c>
       <c r="V72" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>78717</v>
       </c>
       <c r="W72" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>82166</v>
       </c>
       <c r="X72" s="3">
@@ -7539,35 +7547,35 @@
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3">
-        <f t="shared" ref="P74:W74" si="76">+P32</f>
+        <f t="shared" ref="P74:W74" si="77">+P32</f>
         <v>1401</v>
       </c>
       <c r="Q74" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1795</v>
       </c>
       <c r="R74" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>2057</v>
       </c>
       <c r="S74" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>2459</v>
       </c>
       <c r="T74" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>4202</v>
       </c>
       <c r="U74" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>4169</v>
       </c>
       <c r="V74" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>2419</v>
       </c>
       <c r="W74" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>4246</v>
       </c>
       <c r="X74" s="3">
@@ -8600,35 +8608,35 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3">
-        <f t="shared" ref="P90:S90" si="77">+SUM(P85:P89)</f>
+        <f t="shared" ref="P90:S90" si="78">+SUM(P85:P89)</f>
         <v>-481</v>
       </c>
       <c r="Q90" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>-581</v>
       </c>
       <c r="R90" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>622</v>
       </c>
       <c r="S90" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>-1075</v>
       </c>
       <c r="T90" s="3">
-        <f t="shared" ref="T90" si="78">+SUM(T85:T89)</f>
+        <f t="shared" ref="T90" si="79">+SUM(T85:T89)</f>
         <v>-952</v>
       </c>
       <c r="U90" s="3">
-        <f t="shared" ref="U90:W90" si="79">+SUM(U85:U89)</f>
+        <f t="shared" ref="U90:W90" si="80">+SUM(U85:U89)</f>
         <v>-1102</v>
       </c>
       <c r="V90" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>-454</v>
       </c>
       <c r="W90" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>-1314</v>
       </c>
       <c r="X90" s="3">
@@ -8674,35 +8682,35 @@
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
       <c r="P91" s="3">
-        <f t="shared" ref="P91:W91" si="80">+SUM(P74:P84)+P90</f>
+        <f t="shared" ref="P91:W91" si="81">+SUM(P74:P84)+P90</f>
         <v>3158</v>
       </c>
       <c r="Q91" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>2531</v>
       </c>
       <c r="R91" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>5483</v>
       </c>
       <c r="S91" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>4071</v>
       </c>
       <c r="T91" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>5854</v>
       </c>
       <c r="U91" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>6340</v>
       </c>
       <c r="V91" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>5813</v>
       </c>
       <c r="W91" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>4843</v>
       </c>
       <c r="X91" s="3">
@@ -9399,35 +9407,35 @@
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
       <c r="P102" s="3">
-        <f t="shared" ref="P102:W102" si="81">+SUM(P92:P101)</f>
+        <f t="shared" ref="P102:W102" si="82">+SUM(P92:P101)</f>
         <v>-5904</v>
       </c>
       <c r="Q102" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>-4485</v>
       </c>
       <c r="R102" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>840</v>
       </c>
       <c r="S102" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>-5742</v>
       </c>
       <c r="T102" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>-16218</v>
       </c>
       <c r="U102" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>-5485</v>
       </c>
       <c r="V102" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>-3328</v>
       </c>
       <c r="W102" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>752</v>
       </c>
       <c r="X102" s="3">
@@ -9995,35 +10003,35 @@
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
       <c r="P111" s="3">
-        <f t="shared" ref="P111:W111" si="82">+SUM(P103:P110)</f>
+        <f t="shared" ref="P111:W111" si="83">+SUM(P103:P110)</f>
         <v>2038</v>
       </c>
       <c r="Q111" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>4084</v>
       </c>
       <c r="R111" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-1262</v>
       </c>
       <c r="S111" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>4187</v>
       </c>
       <c r="T111" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>12492</v>
       </c>
       <c r="U111" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-764</v>
       </c>
       <c r="V111" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-1203</v>
       </c>
       <c r="W111" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-2993</v>
       </c>
       <c r="X111" s="3">
@@ -10134,39 +10142,39 @@
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
       <c r="P113" s="3">
-        <f t="shared" ref="P113" si="83">+SUM(P112,P111,P102,P91)</f>
+        <f t="shared" ref="P113" si="84">+SUM(P112,P111,P102,P91)</f>
         <v>-708</v>
       </c>
       <c r="Q113" s="3">
-        <f t="shared" ref="Q113" si="84">+SUM(Q112,Q111,Q102,Q91)</f>
+        <f t="shared" ref="Q113" si="85">+SUM(Q112,Q111,Q102,Q91)</f>
         <v>2166</v>
       </c>
       <c r="R113" s="3">
-        <f t="shared" ref="R113" si="85">+SUM(R112,R111,R102,R91)</f>
+        <f t="shared" ref="R113" si="86">+SUM(R112,R111,R102,R91)</f>
         <v>4948</v>
       </c>
       <c r="S113" s="3">
-        <f t="shared" ref="S113:X113" si="86">+SUM(S112,S111,S102,S91)</f>
+        <f t="shared" ref="S113:X113" si="87">+SUM(S112,S111,S102,S91)</f>
         <v>2510</v>
       </c>
       <c r="T113" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>2297</v>
       </c>
       <c r="U113" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>-11</v>
       </c>
       <c r="V113" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>1127</v>
       </c>
       <c r="W113" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>2678</v>
       </c>
       <c r="X113" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>556</v>
       </c>
       <c r="Y113" s="3"/>
@@ -10208,35 +10216,35 @@
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
       <c r="P114" s="3">
-        <f t="shared" ref="P114:W114" si="87">+P115-P113</f>
+        <f t="shared" ref="P114:W114" si="88">+P115-P113</f>
         <v>6827</v>
       </c>
       <c r="Q114" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>6119</v>
       </c>
       <c r="R114" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>8285</v>
       </c>
       <c r="S114" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>13233</v>
       </c>
       <c r="T114" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>15743</v>
       </c>
       <c r="U114" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>18040</v>
       </c>
       <c r="V114" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>18029</v>
       </c>
       <c r="W114" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>19156</v>
       </c>
       <c r="X114" s="3">
@@ -10281,35 +10289,35 @@
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
       <c r="P115" s="3">
-        <f t="shared" ref="P115:W115" si="88">+Q114</f>
+        <f t="shared" ref="P115:W115" si="89">+Q114</f>
         <v>6119</v>
       </c>
       <c r="Q115" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>8285</v>
       </c>
       <c r="R115" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>13233</v>
       </c>
       <c r="S115" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>15743</v>
       </c>
       <c r="T115" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>18040</v>
       </c>
       <c r="U115" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>18029</v>
       </c>
       <c r="V115" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>19156</v>
       </c>
       <c r="W115" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>21834</v>
       </c>
       <c r="X115" s="3">
@@ -16661,14 +16669,14 @@
       </c>
       <c r="E4" s="71">
         <f ca="1">+TODAY()</f>
-        <v>45777</v>
+        <v>45783</v>
       </c>
       <c r="G4" t="s">
         <v>150</v>
       </c>
       <c r="J4" s="17">
         <f ca="1">V62</f>
-        <v>85.172381794681129</v>
+        <v>85.218329494872663</v>
       </c>
       <c r="L4" t="s">
         <v>151</v>
@@ -16690,7 +16698,7 @@
       </c>
       <c r="J5" s="20">
         <f ca="1">J4/J3-1</f>
-        <v>0.31438860794261014</v>
+        <v>0.31509767739001027</v>
       </c>
       <c r="L5" t="s">
         <v>153</v>
@@ -18142,43 +18150,43 @@
       <c r="L52" s="45"/>
       <c r="M52" s="45">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>2625.5369646984482</v>
+        <v>2573.9171884956354</v>
       </c>
       <c r="N52" s="45">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>4061.7822004974901</v>
+        <v>4066.6467087880092</v>
       </c>
       <c r="O52" s="45">
         <f t="shared" ref="O52:U52" ca="1" si="17">O51/(1+$E$18)^O53</f>
-        <v>4175.2410030698557</v>
+        <v>4180.2413929164259</v>
       </c>
       <c r="P52" s="45">
         <f t="shared" ca="1" si="17"/>
-        <v>4278.314684710037</v>
+        <v>4283.4385185903157</v>
       </c>
       <c r="Q52" s="45">
         <f t="shared" ca="1" si="17"/>
-        <v>4221.0962854634145</v>
+        <v>4226.151592927512</v>
       </c>
       <c r="R52" s="45">
         <f t="shared" ca="1" si="17"/>
-        <v>4082.3216094829982</v>
+        <v>4087.2107163660462</v>
       </c>
       <c r="S52" s="45">
         <f t="shared" ca="1" si="17"/>
-        <v>3937.9663442080637</v>
+        <v>3942.6825670342996</v>
       </c>
       <c r="T52" s="45">
         <f t="shared" ca="1" si="17"/>
-        <v>3789.4205119565445</v>
+        <v>3793.9588319812906</v>
       </c>
       <c r="U52" s="45">
         <f t="shared" ca="1" si="17"/>
-        <v>3637.9807718192601</v>
+        <v>3642.3377232144112</v>
       </c>
       <c r="V52" s="46">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>3484.8433377993215</v>
+        <v>3489.0168873573953</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
@@ -18187,43 +18195,43 @@
       </c>
       <c r="M53" s="70">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.66666666666666663</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="N53" s="70">
         <f ca="1">M53+1</f>
-        <v>1.6666666666666665</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="O53" s="70">
         <f ca="1">N53+1</f>
-        <v>2.6666666666666665</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="P53" s="70">
         <f t="shared" ref="P53:V53" ca="1" si="18">O53+1</f>
-        <v>3.6666666666666665</v>
+        <v>3.6527777777777777</v>
       </c>
       <c r="Q53" s="70">
         <f t="shared" ca="1" si="18"/>
-        <v>4.6666666666666661</v>
+        <v>4.6527777777777777</v>
       </c>
       <c r="R53" s="70">
         <f t="shared" ca="1" si="18"/>
-        <v>5.6666666666666661</v>
+        <v>5.6527777777777777</v>
       </c>
       <c r="S53" s="70">
         <f t="shared" ca="1" si="18"/>
-        <v>6.6666666666666661</v>
+        <v>6.6527777777777777</v>
       </c>
       <c r="T53" s="70">
         <f t="shared" ca="1" si="18"/>
-        <v>7.6666666666666661</v>
+        <v>7.6527777777777777</v>
       </c>
       <c r="U53" s="70">
         <f t="shared" ca="1" si="18"/>
-        <v>8.6666666666666661</v>
+        <v>8.6527777777777786</v>
       </c>
       <c r="V53" s="70">
         <f t="shared" ca="1" si="18"/>
-        <v>9.6666666666666661</v>
+        <v>9.6527777777777786</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
@@ -18236,7 +18244,7 @@
       <c r="Q54" s="47"/>
       <c r="V54" s="27">
         <f ca="1">SUM(M52:V52)</f>
-        <v>38294.503713705431</v>
+        <v>38285.602127671336</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
@@ -18280,7 +18288,7 @@
       <c r="U56" s="49"/>
       <c r="V56" s="50">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>44744.43370574389</v>
+        <v>44798.020938631322</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
@@ -18308,7 +18316,7 @@
       <c r="U57" s="52"/>
       <c r="V57" s="53">
         <f ca="1">V54+V56</f>
-        <v>83038.937419449328</v>
+        <v>83083.623066302651</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
@@ -18362,7 +18370,7 @@
       <c r="Q60" s="47"/>
       <c r="V60" s="54">
         <f ca="1">V57+V58-V59</f>
-        <v>82832.937419449328</v>
+        <v>82877.623066302651</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.25">
@@ -18399,7 +18407,7 @@
       </c>
       <c r="V62" s="54">
         <f ca="1">V60/V61</f>
-        <v>85.172381794681129</v>
+        <v>85.218329494872663</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -18432,35 +18440,35 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B68" s="55"/>
-      <c r="C68" s="72" t="s">
+      <c r="C68" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="72"/>
-      <c r="H68" s="72"/>
-      <c r="I68" s="72"/>
-      <c r="J68" s="73"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="73"/>
+      <c r="I68" s="73"/>
+      <c r="J68" s="74"/>
       <c r="M68" s="55"/>
-      <c r="N68" s="74" t="s">
+      <c r="N68" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="O68" s="74"/>
-      <c r="P68" s="74"/>
-      <c r="Q68" s="74"/>
-      <c r="R68" s="74"/>
-      <c r="S68" s="74"/>
-      <c r="T68" s="74"/>
-      <c r="U68" s="75"/>
+      <c r="O68" s="75"/>
+      <c r="P68" s="75"/>
+      <c r="Q68" s="75"/>
+      <c r="R68" s="75"/>
+      <c r="S68" s="75"/>
+      <c r="T68" s="75"/>
+      <c r="U68" s="76"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B69" s="76" t="s">
+      <c r="B69" s="77" t="s">
         <v>165</v>
       </c>
       <c r="C69" s="56">
         <f ca="1">+J4</f>
-        <v>85.172381794681129</v>
+        <v>85.218329494872663</v>
       </c>
       <c r="D69" s="57"/>
       <c r="E69" s="57"/>
@@ -18469,12 +18477,12 @@
       <c r="H69" s="57"/>
       <c r="I69" s="57"/>
       <c r="J69" s="57"/>
-      <c r="M69" s="76" t="s">
+      <c r="M69" s="77" t="s">
         <v>165</v>
       </c>
       <c r="N69" s="56">
         <f ca="1">+J4</f>
-        <v>85.172381794681129</v>
+        <v>85.218329494872663</v>
       </c>
       <c r="O69" s="57"/>
       <c r="P69" s="57"/>
@@ -18485,7 +18493,7 @@
       <c r="U69" s="57"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B70" s="76"/>
+      <c r="B70" s="77"/>
       <c r="C70" s="58"/>
       <c r="D70" s="59"/>
       <c r="E70" s="59"/>
@@ -18494,7 +18502,7 @@
       <c r="H70" s="59"/>
       <c r="I70" s="59"/>
       <c r="J70" s="59"/>
-      <c r="M70" s="76"/>
+      <c r="M70" s="77"/>
       <c r="N70" s="58"/>
       <c r="O70" s="59"/>
       <c r="P70" s="59"/>
@@ -18505,7 +18513,7 @@
       <c r="U70" s="59"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B71" s="76"/>
+      <c r="B71" s="77"/>
       <c r="C71" s="58"/>
       <c r="D71" s="59"/>
       <c r="E71" s="59"/>
@@ -18514,7 +18522,7 @@
       <c r="H71" s="59"/>
       <c r="I71" s="59"/>
       <c r="J71" s="59"/>
-      <c r="M71" s="76"/>
+      <c r="M71" s="77"/>
       <c r="N71" s="58"/>
       <c r="O71" s="59"/>
       <c r="P71" s="59"/>
@@ -18525,7 +18533,7 @@
       <c r="U71" s="59"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B72" s="76"/>
+      <c r="B72" s="77"/>
       <c r="C72" s="58"/>
       <c r="D72" s="60"/>
       <c r="E72" s="60"/>
@@ -18534,7 +18542,7 @@
       <c r="H72" s="60"/>
       <c r="I72" s="60"/>
       <c r="J72" s="60"/>
-      <c r="M72" s="76"/>
+      <c r="M72" s="77"/>
       <c r="N72" s="58"/>
       <c r="O72" s="60"/>
       <c r="P72" s="60"/>
@@ -18545,7 +18553,7 @@
       <c r="U72" s="60"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B73" s="76"/>
+      <c r="B73" s="77"/>
       <c r="C73" s="58"/>
       <c r="D73" s="59"/>
       <c r="E73" s="59"/>
@@ -18554,7 +18562,7 @@
       <c r="H73" s="59"/>
       <c r="I73" s="59"/>
       <c r="J73" s="59"/>
-      <c r="M73" s="76"/>
+      <c r="M73" s="77"/>
       <c r="N73" s="58"/>
       <c r="O73" s="59"/>
       <c r="P73" s="59"/>
@@ -18565,7 +18573,7 @@
       <c r="U73" s="59"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B74" s="76"/>
+      <c r="B74" s="77"/>
       <c r="C74" s="58"/>
       <c r="D74" s="59"/>
       <c r="E74" s="59"/>
@@ -18574,7 +18582,7 @@
       <c r="H74" s="59"/>
       <c r="I74" s="59"/>
       <c r="J74" s="59"/>
-      <c r="M74" s="76"/>
+      <c r="M74" s="77"/>
       <c r="N74" s="58"/>
       <c r="O74" s="59"/>
       <c r="P74" s="59"/>
@@ -18585,7 +18593,7 @@
       <c r="U74" s="59"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B75" s="76"/>
+      <c r="B75" s="77"/>
       <c r="C75" s="58"/>
       <c r="D75" s="59"/>
       <c r="E75" s="59"/>
@@ -18594,7 +18602,7 @@
       <c r="H75" s="59"/>
       <c r="I75" s="59"/>
       <c r="J75" s="59"/>
-      <c r="M75" s="76"/>
+      <c r="M75" s="77"/>
       <c r="N75" s="58"/>
       <c r="O75" s="59"/>
       <c r="P75" s="59"/>
@@ -18605,7 +18613,7 @@
       <c r="U75" s="59"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B76" s="77"/>
+      <c r="B76" s="78"/>
       <c r="C76" s="58"/>
       <c r="D76" s="59"/>
       <c r="E76" s="59"/>
@@ -18614,7 +18622,7 @@
       <c r="H76" s="59"/>
       <c r="I76" s="59"/>
       <c r="J76" s="59"/>
-      <c r="M76" s="77"/>
+      <c r="M76" s="78"/>
       <c r="N76" s="58"/>
       <c r="O76" s="59"/>
       <c r="P76" s="59"/>

--- a/PYPL.xlsx
+++ b/PYPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D71510-0BBA-459E-BD18-7D01A446E30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A40ED4A-6438-4AB2-B0A8-F386CE5E44EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{B690896D-DF4D-4BA1-A25A-CD8C19559281}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{B690896D-DF4D-4BA1-A25A-CD8C19559281}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1958,8 +1958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F113AC37-A5A9-4DE4-95F6-ABC9256F2DCD}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="I2">
-        <v>64.8</v>
+        <v>76.400000000000006</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1988,10 +1988,10 @@
         <v>4</v>
       </c>
       <c r="I3" s="3">
-        <v>972.53282899999999</v>
+        <v>969</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I3*I2</f>
-        <v>63020.127319199994</v>
+        <v>74031.600000000006</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2014,11 +2014,11 @@
         <v>6</v>
       </c>
       <c r="I5" s="3">
-        <f>7449+3762</f>
-        <v>11211</v>
+        <f>6688+3320</f>
+        <v>10008</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2026,10 +2026,10 @@
         <v>7</v>
       </c>
       <c r="I6" s="3">
-        <v>11417</v>
+        <v>11296</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>63226.127319199994</v>
+        <v>75319.600000000006</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2177,10 +2177,10 @@
   <dimension ref="A1:AR236"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2515,7 +2515,9 @@
       <c r="K7" s="3">
         <v>436</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3">
+        <v>438</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -2589,7 +2591,9 @@
       <c r="K8" s="3">
         <v>6045</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3">
+        <v>6226</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -2672,7 +2676,9 @@
         <f t="shared" si="2"/>
         <v>69.017038875103395</v>
       </c>
-      <c r="L9" s="8"/>
+      <c r="L9" s="8">
+        <v>58.3</v>
+      </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="3"/>
@@ -2764,24 +2770,27 @@
         <f t="shared" si="7"/>
         <v>956.89908256880733</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3">
+        <f t="shared" ref="L10" si="8">+L12/L7</f>
+        <v>1012.6643835616438</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3">
-        <f t="shared" ref="P10:R10" si="8">+P12/P7</f>
+        <f t="shared" ref="P10:R10" si="9">+P12/P7</f>
         <v>1808.6834170854272</v>
       </c>
       <c r="Q10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1992.0480349344978</v>
       </c>
       <c r="R10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2166.36329588015</v>
       </c>
       <c r="S10" s="3">
-        <f t="shared" ref="S10:U10" si="9">+S12/S7</f>
+        <f t="shared" ref="S10:U10" si="10">+S12/S7</f>
         <v>2334.1803278688526</v>
       </c>
       <c r="T10" s="3">
@@ -2789,15 +2798,15 @@
         <v>2482.9230769230771</v>
       </c>
       <c r="U10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2924.5985915492956</v>
       </c>
       <c r="V10" s="3">
-        <f t="shared" ref="V10:W10" si="10">+V12/V7</f>
+        <f t="shared" ref="V10:W10" si="11">+V12/V7</f>
         <v>3119.7977011494254</v>
       </c>
       <c r="W10" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3588.2136150234742</v>
       </c>
       <c r="X10" s="3">
@@ -2821,75 +2830,78 @@
         <v>54</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ref="C11:I11" si="11">+C8/C7</f>
+        <f t="shared" ref="C11:I11" si="12">+C8/C7</f>
         <v>13.475750577367206</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14.092807424593968</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14.661214953271028</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15.95774647887324</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15.234192037470725</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15.337995337995338</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15.349537037037036</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" ref="J11:K11" si="12">+J8/J7</f>
+        <f t="shared" ref="J11:K11" si="13">+J8/J7</f>
         <v>15.251152073732719</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13.864678899082568</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3">
+        <f t="shared" ref="L11" si="14">+L8/L7</f>
+        <v>14.214611872146119</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3">
-        <f t="shared" ref="P11:U11" si="13">+P8/P7</f>
+        <f t="shared" ref="P11:U11" si="15">+P8/P7</f>
         <v>31.633165829145728</v>
       </c>
       <c r="Q11" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>33.925764192139738</v>
       </c>
       <c r="R11" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>36.970037453183522</v>
       </c>
       <c r="S11" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>40.527868852459015</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>40.909814323607428</v>
       </c>
       <c r="U11" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>45.417840375586856</v>
       </c>
       <c r="V11" s="3">
-        <f t="shared" ref="V11:W11" si="14">+V8/V7</f>
+        <f t="shared" ref="V11:W11" si="16">+V8/V7</f>
         <v>51.377011494252876</v>
       </c>
       <c r="W11" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>58.640845070422536</v>
       </c>
       <c r="X11" s="3">
@@ -2939,7 +2951,9 @@
       <c r="K12" s="7">
         <v>417208</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="7">
+        <v>443547</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -2988,11 +3002,11 @@
         <v>48</v>
       </c>
       <c r="C13" s="72">
-        <f t="shared" ref="C13:D13" si="15">+C19/C12</f>
+        <f t="shared" ref="C13:D13" si="17">+C19/C12</f>
         <v>1.9858508129576766E-2</v>
       </c>
       <c r="D13" s="72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.9352628419973549E-2</v>
       </c>
       <c r="E13" s="72">
@@ -3000,19 +3014,19 @@
         <v>1.913330117796962E-2</v>
       </c>
       <c r="F13" s="72">
-        <f t="shared" ref="F13:I13" si="16">+F19/F12</f>
+        <f t="shared" ref="F13:I13" si="18">+F19/F12</f>
         <v>1.9583634269651956E-2</v>
       </c>
       <c r="G13" s="72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.9063536869212104E-2</v>
       </c>
       <c r="H13" s="72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.8917310838887369E-2</v>
       </c>
       <c r="I13" s="72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.8566584879365702E-2</v>
       </c>
       <c r="J13" s="72">
@@ -3023,44 +3037,47 @@
         <f>+K19/K12</f>
         <v>1.8674138559183907E-2</v>
       </c>
-      <c r="L13" s="6"/>
+      <c r="L13" s="72">
+        <f>+L19/L12</f>
+        <v>1.8685731162650182E-2</v>
+      </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="72">
-        <f t="shared" ref="P13:R13" si="17">+P19/P12</f>
+        <f t="shared" ref="P13:R13" si="19">+P19/P12</f>
         <v>3.012269120490765E-2</v>
       </c>
       <c r="Q13" s="72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.8703644841169804E-2</v>
       </c>
       <c r="R13" s="72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.6712469680283669E-2</v>
       </c>
       <c r="S13" s="72">
-        <f t="shared" ref="S13:X13" si="18">+S19/S12</f>
+        <f t="shared" ref="S13:X13" si="20">+S19/S12</f>
         <v>2.4963303718790603E-2</v>
       </c>
       <c r="T13" s="72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.2919422004098019E-2</v>
       </c>
       <c r="U13" s="72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.0363935823623322E-2</v>
       </c>
       <c r="V13" s="72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.0276882084897932E-2</v>
       </c>
       <c r="W13" s="72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.9476258668999116E-2</v>
       </c>
       <c r="X13" s="72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.8913838741337775E-2</v>
       </c>
       <c r="Y13" s="6"/>
@@ -3143,7 +3160,9 @@
       <c r="K15" s="3">
         <v>4463</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3">
+        <v>4709</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -3218,7 +3237,9 @@
       <c r="K16" s="3">
         <v>3328</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3">
+        <v>3579</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -3299,7 +3320,9 @@
       <c r="K17" s="3">
         <v>7016</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3">
+        <v>7441</v>
+      </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -3374,7 +3397,9 @@
       <c r="K18" s="3">
         <v>775</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="3">
+        <v>847</v>
+      </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -3457,7 +3482,9 @@
       <c r="K19" s="7">
         <v>7791</v>
       </c>
-      <c r="L19" s="7"/>
+      <c r="L19" s="7">
+        <v>8288</v>
+      </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -3540,7 +3567,9 @@
       <c r="K20" s="3">
         <v>3704</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3">
+        <v>3968</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -3626,7 +3655,9 @@
       <c r="K21" s="3">
         <v>371</v>
       </c>
-      <c r="L21" s="3"/>
+      <c r="L21" s="3">
+        <v>476</v>
+      </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -3683,75 +3714,78 @@
         <v>28</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" ref="C22" si="19">+C19-SUM(C20:C21)</f>
+        <f t="shared" ref="C22" si="21">+C19-SUM(C20:C21)</f>
         <v>3315</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" ref="D22" si="20">+D19-SUM(D20:D21)</f>
+        <f t="shared" ref="D22" si="22">+D19-SUM(D20:D21)</f>
         <v>3348</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" ref="E22" si="21">+E19-SUM(E20:E21)</f>
+        <f t="shared" ref="E22" si="23">+E19-SUM(E20:E21)</f>
         <v>3369</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" ref="F22" si="22">+F19-SUM(F20:F21)</f>
+        <f t="shared" ref="F22" si="24">+F19-SUM(F20:F21)</f>
         <v>3672</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" ref="G22" si="23">+G19-SUM(G20:G21)</f>
+        <f t="shared" ref="G22" si="25">+G19-SUM(G20:G21)</f>
         <v>3461</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" ref="H22" si="24">+H19-SUM(H20:H21)</f>
+        <f t="shared" ref="H22" si="26">+H19-SUM(H20:H21)</f>
         <v>3608</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" ref="I22" si="25">+I19-SUM(I20:I21)</f>
+        <f t="shared" ref="I22" si="27">+I19-SUM(I20:I21)</f>
         <v>3654</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" ref="J22:K22" si="26">+J19-SUM(J20:J21)</f>
+        <f t="shared" ref="J22:L22" si="28">+J19-SUM(J20:J21)</f>
         <v>3935</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3716</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="3">
+        <f t="shared" si="28"/>
+        <v>3844</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3">
-        <f t="shared" ref="P22:Q22" si="27">+P19-SUM(P20:P21)</f>
+        <f t="shared" ref="P22:Q22" si="29">+P19-SUM(P20:P21)</f>
         <v>5684</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6859</v>
       </c>
       <c r="R22" s="3">
-        <f t="shared" ref="R22:W22" si="28">+R19-SUM(R20:R21)</f>
+        <f t="shared" ref="R22:W22" si="30">+R19-SUM(R20:R21)</f>
         <v>7820</v>
       </c>
       <c r="S22" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>9602</v>
       </c>
       <c r="T22" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>11779</v>
       </c>
       <c r="U22" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>13996</v>
       </c>
       <c r="V22" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>13773</v>
       </c>
       <c r="W22" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>13704</v>
       </c>
       <c r="X22" s="3">
@@ -3810,7 +3844,9 @@
       <c r="K23" s="3">
         <v>398</v>
       </c>
-      <c r="L23" s="3"/>
+      <c r="L23" s="3">
+        <v>413</v>
+      </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -3893,7 +3929,9 @@
       <c r="K24" s="3">
         <v>488</v>
       </c>
-      <c r="L24" s="3"/>
+      <c r="L24" s="3">
+        <v>583</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -3976,7 +4014,9 @@
       <c r="K25" s="3">
         <v>731</v>
       </c>
-      <c r="L25" s="3"/>
+      <c r="L25" s="3">
+        <v>767</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -4059,7 +4099,9 @@
       <c r="K26" s="3">
         <v>503</v>
       </c>
-      <c r="L26" s="3"/>
+      <c r="L26" s="3">
+        <v>461</v>
+      </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -4142,7 +4184,9 @@
       <c r="K27" s="3">
         <v>66</v>
       </c>
-      <c r="L27" s="3"/>
+      <c r="L27" s="3">
+        <v>116</v>
+      </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -4199,47 +4243,50 @@
         <v>35</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" ref="C28" si="29">+C22-SUM(C23:C27)</f>
+        <f t="shared" ref="C28" si="31">+C22-SUM(C23:C27)</f>
         <v>999</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" ref="D28" si="30">+D22-SUM(D23:D27)</f>
+        <f t="shared" ref="D28" si="32">+D22-SUM(D23:D27)</f>
         <v>1133</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" ref="E28" si="31">+E22-SUM(E23:E27)</f>
+        <f t="shared" ref="E28" si="33">+E22-SUM(E23:E27)</f>
         <v>1168</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" ref="F28" si="32">+F22-SUM(F23:F27)</f>
+        <f t="shared" ref="F28" si="34">+F22-SUM(F23:F27)</f>
         <v>1728</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" ref="G28" si="33">+G22-SUM(G23:G27)</f>
+        <f t="shared" ref="G28" si="35">+G22-SUM(G23:G27)</f>
         <v>1168</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" ref="H28" si="34">+H22-SUM(H23:H27)</f>
+        <f t="shared" ref="H28" si="36">+H22-SUM(H23:H27)</f>
         <v>1325</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" ref="I28" si="35">+I22-SUM(I23:I27)</f>
+        <f t="shared" ref="I28" si="37">+I22-SUM(I23:I27)</f>
         <v>1391</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" ref="J28" si="36">+J22-SUM(J23:J27)</f>
+        <f t="shared" ref="J28" si="38">+J22-SUM(J23:J27)</f>
         <v>1441</v>
       </c>
       <c r="K28" s="3">
         <f>+K22-SUM(K23:K27)</f>
         <v>1530</v>
       </c>
-      <c r="L28" s="3"/>
+      <c r="L28" s="3">
+        <f>+L22-SUM(L23:L27)</f>
+        <v>1504</v>
+      </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3">
-        <f t="shared" ref="P28:W28" si="37">+P22-SUM(P23:P27)</f>
+        <f t="shared" ref="P28:W28" si="39">+P22-SUM(P23:P27)</f>
         <v>1586</v>
       </c>
       <c r="Q28" s="3">
@@ -4247,27 +4294,27 @@
         <v>2127</v>
       </c>
       <c r="R28" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>2194</v>
       </c>
       <c r="S28" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>2719</v>
       </c>
       <c r="T28" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>3289</v>
       </c>
       <c r="U28" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>4262</v>
       </c>
       <c r="V28" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>3837</v>
       </c>
       <c r="W28" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5028</v>
       </c>
       <c r="X28" s="3">
@@ -4326,7 +4373,9 @@
       <c r="K29" s="3">
         <v>73</v>
       </c>
-      <c r="L29" s="3"/>
+      <c r="L29" s="3">
+        <v>25</v>
+      </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -4383,27 +4432,27 @@
         <v>37</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" ref="C30:H30" si="38">+C28+C29</f>
+        <f t="shared" ref="C30:H30" si="40">+C28+C29</f>
         <v>1074</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1303</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1241</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1793</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1209</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1399</v>
       </c>
       <c r="I30" s="3">
@@ -4411,51 +4460,54 @@
         <v>1311</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" ref="J30:X30" si="39">+J28+J29</f>
+        <f t="shared" ref="J30:X30" si="41">+J28+J29</f>
         <v>1410</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1603</v>
       </c>
-      <c r="L30" s="3"/>
+      <c r="L30" s="3">
+        <f t="shared" si="41"/>
+        <v>1529</v>
+      </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1631</v>
       </c>
       <c r="Q30" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2200</v>
       </c>
       <c r="R30" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2376</v>
       </c>
       <c r="S30" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2998</v>
       </c>
       <c r="T30" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5065</v>
       </c>
       <c r="U30" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>4099</v>
       </c>
       <c r="V30" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3366</v>
       </c>
       <c r="W30" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5411</v>
       </c>
       <c r="X30" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5329</v>
       </c>
       <c r="Y30" s="3"/>
@@ -4510,7 +4562,9 @@
       <c r="K31" s="3">
         <v>316</v>
       </c>
-      <c r="L31" s="3"/>
+      <c r="L31" s="3">
+        <v>269</v>
+      </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -4567,27 +4621,27 @@
         <v>39</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" ref="C32:H32" si="40">+C30-C31</f>
+        <f t="shared" ref="C32:H32" si="42">+C30-C31</f>
         <v>795</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1029</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1020</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1402</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>888</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1128</v>
       </c>
       <c r="I32" s="3">
@@ -4595,39 +4649,42 @@
         <v>1010</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" ref="J32:K32" si="41">+J30-J31</f>
+        <f t="shared" ref="J32:L32" si="43">+J30-J31</f>
         <v>1121</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1287</v>
       </c>
-      <c r="L32" s="3"/>
+      <c r="L32" s="3">
+        <f t="shared" si="43"/>
+        <v>1260</v>
+      </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3">
-        <f t="shared" ref="P32:U32" si="42">+P30-P31</f>
+        <f t="shared" ref="P32:U32" si="44">+P30-P31</f>
         <v>1401</v>
       </c>
       <c r="Q32" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1795</v>
       </c>
       <c r="R32" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>2057</v>
       </c>
       <c r="S32" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>2459</v>
       </c>
       <c r="T32" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4202</v>
       </c>
       <c r="U32" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4169</v>
       </c>
       <c r="V32" s="3">
@@ -4635,11 +4692,11 @@
         <v>2419</v>
       </c>
       <c r="W32" s="3">
-        <f t="shared" ref="W32:X32" si="43">+W30-W31</f>
+        <f t="shared" ref="W32:X32" si="45">+W30-W31</f>
         <v>4246</v>
       </c>
       <c r="X32" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>4147</v>
       </c>
       <c r="Y32" s="3"/>
@@ -4712,11 +4769,11 @@
         <v>40</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" ref="C34:D34" si="44">+C32/C35</f>
+        <f t="shared" ref="C34:D34" si="46">+C32/C35</f>
         <v>0.70416297608503098</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.9261926192619262</v>
       </c>
       <c r="E34" s="2">
@@ -4728,59 +4785,62 @@
         <v>1.3017641597028784</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" ref="G34:K34" si="45">+G32/G35</f>
+        <f t="shared" ref="G34:L34" si="47">+G32/G35</f>
         <v>0.83458646616541354</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.99507389162561577</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.1243731193580742</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.3052738336713996</v>
       </c>
-      <c r="L34" s="2"/>
+      <c r="L34" s="2">
+        <f t="shared" si="47"/>
+        <v>1.3003095975232197</v>
+      </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2">
-        <f t="shared" ref="P34:W34" si="46">+P32/P35</f>
+        <f t="shared" ref="P34:W34" si="48">+P32/P35</f>
         <v>1.1578512396694214</v>
       </c>
       <c r="Q34" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1.4921030756442228</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1.7373310810810811</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>2.094548551959114</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>3.5822676896845693</v>
       </c>
       <c r="U34" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>3.5511073253833048</v>
       </c>
       <c r="V34" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>2.0889464594127807</v>
       </c>
       <c r="W34" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>3.8355916892502258</v>
       </c>
       <c r="X34" s="2">
@@ -4839,7 +4899,9 @@
       <c r="K35" s="3">
         <v>986</v>
       </c>
-      <c r="L35" s="3"/>
+      <c r="L35" s="3">
+        <v>969</v>
+      </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -4944,60 +5006,63 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="6">
-        <f t="shared" ref="G37:J37" si="47">+G7/C7-1</f>
+        <f t="shared" ref="G37:J37" si="49">+G7/C7-1</f>
         <v>-1.3856812933025431E-2</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-4.6403712296984034E-3</v>
       </c>
       <c r="I37" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>9.3457943925232545E-3</v>
       </c>
       <c r="J37" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1.8779342723004744E-2</v>
       </c>
       <c r="K37" s="6">
         <f>+K7/G7-1</f>
         <v>2.1077283372365363E-2</v>
       </c>
-      <c r="L37" s="3"/>
+      <c r="L37" s="6">
+        <f>+L7/H7-1</f>
+        <v>2.0979020979021046E-2</v>
+      </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="6">
-        <f t="shared" ref="Q37:S37" si="48">+Q7/P7-1</f>
+        <f t="shared" ref="Q37:S37" si="50">+Q7/P7-1</f>
         <v>0.15075376884422109</v>
       </c>
       <c r="R37" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.1659388646288209</v>
       </c>
       <c r="S37" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.14232209737827706</v>
       </c>
       <c r="T37" s="6">
-        <f t="shared" ref="T37:X38" si="49">+T7/S7-1</f>
+        <f t="shared" ref="T37:X38" si="51">+T7/S7-1</f>
         <v>0.23606557377049175</v>
       </c>
       <c r="U37" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.12997347480106103</v>
       </c>
       <c r="V37" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2.1126760563380254E-2</v>
       </c>
       <c r="W37" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>-2.0689655172413834E-2</v>
       </c>
       <c r="X37" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.8779342723004744E-2</v>
       </c>
       <c r="Y37" s="3"/>
@@ -5030,60 +5095,63 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="6">
-        <f t="shared" ref="G38:J38" si="50">+G8/C8-1</f>
+        <f t="shared" ref="G38:J38" si="52">+G8/C8-1</f>
         <v>0.11482433590402752</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>8.3305893974316758E-2</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>5.6733067729083597E-2</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>-2.6331273904089403E-2</v>
       </c>
       <c r="K38" s="6">
         <f>+K8/G8-1</f>
         <v>-7.0714834742505728E-2</v>
       </c>
-      <c r="L38" s="3"/>
+      <c r="L38" s="6">
+        <f>+L8/H8-1</f>
+        <v>-5.3799392097264476E-2</v>
+      </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="6">
-        <f t="shared" ref="Q38:S38" si="51">+Q8/P8-1</f>
+        <f t="shared" ref="Q38:S38" si="53">+Q8/P8-1</f>
         <v>0.23415409054805392</v>
       </c>
       <c r="R38" s="6">
+        <f t="shared" si="53"/>
+        <v>0.27056249195520654</v>
+      </c>
+      <c r="S38" s="6">
+        <f t="shared" si="53"/>
+        <v>0.25225407760105356</v>
+      </c>
+      <c r="T38" s="6">
         <f t="shared" si="51"/>
-        <v>0.27056249195520654</v>
-      </c>
-      <c r="S38" s="6">
+        <v>0.24771458619852771</v>
+      </c>
+      <c r="U38" s="6">
         <f t="shared" si="51"/>
-        <v>0.25225407760105356</v>
-      </c>
-      <c r="T38" s="6">
-        <f t="shared" si="49"/>
-        <v>0.24771458619852771</v>
-      </c>
-      <c r="U38" s="6">
-        <f t="shared" si="49"/>
         <v>0.25449004733190694</v>
       </c>
       <c r="V38" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.15510647095307006</v>
       </c>
       <c r="W38" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.11776813280236254</v>
       </c>
       <c r="X38" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>5.4161162483487457E-2</v>
       </c>
       <c r="Y38" s="3"/>
@@ -5135,21 +5203,24 @@
         <f>+K12/G12-1</f>
         <v>3.3051057297083242E-2</v>
       </c>
-      <c r="L39" s="6"/>
+      <c r="L39" s="6">
+        <f>+L12/H12-1</f>
+        <v>6.4136521326059182E-2</v>
+      </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6">
-        <f t="shared" ref="Q39:S39" si="52">+Q12/P12-1</f>
+        <f t="shared" ref="Q39:S39" si="54">+Q12/P12-1</f>
         <v>0.26741737236336149</v>
       </c>
       <c r="R39" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.26796498742818065</v>
       </c>
       <c r="S39" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.23081192007869733</v>
       </c>
       <c r="T39" s="6">
@@ -5202,60 +5273,63 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="6">
-        <f t="shared" ref="G40:K42" si="53">+G17/C17-1</f>
+        <f t="shared" ref="G40:L42" si="55">+G17/C17-1</f>
         <v>0.10527969830295403</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.6917827694057364E-2</v>
       </c>
       <c r="I40" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6.2067929065223959E-2</v>
       </c>
       <c r="J40" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>4.1878346835095392E-2</v>
       </c>
       <c r="K40" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>-2.5589991470003071E-3</v>
       </c>
-      <c r="L40" s="6"/>
+      <c r="L40" s="6">
+        <f t="shared" si="55"/>
+        <v>4.0262826785963934E-2</v>
+      </c>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6">
-        <f t="shared" ref="Q40:S40" si="54">+Q17/P17-1</f>
+        <f t="shared" ref="Q40:S40" si="56">+Q17/P17-1</f>
         <v>0.19989567031820554</v>
       </c>
       <c r="R40" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.19198330579949574</v>
       </c>
       <c r="S40" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.17433802611423155</v>
       </c>
       <c r="T40" s="6">
-        <f t="shared" ref="T40:X42" si="55">+T17/S17-1</f>
+        <f t="shared" ref="T40:X42" si="57">+T17/S17-1</f>
         <v>0.23721970308714835</v>
       </c>
       <c r="U40" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0.17491716035746552</v>
       </c>
       <c r="V40" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>7.7087428424921001E-2</v>
       </c>
       <c r="W40" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>6.5500277711656008E-2</v>
       </c>
       <c r="X40" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>7.3909967606210714E-2</v>
       </c>
       <c r="Y40" s="6"/>
@@ -5288,60 +5362,63 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>-1.6272189349112454E-2</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0.10075187969924815</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>2.0942408376963373E-2</v>
       </c>
       <c r="J41" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>4.7106325706594898E-2</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0.16541353383458657</v>
       </c>
-      <c r="L41" s="6"/>
+      <c r="L41" s="6">
+        <f t="shared" si="55"/>
+        <v>0.15710382513661192</v>
+      </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6">
-        <f t="shared" ref="Q41:S41" si="56">+Q18/P18-1</f>
+        <f t="shared" ref="Q41:S41" si="58">+Q18/P18-1</f>
         <v>0.26730310262529833</v>
       </c>
       <c r="R41" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>9.3534212178280063E-2</v>
       </c>
       <c r="S41" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>-3.960964408725598E-2</v>
       </c>
       <c r="T41" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>-8.1888822474596501E-2</v>
       </c>
       <c r="U41" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0.28190104166666674</v>
       </c>
       <c r="V41" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0.17420010157440324</v>
       </c>
       <c r="W41" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0.26038062283737018</v>
       </c>
       <c r="X41" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1.4070006863418083E-2</v>
       </c>
       <c r="Y41" s="6"/>
@@ -5374,60 +5451,63 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>9.3607954545454453E-2</v>
       </c>
       <c r="H42" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>8.2063949499108002E-2</v>
       </c>
       <c r="I42" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>5.7832299811269916E-2</v>
       </c>
       <c r="J42" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>4.2362322452030865E-2</v>
       </c>
       <c r="K42" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.1949603844655154E-2</v>
       </c>
-      <c r="L42" s="9"/>
+      <c r="L42" s="9">
+        <f t="shared" si="55"/>
+        <v>5.1109701965757814E-2</v>
+      </c>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
       <c r="O42" s="6"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="9">
-        <f t="shared" ref="Q42:S42" si="57">+Q19/P19-1</f>
+        <f t="shared" ref="Q42:S42" si="59">+Q19/P19-1</f>
         <v>0.20771075447334431</v>
       </c>
       <c r="R42" s="9">
+        <f t="shared" si="59"/>
+        <v>0.18000610966855057</v>
+      </c>
+      <c r="S42" s="9">
+        <f t="shared" si="59"/>
+        <v>0.15021681444566704</v>
+      </c>
+      <c r="T42" s="9">
         <f t="shared" si="57"/>
-        <v>0.18000610966855057</v>
-      </c>
-      <c r="S42" s="9">
+        <v>0.20717983344586988</v>
+      </c>
+      <c r="U42" s="9">
         <f t="shared" si="57"/>
-        <v>0.15021681444566704</v>
-      </c>
-      <c r="T42" s="9">
-        <f t="shared" si="55"/>
-        <v>0.20717983344586988</v>
-      </c>
-      <c r="U42" s="9">
-        <f t="shared" si="55"/>
         <v>0.18257667567819524</v>
       </c>
       <c r="V42" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>8.4624177210200546E-2</v>
       </c>
       <c r="W42" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>8.1873682680427384E-2</v>
       </c>
       <c r="X42" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>6.8052803063383793E-2</v>
       </c>
       <c r="Y42" s="9"/>
@@ -5456,59 +5536,62 @@
         <v>42</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" ref="C43:J43" si="58">+C22/C19</f>
+        <f t="shared" ref="C43:J43" si="60">+C22/C19</f>
         <v>0.47088068181818182</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.45944833264717994</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.45416554327311942</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.45751308248193373</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.44953890115599426</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.45757767913760306</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.46565566458519181</v>
       </c>
       <c r="J43" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.47035620368156827</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" ref="K43" si="59">+K22/K19</f>
+        <f t="shared" ref="K43:L43" si="61">+K22/K19</f>
         <v>0.4769605955589783</v>
       </c>
-      <c r="L43" s="6"/>
+      <c r="L43" s="6">
+        <f t="shared" si="61"/>
+        <v>0.46380308880308879</v>
+      </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6">
-        <f t="shared" ref="P43:S43" si="60">+P22/P19</f>
+        <f t="shared" ref="P43:S43" si="62">+P22/P19</f>
         <v>0.5242575170632725</v>
       </c>
       <c r="Q43" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0.52382770734687645</v>
       </c>
       <c r="R43" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0.50611610898970938</v>
       </c>
       <c r="S43" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0.54028809363042984</v>
       </c>
       <c r="T43" s="6">
@@ -5557,79 +5640,82 @@
         <v>43</v>
       </c>
       <c r="C44" s="6">
-        <f t="shared" ref="C44:J44" si="61">+C28/C19</f>
+        <f t="shared" ref="C44:J44" si="63">+C28/C19</f>
         <v>0.14190340909090909</v>
       </c>
       <c r="D44" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0.15548236585700562</v>
       </c>
       <c r="E44" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0.15745483957940146</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0.21530027410914529</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0.15170801402779582</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0.16804058338617628</v>
       </c>
       <c r="I44" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0.17726519689053141</v>
       </c>
       <c r="J44" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0.17224480038250059</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" ref="K44" si="62">+K28/K19</f>
+        <f t="shared" ref="K44:L44" si="64">+K28/K19</f>
         <v>0.19638043896804006</v>
       </c>
-      <c r="L44" s="6"/>
+      <c r="L44" s="6">
+        <f t="shared" si="64"/>
+        <v>0.18146718146718147</v>
+      </c>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6">
-        <f t="shared" ref="P44:R44" si="63">+P28/P19</f>
+        <f t="shared" ref="P44:R44" si="65">+P28/P19</f>
         <v>0.14628297362110312</v>
       </c>
       <c r="Q44" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.16244081258591722</v>
       </c>
       <c r="R44" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.1419972817293379</v>
       </c>
       <c r="S44" s="6">
-        <f t="shared" ref="S44:X44" si="64">+S28/S19</f>
+        <f t="shared" ref="S44:X44" si="66">+S28/S19</f>
         <v>0.15299347287868556</v>
       </c>
       <c r="T44" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.15330474503589075</v>
       </c>
       <c r="U44" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.16798707185369122</v>
       </c>
       <c r="V44" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.13943600552365723</v>
       </c>
       <c r="W44" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.16888918746431092</v>
       </c>
       <c r="X44" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.16746862911595434</v>
       </c>
       <c r="Y44" s="6"/>
@@ -5658,27 +5744,27 @@
         <v>44</v>
       </c>
       <c r="C45" s="6">
-        <f t="shared" ref="C45:H45" si="65">+C31/C30</f>
+        <f t="shared" ref="C45:H45" si="67">+C31/C30</f>
         <v>0.25977653631284914</v>
       </c>
       <c r="D45" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.21028396009209516</v>
       </c>
       <c r="E45" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.17808219178082191</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.2180702732849972</v>
       </c>
       <c r="G45" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.26550868486352358</v>
       </c>
       <c r="H45" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.1937097927090779</v>
       </c>
       <c r="I45" s="6">
@@ -5686,51 +5772,54 @@
         <v>0.2295957284515637</v>
       </c>
       <c r="J45" s="6">
-        <f t="shared" ref="J45:X45" si="66">+J31/J30</f>
+        <f t="shared" ref="J45:X45" si="68">+J31/J30</f>
         <v>0.20496453900709219</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" ref="K45" si="67">+K31/K30</f>
+        <f t="shared" ref="K45:L45" si="69">+K31/K30</f>
         <v>0.19713038053649407</v>
       </c>
-      <c r="L45" s="6"/>
+      <c r="L45" s="6">
+        <f t="shared" si="69"/>
+        <v>0.17593198168737736</v>
+      </c>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6">
-        <f t="shared" ref="P45:R45" si="68">+P31/P30</f>
+        <f t="shared" ref="P45:R45" si="70">+P31/P30</f>
         <v>0.14101778050275904</v>
       </c>
       <c r="Q45" s="6">
+        <f t="shared" si="70"/>
+        <v>0.18409090909090908</v>
+      </c>
+      <c r="R45" s="6">
+        <f t="shared" si="70"/>
+        <v>0.13425925925925927</v>
+      </c>
+      <c r="S45" s="6">
         <f t="shared" si="68"/>
-        <v>0.18409090909090908</v>
-      </c>
-      <c r="R45" s="6">
+        <v>0.17978652434956638</v>
+      </c>
+      <c r="T45" s="6">
+        <f t="shared" ref="T45:U45" si="71">+T31/T30</f>
+        <v>0.17038499506416585</v>
+      </c>
+      <c r="U45" s="6">
+        <f t="shared" si="71"/>
+        <v>-1.7077335935594046E-2</v>
+      </c>
+      <c r="V45" s="6">
         <f t="shared" si="68"/>
-        <v>0.13425925925925927</v>
-      </c>
-      <c r="S45" s="6">
-        <f t="shared" si="66"/>
-        <v>0.17978652434956638</v>
-      </c>
-      <c r="T45" s="6">
-        <f t="shared" ref="T45:U45" si="69">+T31/T30</f>
-        <v>0.17038499506416585</v>
-      </c>
-      <c r="U45" s="6">
-        <f t="shared" si="69"/>
-        <v>-1.7077335935594046E-2</v>
-      </c>
-      <c r="V45" s="6">
-        <f t="shared" si="66"/>
         <v>0.28134284016636957</v>
       </c>
       <c r="W45" s="6">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0.21530216226205878</v>
       </c>
       <c r="X45" s="6">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0.22180521673860012</v>
       </c>
       <c r="Y45" s="6"/>
@@ -6245,31 +6334,31 @@
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3">
-        <f t="shared" ref="Q54:W54" si="70">+SUM(Q48:Q53)</f>
+        <f t="shared" ref="Q54:W54" si="72">+SUM(Q48:Q53)</f>
         <v>32645</v>
       </c>
       <c r="R54" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>32963</v>
       </c>
       <c r="S54" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>38495</v>
       </c>
       <c r="T54" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>50995</v>
       </c>
       <c r="U54" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>52574</v>
       </c>
       <c r="V54" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>57517</v>
       </c>
       <c r="W54" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>62569</v>
       </c>
       <c r="X54" s="3">
@@ -6639,23 +6728,23 @@
         <v>10369</v>
       </c>
       <c r="S60" s="3">
-        <f t="shared" ref="S60:W60" si="71">+SUM(S55:S59)</f>
+        <f t="shared" ref="S60:W60" si="73">+SUM(S55:S59)</f>
         <v>12838</v>
       </c>
       <c r="T60" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>19384</v>
       </c>
       <c r="U60" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>23229</v>
       </c>
       <c r="V60" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>21200</v>
       </c>
       <c r="W60" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>19597</v>
       </c>
       <c r="X60" s="3">
@@ -6710,23 +6799,23 @@
         <v>43332</v>
       </c>
       <c r="S61" s="3">
-        <f t="shared" ref="S61:W61" si="72">+S60+S54</f>
+        <f t="shared" ref="S61:W61" si="74">+S60+S54</f>
         <v>51333</v>
       </c>
       <c r="T61" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>70379</v>
       </c>
       <c r="U61" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>75803</v>
       </c>
       <c r="V61" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>78717</v>
       </c>
       <c r="W61" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>82166</v>
       </c>
       <c r="X61" s="3">
@@ -7035,31 +7124,31 @@
         <v>22863</v>
       </c>
       <c r="R66" s="3">
-        <f t="shared" ref="R66:X66" si="73">+SUM(R62:R65)</f>
+        <f t="shared" ref="R66:X66" si="75">+SUM(R62:R65)</f>
         <v>25904</v>
       </c>
       <c r="S66" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>26919</v>
       </c>
       <c r="T66" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>38447</v>
       </c>
       <c r="U66" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>43029</v>
       </c>
       <c r="V66" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>45101</v>
       </c>
       <c r="W66" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>48466</v>
       </c>
       <c r="X66" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>48376</v>
       </c>
       <c r="Y66" s="3"/>
@@ -7228,27 +7317,27 @@
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3">
-        <f t="shared" ref="Q69:V69" si="74">+SUM(Q67:Q68)</f>
+        <f t="shared" ref="Q69:V69" si="76">+SUM(Q67:Q68)</f>
         <v>1917</v>
       </c>
       <c r="R69" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>2042</v>
       </c>
       <c r="S69" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>7485</v>
       </c>
       <c r="T69" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>11869</v>
       </c>
       <c r="U69" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>11047</v>
       </c>
       <c r="V69" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>13342</v>
       </c>
       <c r="W69" s="3">
@@ -7299,31 +7388,31 @@
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3">
-        <f t="shared" ref="Q70:W70" si="75">+Q69+Q66</f>
+        <f t="shared" ref="Q70:W70" si="77">+Q69+Q66</f>
         <v>24780</v>
       </c>
       <c r="R70" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>27946</v>
       </c>
       <c r="S70" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>34404</v>
       </c>
       <c r="T70" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>50316</v>
       </c>
       <c r="U70" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>54076</v>
       </c>
       <c r="V70" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>58443</v>
       </c>
       <c r="W70" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>61115</v>
       </c>
       <c r="X70" s="3">
@@ -7433,31 +7522,31 @@
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
       <c r="Q72" s="3">
-        <f t="shared" ref="Q72:W72" si="76">+Q70+Q71</f>
+        <f t="shared" ref="Q72:W72" si="78">+Q70+Q71</f>
         <v>40774</v>
       </c>
       <c r="R72" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>43332</v>
       </c>
       <c r="S72" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>51333</v>
       </c>
       <c r="T72" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>70379</v>
       </c>
       <c r="U72" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>75803</v>
       </c>
       <c r="V72" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>78717</v>
       </c>
       <c r="W72" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>82166</v>
       </c>
       <c r="X72" s="3">
@@ -7547,35 +7636,35 @@
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3">
-        <f t="shared" ref="P74:W74" si="77">+P32</f>
+        <f t="shared" ref="P74:W74" si="79">+P32</f>
         <v>1401</v>
       </c>
       <c r="Q74" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1795</v>
       </c>
       <c r="R74" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>2057</v>
       </c>
       <c r="S74" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>2459</v>
       </c>
       <c r="T74" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>4202</v>
       </c>
       <c r="U74" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>4169</v>
       </c>
       <c r="V74" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>2419</v>
       </c>
       <c r="W74" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>4246</v>
       </c>
       <c r="X74" s="3">
@@ -8608,35 +8697,35 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3">
-        <f t="shared" ref="P90:S90" si="78">+SUM(P85:P89)</f>
+        <f t="shared" ref="P90:S90" si="80">+SUM(P85:P89)</f>
         <v>-481</v>
       </c>
       <c r="Q90" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-581</v>
       </c>
       <c r="R90" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>622</v>
       </c>
       <c r="S90" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-1075</v>
       </c>
       <c r="T90" s="3">
-        <f t="shared" ref="T90" si="79">+SUM(T85:T89)</f>
+        <f t="shared" ref="T90" si="81">+SUM(T85:T89)</f>
         <v>-952</v>
       </c>
       <c r="U90" s="3">
-        <f t="shared" ref="U90:W90" si="80">+SUM(U85:U89)</f>
+        <f t="shared" ref="U90:W90" si="82">+SUM(U85:U89)</f>
         <v>-1102</v>
       </c>
       <c r="V90" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-454</v>
       </c>
       <c r="W90" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1314</v>
       </c>
       <c r="X90" s="3">
@@ -8682,35 +8771,35 @@
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
       <c r="P91" s="3">
-        <f t="shared" ref="P91:W91" si="81">+SUM(P74:P84)+P90</f>
+        <f t="shared" ref="P91:W91" si="83">+SUM(P74:P84)+P90</f>
         <v>3158</v>
       </c>
       <c r="Q91" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>2531</v>
       </c>
       <c r="R91" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>5483</v>
       </c>
       <c r="S91" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>4071</v>
       </c>
       <c r="T91" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>5854</v>
       </c>
       <c r="U91" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>6340</v>
       </c>
       <c r="V91" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>5813</v>
       </c>
       <c r="W91" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>4843</v>
       </c>
       <c r="X91" s="3">
@@ -9407,35 +9496,35 @@
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
       <c r="P102" s="3">
-        <f t="shared" ref="P102:W102" si="82">+SUM(P92:P101)</f>
+        <f t="shared" ref="P102:W102" si="84">+SUM(P92:P101)</f>
         <v>-5904</v>
       </c>
       <c r="Q102" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>-4485</v>
       </c>
       <c r="R102" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>840</v>
       </c>
       <c r="S102" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>-5742</v>
       </c>
       <c r="T102" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>-16218</v>
       </c>
       <c r="U102" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>-5485</v>
       </c>
       <c r="V102" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>-3328</v>
       </c>
       <c r="W102" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>752</v>
       </c>
       <c r="X102" s="3">
@@ -10003,35 +10092,35 @@
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
       <c r="P111" s="3">
-        <f t="shared" ref="P111:W111" si="83">+SUM(P103:P110)</f>
+        <f t="shared" ref="P111:W111" si="85">+SUM(P103:P110)</f>
         <v>2038</v>
       </c>
       <c r="Q111" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>4084</v>
       </c>
       <c r="R111" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>-1262</v>
       </c>
       <c r="S111" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>4187</v>
       </c>
       <c r="T111" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>12492</v>
       </c>
       <c r="U111" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>-764</v>
       </c>
       <c r="V111" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>-1203</v>
       </c>
       <c r="W111" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>-2993</v>
       </c>
       <c r="X111" s="3">
@@ -10142,39 +10231,39 @@
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
       <c r="P113" s="3">
-        <f t="shared" ref="P113" si="84">+SUM(P112,P111,P102,P91)</f>
+        <f t="shared" ref="P113" si="86">+SUM(P112,P111,P102,P91)</f>
         <v>-708</v>
       </c>
       <c r="Q113" s="3">
-        <f t="shared" ref="Q113" si="85">+SUM(Q112,Q111,Q102,Q91)</f>
+        <f t="shared" ref="Q113" si="87">+SUM(Q112,Q111,Q102,Q91)</f>
         <v>2166</v>
       </c>
       <c r="R113" s="3">
-        <f t="shared" ref="R113" si="86">+SUM(R112,R111,R102,R91)</f>
+        <f t="shared" ref="R113" si="88">+SUM(R112,R111,R102,R91)</f>
         <v>4948</v>
       </c>
       <c r="S113" s="3">
-        <f t="shared" ref="S113:X113" si="87">+SUM(S112,S111,S102,S91)</f>
+        <f t="shared" ref="S113:X113" si="89">+SUM(S112,S111,S102,S91)</f>
         <v>2510</v>
       </c>
       <c r="T113" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>2297</v>
       </c>
       <c r="U113" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>-11</v>
       </c>
       <c r="V113" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1127</v>
       </c>
       <c r="W113" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>2678</v>
       </c>
       <c r="X113" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>556</v>
       </c>
       <c r="Y113" s="3"/>
@@ -10216,35 +10305,35 @@
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
       <c r="P114" s="3">
-        <f t="shared" ref="P114:W114" si="88">+P115-P113</f>
+        <f t="shared" ref="P114:W114" si="90">+P115-P113</f>
         <v>6827</v>
       </c>
       <c r="Q114" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>6119</v>
       </c>
       <c r="R114" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>8285</v>
       </c>
       <c r="S114" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>13233</v>
       </c>
       <c r="T114" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>15743</v>
       </c>
       <c r="U114" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>18040</v>
       </c>
       <c r="V114" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>18029</v>
       </c>
       <c r="W114" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>19156</v>
       </c>
       <c r="X114" s="3">
@@ -10289,35 +10378,35 @@
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
       <c r="P115" s="3">
-        <f t="shared" ref="P115:W115" si="89">+Q114</f>
+        <f t="shared" ref="P115:W115" si="91">+Q114</f>
         <v>6119</v>
       </c>
       <c r="Q115" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>8285</v>
       </c>
       <c r="R115" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>13233</v>
       </c>
       <c r="S115" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>15743</v>
       </c>
       <c r="T115" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>18040</v>
       </c>
       <c r="U115" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>18029</v>
       </c>
       <c r="V115" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>19156</v>
       </c>
       <c r="W115" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>21834</v>
       </c>
       <c r="X115" s="3">
@@ -16597,7 +16686,7 @@
   <dimension ref="A1:AA76"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16653,14 +16742,14 @@
       </c>
       <c r="J3" s="16">
         <f>+Main!I2</f>
-        <v>64.8</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="L3" t="s">
         <v>148</v>
       </c>
       <c r="O3" s="16">
         <f>+J3</f>
-        <v>64.8</v>
+        <v>76.400000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -16669,14 +16758,14 @@
       </c>
       <c r="E4" s="71">
         <f ca="1">+TODAY()</f>
-        <v>45783</v>
+        <v>45867</v>
       </c>
       <c r="G4" t="s">
         <v>150</v>
       </c>
       <c r="J4" s="17">
         <f ca="1">V62</f>
-        <v>85.218329494872663</v>
+        <v>84.431386030334167</v>
       </c>
       <c r="L4" t="s">
         <v>151</v>
@@ -16698,7 +16787,7 @@
       </c>
       <c r="J5" s="20">
         <f ca="1">J4/J3-1</f>
-        <v>0.31509767739001027</v>
+        <v>0.10512285380018538</v>
       </c>
       <c r="L5" t="s">
         <v>153</v>
@@ -16905,7 +16994,9 @@
       <c r="G18" t="s">
         <v>165</v>
       </c>
-      <c r="J18" s="25"/>
+      <c r="J18" s="25">
+        <v>0.11</v>
+      </c>
       <c r="L18" t="s">
         <v>165</v>
       </c>
@@ -16915,7 +17006,9 @@
       <c r="Q18" t="s">
         <v>165</v>
       </c>
-      <c r="T18" s="25"/>
+      <c r="T18" s="25">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -16923,22 +17016,26 @@
       </c>
       <c r="E19" s="25">
         <f>CHOOSE(E14,J19,O19,T19)</f>
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G19" t="s">
         <v>167</v>
       </c>
-      <c r="J19" s="25"/>
+      <c r="J19" s="25">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="L19" t="s">
         <v>167</v>
       </c>
       <c r="O19" s="25">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q19" t="s">
         <v>167</v>
       </c>
-      <c r="T19" s="25"/>
+      <c r="T19" s="25">
+        <v>3.5000000000000003E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -16951,7 +17048,9 @@
       <c r="G20" t="s">
         <v>172</v>
       </c>
-      <c r="J20" s="25"/>
+      <c r="J20" s="25">
+        <v>0.09</v>
+      </c>
       <c r="L20" t="s">
         <v>172</v>
       </c>
@@ -16961,7 +17060,9 @@
       <c r="Q20" t="s">
         <v>172</v>
       </c>
-      <c r="T20" s="25"/>
+      <c r="T20" s="25">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
@@ -17183,16 +17284,46 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
+      <c r="M27" s="32">
+        <f>+M28-2%</f>
+        <v>0.05</v>
+      </c>
+      <c r="N27" s="32">
+        <f t="shared" ref="N27:V27" si="3">+N28-2%</f>
+        <v>4.65E-2</v>
+      </c>
+      <c r="O27" s="32">
+        <f t="shared" si="3"/>
+        <v>4.3174999999999991E-2</v>
+      </c>
+      <c r="P27" s="32">
+        <f t="shared" si="3"/>
+        <v>4.0016249999999989E-2</v>
+      </c>
+      <c r="Q27" s="32">
+        <f t="shared" si="3"/>
+        <v>3.7015437499999984E-2</v>
+      </c>
+      <c r="R27" s="32">
+        <f t="shared" si="3"/>
+        <v>3.4164665624999979E-2</v>
+      </c>
+      <c r="S27" s="32">
+        <f t="shared" si="3"/>
+        <v>3.1456432343749979E-2</v>
+      </c>
+      <c r="T27" s="32">
+        <f t="shared" si="3"/>
+        <v>2.8883610726562484E-2</v>
+      </c>
+      <c r="U27" s="32">
+        <f t="shared" si="3"/>
+        <v>2.6439430190234359E-2</v>
+      </c>
+      <c r="V27" s="32">
+        <f t="shared" si="3"/>
+        <v>2.4117458680722643E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B28" s="28" t="s">
@@ -17211,35 +17342,35 @@
         <v>6.6500000000000004E-2</v>
       </c>
       <c r="O28" s="32">
-        <f t="shared" ref="O28:V28" si="3">+N28*(1-5%)</f>
+        <f t="shared" ref="O28:V28" si="4">+N28*(1-5%)</f>
         <v>6.3174999999999995E-2</v>
       </c>
       <c r="P28" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0016249999999993E-2</v>
       </c>
       <c r="Q28" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7015437499999988E-2</v>
       </c>
       <c r="R28" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.4164665624999983E-2</v>
       </c>
       <c r="S28" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.1456432343749983E-2</v>
       </c>
       <c r="T28" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8883610726562485E-2</v>
       </c>
       <c r="U28" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.643943019023436E-2</v>
       </c>
       <c r="V28" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4117458680722643E-2</v>
       </c>
     </row>
@@ -17252,16 +17383,46 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
+      <c r="M29" s="32">
+        <f>+M28+2%</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="N29" s="32">
+        <f t="shared" ref="N29:V29" si="5">+N28+2%</f>
+        <v>8.6500000000000007E-2</v>
+      </c>
+      <c r="O29" s="32">
+        <f t="shared" si="5"/>
+        <v>8.3174999999999999E-2</v>
+      </c>
+      <c r="P29" s="32">
+        <f t="shared" si="5"/>
+        <v>8.0016249999999997E-2</v>
+      </c>
+      <c r="Q29" s="32">
+        <f t="shared" si="5"/>
+        <v>7.7015437499999992E-2</v>
+      </c>
+      <c r="R29" s="32">
+        <f t="shared" si="5"/>
+        <v>7.4164665624999987E-2</v>
+      </c>
+      <c r="S29" s="32">
+        <f t="shared" si="5"/>
+        <v>7.1456432343749987E-2</v>
+      </c>
+      <c r="T29" s="32">
+        <f t="shared" si="5"/>
+        <v>6.8883610726562489E-2</v>
+      </c>
+      <c r="U29" s="32">
+        <f t="shared" si="5"/>
+        <v>6.6439430190234364E-2</v>
+      </c>
+      <c r="V29" s="32">
+        <f t="shared" si="5"/>
+        <v>6.4117458680722647E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
@@ -17296,39 +17457,39 @@
         <v>5783.8743000000004</v>
       </c>
       <c r="N31" s="27">
-        <f t="shared" ref="N31:V31" ca="1" si="4">N32*N25</f>
+        <f t="shared" ref="N31:V31" ca="1" si="6">N32*N25</f>
         <v>6476.9270379975005</v>
       </c>
       <c r="O31" s="27">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>7230.4122488041421</v>
       </c>
       <c r="P31" s="27">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>8047.5722018280048</v>
       </c>
       <c r="Q31" s="27">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>8644.8883570983362</v>
       </c>
       <c r="R31" s="27">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>9113.1358443260215</v>
       </c>
       <c r="S31" s="27">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>9582.0653023389877</v>
       </c>
       <c r="T31" s="27">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>10050.471252535026</v>
       </c>
       <c r="U31" s="27">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>10517.209410646086</v>
       </c>
       <c r="V31" s="27">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>10981.201962256773</v>
       </c>
     </row>
@@ -17341,23 +17502,23 @@
         <v>0.15299347287868556</v>
       </c>
       <c r="H32" s="31">
-        <f t="shared" ref="H32:L32" si="5">H31/H25</f>
+        <f t="shared" ref="H32:L32" si="7">H31/H25</f>
         <v>0.15330474503589075</v>
       </c>
       <c r="I32" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.16798707185369122</v>
       </c>
       <c r="J32" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.13943600552365723</v>
       </c>
       <c r="K32" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.16888918746431092</v>
       </c>
       <c r="L32" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.16746862911595434</v>
       </c>
       <c r="M32" s="31" cm="1">
@@ -17405,16 +17566,46 @@
       <c r="B33" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
+      <c r="M33" s="32">
+        <f>+M34-2%</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="N33" s="32">
+        <f t="shared" ref="N33:V33" si="8">+N34-2%</f>
+        <v>0.15850000000000003</v>
+      </c>
+      <c r="O33" s="32">
+        <f t="shared" si="8"/>
+        <v>0.16742500000000005</v>
+      </c>
+      <c r="P33" s="32">
+        <f t="shared" si="8"/>
+        <v>0.17679625000000004</v>
+      </c>
+      <c r="Q33" s="32">
+        <f t="shared" si="8"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="R33" s="32">
+        <f t="shared" si="8"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="S33" s="32">
+        <f t="shared" si="8"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="T33" s="32">
+        <f t="shared" si="8"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="U33" s="32">
+        <f t="shared" si="8"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="V33" s="32">
+        <f t="shared" si="8"/>
+        <v>0.18000000000000002</v>
+      </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="28" t="s">
@@ -17428,11 +17619,11 @@
         <v>0.17850000000000002</v>
       </c>
       <c r="O34" s="32">
-        <f t="shared" ref="O34:P34" si="6">+N34*(1+5%)</f>
+        <f t="shared" ref="O34:P34" si="9">+N34*(1+5%)</f>
         <v>0.18742500000000004</v>
       </c>
       <c r="P34" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.19679625000000003</v>
       </c>
       <c r="Q34" s="32">
@@ -17458,16 +17649,46 @@
       <c r="B35" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
+      <c r="M35" s="32">
+        <f>+M34+2%</f>
+        <v>0.19</v>
+      </c>
+      <c r="N35" s="32">
+        <f t="shared" ref="N35:V35" si="10">+N34+2%</f>
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="O35" s="32">
+        <f t="shared" si="10"/>
+        <v>0.20742500000000003</v>
+      </c>
+      <c r="P35" s="32">
+        <f t="shared" si="10"/>
+        <v>0.21679625000000002</v>
+      </c>
+      <c r="Q35" s="32">
+        <f t="shared" si="10"/>
+        <v>0.22</v>
+      </c>
+      <c r="R35" s="32">
+        <f t="shared" si="10"/>
+        <v>0.22</v>
+      </c>
+      <c r="S35" s="32">
+        <f t="shared" si="10"/>
+        <v>0.22</v>
+      </c>
+      <c r="T35" s="32">
+        <f t="shared" si="10"/>
+        <v>0.22</v>
+      </c>
+      <c r="U35" s="32">
+        <f t="shared" si="10"/>
+        <v>0.22</v>
+      </c>
+      <c r="V35" s="32">
+        <f t="shared" si="10"/>
+        <v>0.22</v>
+      </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
@@ -17502,39 +17723,39 @@
         <v>1272.452346</v>
       </c>
       <c r="N37" s="27">
-        <f t="shared" ref="N37:V37" ca="1" si="7">N38*N31</f>
+        <f t="shared" ref="N37:V37" ca="1" si="11">N38*N31</f>
         <v>1424.9239483594502</v>
       </c>
       <c r="O37" s="27">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1590.6906947369114</v>
       </c>
       <c r="P37" s="27">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1770.465884402161</v>
       </c>
       <c r="Q37" s="27">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1901.8754385616339</v>
       </c>
       <c r="R37" s="27">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>2004.8898857517247</v>
       </c>
       <c r="S37" s="27">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>2108.0543665145774</v>
       </c>
       <c r="T37" s="27">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>2211.1036755577056</v>
       </c>
       <c r="U37" s="27">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>2313.7860703421388</v>
       </c>
       <c r="V37" s="27">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>2415.8644316964901</v>
       </c>
     </row>
@@ -17543,27 +17764,27 @@
         <v>179</v>
       </c>
       <c r="G38" s="31">
-        <f t="shared" ref="G38:L38" si="8">G37/G31</f>
+        <f t="shared" ref="G38:L38" si="12">G37/G31</f>
         <v>0.19823464509010666</v>
       </c>
       <c r="H38" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.26238978412891456</v>
       </c>
       <c r="I38" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-1.642421398404505E-2</v>
       </c>
       <c r="J38" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.24680740161584572</v>
       </c>
       <c r="K38" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.23170246618933971</v>
       </c>
       <c r="L38" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.2219718309859155</v>
       </c>
       <c r="M38" s="31">
@@ -17609,67 +17830,67 @@
       <c r="E40" s="34"/>
       <c r="F40" s="34"/>
       <c r="G40" s="35">
-        <f t="shared" ref="G40:V40" si="9">G31-G37</f>
+        <f t="shared" ref="G40:V40" si="13">G31-G37</f>
         <v>2180</v>
       </c>
       <c r="H40" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2426</v>
       </c>
       <c r="I40" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4332</v>
       </c>
       <c r="J40" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2890</v>
       </c>
       <c r="K40" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3863</v>
       </c>
       <c r="L40" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4143</v>
       </c>
       <c r="M40" s="35">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>4511.4219540000004</v>
       </c>
       <c r="N40" s="35">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>5052.0030896380504</v>
       </c>
       <c r="O40" s="35">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>5639.7215540672305</v>
       </c>
       <c r="P40" s="35">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>6277.1063174258434</v>
       </c>
       <c r="Q40" s="35">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>6743.0129185367023</v>
       </c>
       <c r="R40" s="35">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>7108.2459585742963</v>
       </c>
       <c r="S40" s="35">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>7474.0109358244099</v>
       </c>
       <c r="T40" s="35">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>7839.3675769773199</v>
       </c>
       <c r="U40" s="35">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>8203.423340303947</v>
       </c>
       <c r="V40" s="36">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>8565.3375305602822</v>
       </c>
     </row>
@@ -17706,39 +17927,39 @@
         <v>1360.9116000000001</v>
       </c>
       <c r="N42" s="27">
-        <f t="shared" ref="N42:V42" ca="1" si="10">N43*N25</f>
+        <f t="shared" ref="N42:V42" ca="1" si="14">N43*N25</f>
         <v>1451.4122213999999</v>
       </c>
       <c r="O42" s="27">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1543.1051884869448</v>
       </c>
       <c r="P42" s="27">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1635.7165752554743</v>
       </c>
       <c r="Q42" s="27">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1728.9776714196671</v>
       </c>
       <c r="R42" s="27">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1822.6271688652041</v>
       </c>
       <c r="S42" s="27">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1916.4130604677973</v>
       </c>
       <c r="T42" s="27">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="14"/>
         <v>2010.0942505070052</v>
       </c>
       <c r="U42" s="27">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="14"/>
         <v>2103.441882129217</v>
       </c>
       <c r="V42" s="27">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="14"/>
         <v>2196.2403924513546</v>
       </c>
     </row>
@@ -17751,27 +17972,27 @@
       <c r="E43" s="30"/>
       <c r="F43" s="30"/>
       <c r="G43" s="37">
-        <f t="shared" ref="G43:L43" si="11">G42/G25</f>
+        <f t="shared" ref="G43:L43" si="15">G42/G25</f>
         <v>5.1316677920324107E-2</v>
       </c>
       <c r="H43" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.5420900531369444E-2</v>
       </c>
       <c r="I43" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>4.9860076465255608E-2</v>
       </c>
       <c r="J43" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>4.7859582818518785E-2</v>
       </c>
       <c r="K43" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3.6008195895334383E-2</v>
       </c>
       <c r="L43" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3.2455892065289177E-2</v>
       </c>
       <c r="M43" s="38">
@@ -17838,39 +18059,39 @@
         <v>-1020.6837</v>
       </c>
       <c r="N45" s="27">
-        <f t="shared" ref="N45:V45" ca="1" si="12">N46*N25</f>
+        <f t="shared" ref="N45:V45" ca="1" si="16">N46*N25</f>
         <v>-1088.5591660499999</v>
       </c>
       <c r="O45" s="27">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="16"/>
         <v>-1157.3288913652086</v>
       </c>
       <c r="P45" s="27">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="16"/>
         <v>-1226.7874314416056</v>
       </c>
       <c r="Q45" s="27">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="16"/>
         <v>-1296.7332535647502</v>
       </c>
       <c r="R45" s="27">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="16"/>
         <v>-1366.9703766489031</v>
       </c>
       <c r="S45" s="27">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="16"/>
         <v>-1437.3097953508479</v>
       </c>
       <c r="T45" s="27">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="16"/>
         <v>-1507.5706878802539</v>
       </c>
       <c r="U45" s="27">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="16"/>
         <v>-1577.5814115969126</v>
       </c>
       <c r="V45" s="27">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="16"/>
         <v>-1647.1802943385158</v>
       </c>
     </row>
@@ -17879,27 +18100,27 @@
         <v>177</v>
       </c>
       <c r="G46" s="37">
-        <f t="shared" ref="G46:L46" si="13">G45/G25</f>
+        <f t="shared" ref="G46:L46" si="17">G45/G25</f>
         <v>-3.9612874184109838E-2</v>
       </c>
       <c r="H46" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-4.0365433019483546E-2</v>
       </c>
       <c r="I46" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-3.5788892830396907E-2</v>
       </c>
       <c r="J46" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-2.5655934297550694E-2</v>
       </c>
       <c r="K46" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-2.0926404890665412E-2</v>
       </c>
       <c r="L46" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-2.1480013837783439E-2</v>
       </c>
       <c r="M46" s="38">
@@ -17966,39 +18187,39 @@
         <v>-680.45580000000007</v>
       </c>
       <c r="N48" s="27">
-        <f t="shared" ref="N48:V48" ca="1" si="14">N49*N25</f>
+        <f t="shared" ref="N48:V48" ca="1" si="18">N49*N25</f>
         <v>-725.70611069999995</v>
       </c>
       <c r="O48" s="27">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="18"/>
         <v>-771.55259424347241</v>
       </c>
       <c r="P48" s="27">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="18"/>
         <v>-817.85828762773713</v>
       </c>
       <c r="Q48" s="27">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="18"/>
         <v>-864.48883570983355</v>
       </c>
       <c r="R48" s="27">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="18"/>
         <v>-911.31358443260206</v>
       </c>
       <c r="S48" s="27">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="18"/>
         <v>-958.20653023389866</v>
       </c>
       <c r="T48" s="27">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="18"/>
         <v>-1005.0471252535026</v>
       </c>
       <c r="U48" s="27">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="18"/>
         <v>-1051.7209410646085</v>
       </c>
       <c r="V48" s="27">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="18"/>
         <v>-1098.1201962256773</v>
       </c>
     </row>
@@ -18007,27 +18228,27 @@
         <v>177</v>
       </c>
       <c r="G49" s="37">
-        <f t="shared" ref="G49:L49" si="15">G48/G25</f>
+        <f t="shared" ref="G49:L49" si="19">G48/G25</f>
         <v>-6.0488408732838173E-2</v>
       </c>
       <c r="H49" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-4.4374009508716325E-2</v>
       </c>
       <c r="I49" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-4.3435418391076425E-2</v>
       </c>
       <c r="J49" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-1.649829202703685E-2</v>
       </c>
       <c r="K49" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-4.4136911759766216E-2</v>
       </c>
       <c r="L49" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-1.7548825360883102E-2</v>
       </c>
       <c r="M49" s="38">
@@ -18074,23 +18295,23 @@
         <v>1313</v>
       </c>
       <c r="H51" s="41">
-        <f t="shared" ref="H51:U51" si="16">H40+H42+H45+H48</f>
+        <f t="shared" ref="H51:U51" si="20">H40+H42+H45+H48</f>
         <v>1797</v>
       </c>
       <c r="I51" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>3587</v>
       </c>
       <c r="J51" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>3047</v>
       </c>
       <c r="K51" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2998</v>
       </c>
       <c r="L51" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>3934</v>
       </c>
       <c r="M51" s="41">
@@ -18098,35 +18319,35 @@
         <v>4171.1940540000014</v>
       </c>
       <c r="N51" s="41">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="20"/>
         <v>4689.1500342880508</v>
       </c>
       <c r="O51" s="41">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="20"/>
         <v>5253.9452569454943</v>
       </c>
       <c r="P51" s="41">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="20"/>
         <v>5868.1771736119745</v>
       </c>
       <c r="Q51" s="41">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="20"/>
         <v>6310.7685006817856</v>
       </c>
       <c r="R51" s="41">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="20"/>
         <v>6652.5891663579951</v>
       </c>
       <c r="S51" s="41">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="20"/>
         <v>6994.907670707461</v>
       </c>
       <c r="T51" s="41">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="20"/>
         <v>7336.8440143505686</v>
       </c>
       <c r="U51" s="41">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="20"/>
         <v>7677.562869771642</v>
       </c>
       <c r="V51" s="42">
@@ -18150,43 +18371,43 @@
       <c r="L52" s="45"/>
       <c r="M52" s="45">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>2573.9171884956354</v>
+        <v>1698.2404568824179</v>
       </c>
       <c r="N52" s="45">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>4066.6467087880092</v>
+        <v>4148.2539136955729</v>
       </c>
       <c r="O52" s="45">
-        <f t="shared" ref="O52:U52" ca="1" si="17">O51/(1+$E$18)^O53</f>
-        <v>4180.2413929164259</v>
+        <f t="shared" ref="O52:U52" ca="1" si="21">O51/(1+$E$18)^O53</f>
+        <v>4264.1281527811598</v>
       </c>
       <c r="P52" s="45">
-        <f t="shared" ca="1" si="17"/>
-        <v>4283.4385185903157</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>4369.3961809906796</v>
       </c>
       <c r="Q52" s="45">
-        <f t="shared" ca="1" si="17"/>
-        <v>4226.151592927512</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>4310.9596531578654</v>
       </c>
       <c r="R52" s="45">
-        <f t="shared" ca="1" si="17"/>
-        <v>4087.2107163660462</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>4169.2305883431427</v>
       </c>
       <c r="S52" s="45">
-        <f t="shared" ca="1" si="17"/>
-        <v>3942.6825670342996</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>4021.8021284749684</v>
       </c>
       <c r="T52" s="45">
-        <f t="shared" ca="1" si="17"/>
-        <v>3793.9588319812906</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>3870.0938882042183</v>
       </c>
       <c r="U52" s="45">
-        <f t="shared" ca="1" si="17"/>
-        <v>3642.3377232144112</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>3715.4301313349824</v>
       </c>
       <c r="V52" s="46">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>3489.0168873573953</v>
+        <v>3559.0325381974912</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
@@ -18195,43 +18416,43 @@
       </c>
       <c r="M53" s="70">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.65277777777777779</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="N53" s="70">
         <f ca="1">M53+1</f>
-        <v>1.6527777777777777</v>
+        <v>1.4222222222222223</v>
       </c>
       <c r="O53" s="70">
         <f ca="1">N53+1</f>
-        <v>2.6527777777777777</v>
+        <v>2.4222222222222225</v>
       </c>
       <c r="P53" s="70">
-        <f t="shared" ref="P53:V53" ca="1" si="18">O53+1</f>
-        <v>3.6527777777777777</v>
+        <f t="shared" ref="P53:V53" ca="1" si="22">O53+1</f>
+        <v>3.4222222222222225</v>
       </c>
       <c r="Q53" s="70">
-        <f t="shared" ca="1" si="18"/>
-        <v>4.6527777777777777</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>4.4222222222222225</v>
       </c>
       <c r="R53" s="70">
-        <f t="shared" ca="1" si="18"/>
-        <v>5.6527777777777777</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>5.4222222222222225</v>
       </c>
       <c r="S53" s="70">
-        <f t="shared" ca="1" si="18"/>
-        <v>6.6527777777777777</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>6.4222222222222225</v>
       </c>
       <c r="T53" s="70">
-        <f t="shared" ca="1" si="18"/>
-        <v>7.6527777777777777</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>7.4222222222222225</v>
       </c>
       <c r="U53" s="70">
-        <f t="shared" ca="1" si="18"/>
-        <v>8.6527777777777786</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>8.4222222222222225</v>
       </c>
       <c r="V53" s="70">
-        <f t="shared" ca="1" si="18"/>
-        <v>9.6527777777777786</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>9.4222222222222225</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
@@ -18244,7 +18465,7 @@
       <c r="Q54" s="47"/>
       <c r="V54" s="27">
         <f ca="1">SUM(M52:V52)</f>
-        <v>38285.602127671336</v>
+        <v>38126.567632062499</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
@@ -18257,7 +18478,7 @@
       <c r="Q55" s="47"/>
       <c r="V55" s="27">
         <f ca="1">+(V40*(1+E19))*(1-(E19/E20))/(E18-E19)</f>
-        <v>102926.80599223272</v>
+        <v>101301.58810181872</v>
       </c>
       <c r="X55" s="48" t="s">
         <v>187</v>
@@ -18288,7 +18509,7 @@
       <c r="U56" s="49"/>
       <c r="V56" s="50">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>44798.020938631322</v>
+        <v>44975.445431331311</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
@@ -18316,7 +18537,7 @@
       <c r="U57" s="52"/>
       <c r="V57" s="53">
         <f ca="1">V54+V56</f>
-        <v>83083.623066302651</v>
+        <v>83102.01306339381</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
@@ -18329,7 +18550,7 @@
       <c r="Q58" s="47"/>
       <c r="V58" s="54">
         <f>+Main!I5</f>
-        <v>11211</v>
+        <v>10008</v>
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.25">
@@ -18357,7 +18578,7 @@
       <c r="U59" s="49"/>
       <c r="V59" s="50">
         <f>+Main!I6</f>
-        <v>11417</v>
+        <v>11296</v>
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.25">
@@ -18370,7 +18591,7 @@
       <c r="Q60" s="47"/>
       <c r="V60" s="54">
         <f ca="1">V57+V58-V59</f>
-        <v>82877.623066302651</v>
+        <v>81814.01306339381</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.25">
@@ -18398,7 +18619,7 @@
       <c r="U61" s="49"/>
       <c r="V61" s="50">
         <f>+Main!I3</f>
-        <v>972.53282899999999</v>
+        <v>969</v>
       </c>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.25">
@@ -18407,7 +18628,7 @@
       </c>
       <c r="V62" s="54">
         <f ca="1">V60/V61</f>
-        <v>85.218329494872663</v>
+        <v>84.431386030334167</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -18468,169 +18689,423 @@
       </c>
       <c r="C69" s="56">
         <f ca="1">+J4</f>
-        <v>85.218329494872663</v>
-      </c>
-      <c r="D69" s="57"/>
-      <c r="E69" s="57"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="57"/>
-      <c r="H69" s="57"/>
-      <c r="I69" s="57"/>
-      <c r="J69" s="57"/>
+        <v>84.431386030334167</v>
+      </c>
+      <c r="D69" s="57">
+        <v>0.01</v>
+      </c>
+      <c r="E69" s="57">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F69" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="G69" s="57">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H69" s="57">
+        <v>0.03</v>
+      </c>
+      <c r="I69" s="57">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J69" s="57">
+        <v>0.04</v>
+      </c>
       <c r="M69" s="77" t="s">
         <v>165</v>
       </c>
       <c r="N69" s="56">
         <f ca="1">+J4</f>
-        <v>85.218329494872663</v>
-      </c>
-      <c r="O69" s="57"/>
-      <c r="P69" s="57"/>
-      <c r="Q69" s="57"/>
-      <c r="R69" s="57"/>
-      <c r="S69" s="57"/>
-      <c r="T69" s="57"/>
-      <c r="U69" s="57"/>
+        <v>84.431386030334167</v>
+      </c>
+      <c r="O69" s="57">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P69" s="57">
+        <v>0.08</v>
+      </c>
+      <c r="Q69" s="57">
+        <v>0.09</v>
+      </c>
+      <c r="R69" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="S69" s="57">
+        <v>0.11</v>
+      </c>
+      <c r="T69" s="57">
+        <v>0.12</v>
+      </c>
+      <c r="U69" s="57">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B70" s="77"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="59"/>
-      <c r="G70" s="60"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="59"/>
-      <c r="J70" s="59"/>
+      <c r="C70" s="58">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D70" s="59">
+        <f t="dataTable" ref="D70:J76" dt2D="1" dtr="1" r1="E19" r2="E18" ca="1"/>
+        <v>103.44103061602929</v>
+      </c>
+      <c r="E70" s="59">
+        <v>105.20538830213718</v>
+      </c>
+      <c r="F70" s="59">
+        <v>107.2498854923535</v>
+      </c>
+      <c r="G70" s="60">
+        <v>109.65856403791071</v>
+      </c>
+      <c r="H70" s="59">
+        <v>112.55281772392252</v>
+      </c>
+      <c r="I70" s="59">
+        <v>116.11473722805934</v>
+      </c>
+      <c r="J70" s="59">
+        <v>120.63046504380341</v>
+      </c>
       <c r="M70" s="77"/>
-      <c r="N70" s="58"/>
-      <c r="O70" s="59"/>
-      <c r="P70" s="59"/>
-      <c r="Q70" s="59"/>
-      <c r="R70" s="60"/>
-      <c r="S70" s="59"/>
-      <c r="T70" s="59"/>
-      <c r="U70" s="59"/>
+      <c r="N70" s="58">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="O70" s="59">
+        <f t="dataTable" ref="O70:U76" dt2D="1" dtr="1" r1="E20" r2="E18" ca="1"/>
+        <v>99.836556587220755</v>
+      </c>
+      <c r="P70" s="59">
+        <v>103.92905969167489</v>
+      </c>
+      <c r="Q70" s="59">
+        <v>107.1121176618059</v>
+      </c>
+      <c r="R70" s="60">
+        <v>109.65856403791071</v>
+      </c>
+      <c r="S70" s="59">
+        <v>111.74202016381464</v>
+      </c>
+      <c r="T70" s="59">
+        <v>113.47823360206792</v>
+      </c>
+      <c r="U70" s="59">
+        <v>114.94733728058991</v>
+      </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B71" s="77"/>
-      <c r="C71" s="58"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="59"/>
+      <c r="C71" s="58">
+        <v>0.08</v>
+      </c>
+      <c r="D71" s="59">
+        <v>95.493759636884562</v>
+      </c>
+      <c r="E71" s="59">
+        <v>96.723815835372676</v>
+      </c>
+      <c r="F71" s="59">
+        <v>98.12321055449398</v>
+      </c>
+      <c r="G71" s="60">
+        <v>99.738127027148394</v>
+      </c>
+      <c r="H71" s="59">
+        <v>101.63322177939585</v>
+      </c>
+      <c r="I71" s="59">
+        <v>103.90188757110073</v>
+      </c>
+      <c r="J71" s="59">
+        <v>106.68421354205957</v>
+      </c>
       <c r="M71" s="77"/>
-      <c r="N71" s="58"/>
-      <c r="O71" s="59"/>
-      <c r="P71" s="59"/>
-      <c r="Q71" s="59"/>
-      <c r="R71" s="60"/>
-      <c r="S71" s="59"/>
-      <c r="T71" s="59"/>
-      <c r="U71" s="59"/>
+      <c r="N71" s="58">
+        <v>0.08</v>
+      </c>
+      <c r="O71" s="59">
+        <v>91.191021771705479</v>
+      </c>
+      <c r="P71" s="59">
+        <v>94.752315628140025</v>
+      </c>
+      <c r="Q71" s="59">
+        <v>97.522210849811344</v>
+      </c>
+      <c r="R71" s="60">
+        <v>99.738127027148394</v>
+      </c>
+      <c r="S71" s="59">
+        <v>101.55114935406051</v>
+      </c>
+      <c r="T71" s="59">
+        <v>103.06200129315395</v>
+      </c>
+      <c r="U71" s="59">
+        <v>104.34041447238687</v>
+      </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B72" s="77"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
+      <c r="C72" s="58">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D72" s="60">
+        <v>88.616655905834548</v>
+      </c>
+      <c r="E72" s="60">
+        <v>89.456788239092617</v>
+      </c>
+      <c r="F72" s="60">
+        <v>90.394647035131186</v>
+      </c>
+      <c r="G72" s="60">
+        <v>91.454663909645319</v>
+      </c>
+      <c r="H72" s="60">
+        <v>92.670154702219349</v>
+      </c>
+      <c r="I72" s="60">
+        <v>94.087761588271192</v>
+      </c>
+      <c r="J72" s="60">
+        <v>95.77485659896017</v>
+      </c>
       <c r="M72" s="77"/>
-      <c r="N72" s="58"/>
-      <c r="O72" s="60"/>
-      <c r="P72" s="60"/>
-      <c r="Q72" s="60"/>
-      <c r="R72" s="60"/>
-      <c r="S72" s="60"/>
-      <c r="T72" s="60"/>
-      <c r="U72" s="60"/>
+      <c r="N72" s="58">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="O72" s="60">
+        <v>83.953482362698338</v>
+      </c>
+      <c r="P72" s="60">
+        <v>87.07897467392624</v>
+      </c>
+      <c r="Q72" s="60">
+        <v>89.509913138214628</v>
+      </c>
+      <c r="R72" s="60">
+        <v>91.454663909645319</v>
+      </c>
+      <c r="S72" s="60">
+        <v>93.045823631725</v>
+      </c>
+      <c r="T72" s="60">
+        <v>94.371790066791377</v>
+      </c>
+      <c r="U72" s="60">
+        <v>95.493761665693711</v>
+      </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B73" s="77"/>
-      <c r="C73" s="58"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="59"/>
-      <c r="I73" s="59"/>
-      <c r="J73" s="59"/>
+      <c r="C73" s="58">
+        <v>0.09</v>
+      </c>
+      <c r="D73" s="59">
+        <v>82.608776169918769</v>
+      </c>
+      <c r="E73" s="59">
+        <v>83.161470975071666</v>
+      </c>
+      <c r="F73" s="59">
+        <v>83.76509032271116</v>
+      </c>
+      <c r="G73" s="60">
+        <v>84.431386030334167</v>
+      </c>
+      <c r="H73" s="59">
+        <v>85.176027187936583</v>
+      </c>
+      <c r="I73" s="59">
+        <v>86.020380736421899</v>
+      </c>
+      <c r="J73" s="59">
+        <v>86.994360393054961</v>
+      </c>
       <c r="M73" s="77"/>
-      <c r="N73" s="58"/>
-      <c r="O73" s="59"/>
-      <c r="P73" s="59"/>
-      <c r="Q73" s="59"/>
-      <c r="R73" s="60"/>
-      <c r="S73" s="59"/>
-      <c r="T73" s="59"/>
-      <c r="U73" s="59"/>
+      <c r="N73" s="58">
+        <v>0.09</v>
+      </c>
+      <c r="O73" s="59">
+        <v>77.800773405930315</v>
+      </c>
+      <c r="P73" s="59">
+        <v>80.563528666098591</v>
+      </c>
+      <c r="Q73" s="59">
+        <v>82.712338312896122</v>
+      </c>
+      <c r="R73" s="60">
+        <v>84.431386030334167</v>
+      </c>
+      <c r="S73" s="59">
+        <v>85.837879617328909</v>
+      </c>
+      <c r="T73" s="59">
+        <v>87.009957606491227</v>
+      </c>
+      <c r="U73" s="59">
+        <v>88.001715905013171</v>
+      </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B74" s="77"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="60"/>
-      <c r="H74" s="59"/>
-      <c r="I74" s="59"/>
-      <c r="J74" s="59"/>
+      <c r="C74" s="58">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D74" s="59">
+        <v>77.316466882614449</v>
+      </c>
+      <c r="E74" s="59">
+        <v>77.655728483830359</v>
+      </c>
+      <c r="F74" s="59">
+        <v>78.015166131391496</v>
+      </c>
+      <c r="G74" s="60">
+        <v>78.399103263800399</v>
+      </c>
+      <c r="H74" s="59">
+        <v>78.813193608329627</v>
+      </c>
+      <c r="I74" s="59">
+        <v>79.264975468009268</v>
+      </c>
+      <c r="J74" s="59">
+        <v>79.764728346971282</v>
+      </c>
       <c r="M74" s="77"/>
-      <c r="N74" s="58"/>
-      <c r="O74" s="59"/>
-      <c r="P74" s="59"/>
-      <c r="Q74" s="59"/>
-      <c r="R74" s="60"/>
-      <c r="S74" s="59"/>
-      <c r="T74" s="59"/>
-      <c r="U74" s="59"/>
+      <c r="N74" s="58">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="O74" s="59">
+        <v>72.501966989288007</v>
+      </c>
+      <c r="P74" s="59">
+        <v>74.959107103668174</v>
+      </c>
+      <c r="Q74" s="59">
+        <v>76.870216081519402</v>
+      </c>
+      <c r="R74" s="60">
+        <v>78.399103263800399</v>
+      </c>
+      <c r="S74" s="59">
+        <v>79.650010958393921</v>
+      </c>
+      <c r="T74" s="59">
+        <v>80.692434037221872</v>
+      </c>
+      <c r="U74" s="59">
+        <v>81.574484334691661</v>
+      </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B75" s="77"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="59"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="59"/>
+      <c r="C75" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="D75" s="59">
+        <v>72.620227880435166</v>
+      </c>
+      <c r="E75" s="59">
+        <v>72.800272285898544</v>
+      </c>
+      <c r="F75" s="59">
+        <v>72.980316691361935</v>
+      </c>
+      <c r="G75" s="60">
+        <v>73.160361096825312</v>
+      </c>
+      <c r="H75" s="59">
+        <v>73.340405502288675</v>
+      </c>
+      <c r="I75" s="59">
+        <v>73.520449907752052</v>
+      </c>
+      <c r="J75" s="59">
+        <v>73.700494313215444</v>
+      </c>
       <c r="M75" s="77"/>
-      <c r="N75" s="58"/>
-      <c r="O75" s="59"/>
-      <c r="P75" s="59"/>
-      <c r="Q75" s="59"/>
-      <c r="R75" s="60"/>
-      <c r="S75" s="59"/>
-      <c r="T75" s="59"/>
-      <c r="U75" s="59"/>
+      <c r="N75" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="O75" s="59">
+        <v>67.887632079683513</v>
+      </c>
+      <c r="P75" s="59">
+        <v>70.084602503492576</v>
+      </c>
+      <c r="Q75" s="59">
+        <v>71.793357277566315</v>
+      </c>
+      <c r="R75" s="60">
+        <v>73.160361096825312</v>
+      </c>
+      <c r="S75" s="59">
+        <v>74.278818767128101</v>
+      </c>
+      <c r="T75" s="59">
+        <v>75.210866825713765</v>
+      </c>
+      <c r="U75" s="59">
+        <v>75.999522875286246</v>
+      </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B76" s="78"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
+      <c r="C76" s="58">
+        <v>0.105</v>
+      </c>
+      <c r="D76" s="59">
+        <v>68.42572438130297</v>
+      </c>
+      <c r="E76" s="59">
+        <v>68.486759663048275</v>
+      </c>
+      <c r="F76" s="59">
+        <v>68.534679925575574</v>
+      </c>
+      <c r="G76" s="60">
+        <v>68.567026102781497</v>
+      </c>
+      <c r="H76" s="59">
+        <v>68.580683377601773</v>
+      </c>
+      <c r="I76" s="59">
+        <v>68.571646985239468</v>
+      </c>
+      <c r="J76" s="59">
+        <v>68.534679925575574</v>
+      </c>
       <c r="M76" s="78"/>
-      <c r="N76" s="58"/>
-      <c r="O76" s="59"/>
-      <c r="P76" s="59"/>
-      <c r="Q76" s="59"/>
-      <c r="R76" s="60"/>
-      <c r="S76" s="59"/>
-      <c r="T76" s="59"/>
-      <c r="U76" s="59"/>
+      <c r="N76" s="58">
+        <v>0.105</v>
+      </c>
+      <c r="O76" s="59">
+        <v>63.830621583342356</v>
+      </c>
+      <c r="P76" s="59">
+        <v>65.804123466441993</v>
+      </c>
+      <c r="Q76" s="59">
+        <v>67.3390693755195</v>
+      </c>
+      <c r="R76" s="60">
+        <v>68.567026102781497</v>
+      </c>
+      <c r="S76" s="59">
+        <v>69.5717179705413</v>
+      </c>
+      <c r="T76" s="59">
+        <v>70.408961193674486</v>
+      </c>
+      <c r="U76" s="59">
+        <v>71.117397767094872</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/PYPL.xlsx
+++ b/PYPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A40ED4A-6438-4AB2-B0A8-F386CE5E44EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD39F076-B7D6-40DE-B65D-9E1103865E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{B690896D-DF4D-4BA1-A25A-CD8C19559281}"/>
+    <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" xr2:uid="{B690896D-DF4D-4BA1-A25A-CD8C19559281}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -481,21 +481,12 @@
     <t>Paypal, Venmo</t>
   </si>
   <si>
-    <t>Revenue -&gt; primarily: charging fees for completing transactions,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currency conversion fees, instant transfer; </t>
-  </si>
-  <si>
     <t>value added services: partnerships, interest &amp; fees credit products etc.</t>
   </si>
   <si>
     <t>2000: merger with X.com by Elon Musk, 2002 aquired by Ebay for 1,5 billion USD, 2015 spin-off</t>
   </si>
   <si>
-    <t>Competitors:</t>
-  </si>
-  <si>
     <t>Global GDP</t>
   </si>
   <si>
@@ -1070,6 +1061,15 @@
   </si>
   <si>
     <t>Launch of Paypal virtual credit card in Germany -&gt; banking license in Luxembourg</t>
+  </si>
+  <si>
+    <t>Competitors: Visa, Mastercard</t>
+  </si>
+  <si>
+    <t>Revenue -&gt; primarily: charging feesfrom merchants  for completing transactions,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> typical fee: 2,99% in the US, currency conversion fees, instant transfer; </t>
   </si>
 </sst>
 </file>
@@ -1959,7 +1959,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,7 +1991,7 @@
         <v>969</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2018,7 +2018,7 @@
         <v>10008</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2029,7 +2029,7 @@
         <v>11296</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2046,7 +2046,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2068,7 +2068,7 @@
         <v>138</v>
       </c>
       <c r="K10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2080,72 +2080,72 @@
       <c r="B12" t="s">
         <v>137</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" t="s">
+        <v>334</v>
+      </c>
+      <c r="J13" t="s">
         <v>119</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>140</v>
-      </c>
-      <c r="H14" t="s">
+        <v>335</v>
+      </c>
+      <c r="J14" t="s">
         <v>121</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>141</v>
-      </c>
-      <c r="H15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
         <v>122</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>333</v>
-      </c>
-      <c r="H16" t="s">
+        <v>330</v>
+      </c>
+      <c r="J16" t="s">
         <v>124</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D20">
         <v>770</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D21" s="3">
         <v>128000</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>143</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2177,10 +2177,10 @@
   <dimension ref="A1:AR236"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2220,16 +2220,16 @@
         <v>18</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>329</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4" t="s">
@@ -2273,7 +2273,7 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3131,7 +3131,7 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C15" s="3">
         <v>4147</v>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C16" s="3">
         <v>2893</v>
@@ -5184,27 +5184,27 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="6">
-        <f>+G12/C12-1</f>
+        <f t="shared" ref="G39:L39" si="54">+G12/C12-1</f>
         <v>0.1392126552856352</v>
       </c>
       <c r="H39" s="6">
-        <f>+H12/D12-1</f>
+        <f t="shared" si="54"/>
         <v>0.10696397176380601</v>
       </c>
       <c r="I39" s="6">
-        <f>+I12/E12-1</f>
+        <f t="shared" si="54"/>
         <v>9.0120995303081486E-2</v>
       </c>
       <c r="J39" s="6">
-        <f>+J12/F12-1</f>
+        <f t="shared" si="54"/>
         <v>6.8330437837943458E-2</v>
       </c>
       <c r="K39" s="6">
-        <f>+K12/G12-1</f>
+        <f t="shared" si="54"/>
         <v>3.3051057297083242E-2</v>
       </c>
       <c r="L39" s="6">
-        <f>+L12/H12-1</f>
+        <f t="shared" si="54"/>
         <v>6.4136521326059182E-2</v>
       </c>
       <c r="M39" s="6"/>
@@ -5212,15 +5212,15 @@
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6">
-        <f t="shared" ref="Q39:S39" si="54">+Q12/P12-1</f>
+        <f t="shared" ref="Q39:S39" si="55">+Q12/P12-1</f>
         <v>0.26741737236336149</v>
       </c>
       <c r="R39" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.26796498742818065</v>
       </c>
       <c r="S39" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.23081192007869733</v>
       </c>
       <c r="T39" s="6">
@@ -5273,27 +5273,27 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="6">
-        <f t="shared" ref="G40:L42" si="55">+G17/C17-1</f>
+        <f t="shared" ref="G40:L42" si="56">+G17/C17-1</f>
         <v>0.10527969830295403</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>1.6917827694057364E-2</v>
       </c>
       <c r="I40" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6.2067929065223959E-2</v>
       </c>
       <c r="J40" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>4.1878346835095392E-2</v>
       </c>
       <c r="K40" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-2.5589991470003071E-3</v>
       </c>
       <c r="L40" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>4.0262826785963934E-2</v>
       </c>
       <c r="M40" s="6"/>
@@ -5301,35 +5301,35 @@
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6">
-        <f t="shared" ref="Q40:S40" si="56">+Q17/P17-1</f>
+        <f t="shared" ref="Q40:S40" si="57">+Q17/P17-1</f>
         <v>0.19989567031820554</v>
       </c>
       <c r="R40" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.19198330579949574</v>
       </c>
       <c r="S40" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.17433802611423155</v>
       </c>
       <c r="T40" s="6">
-        <f t="shared" ref="T40:X42" si="57">+T17/S17-1</f>
+        <f t="shared" ref="T40:X42" si="58">+T17/S17-1</f>
         <v>0.23721970308714835</v>
       </c>
       <c r="U40" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.17491716035746552</v>
       </c>
       <c r="V40" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>7.7087428424921001E-2</v>
       </c>
       <c r="W40" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>6.5500277711656008E-2</v>
       </c>
       <c r="X40" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>7.3909967606210714E-2</v>
       </c>
       <c r="Y40" s="6"/>
@@ -5362,27 +5362,27 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-1.6272189349112454E-2</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.10075187969924815</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>2.0942408376963373E-2</v>
       </c>
       <c r="J41" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>4.7106325706594898E-2</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.16541353383458657</v>
       </c>
       <c r="L41" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.15710382513661192</v>
       </c>
       <c r="M41" s="6"/>
@@ -5390,35 +5390,35 @@
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6">
-        <f t="shared" ref="Q41:S41" si="58">+Q18/P18-1</f>
+        <f t="shared" ref="Q41:S41" si="59">+Q18/P18-1</f>
         <v>0.26730310262529833</v>
       </c>
       <c r="R41" s="6">
+        <f t="shared" si="59"/>
+        <v>9.3534212178280063E-2</v>
+      </c>
+      <c r="S41" s="6">
+        <f t="shared" si="59"/>
+        <v>-3.960964408725598E-2</v>
+      </c>
+      <c r="T41" s="6">
         <f t="shared" si="58"/>
-        <v>9.3534212178280063E-2</v>
-      </c>
-      <c r="S41" s="6">
+        <v>-8.1888822474596501E-2</v>
+      </c>
+      <c r="U41" s="6">
         <f t="shared" si="58"/>
-        <v>-3.960964408725598E-2</v>
-      </c>
-      <c r="T41" s="6">
-        <f t="shared" si="57"/>
-        <v>-8.1888822474596501E-2</v>
-      </c>
-      <c r="U41" s="6">
-        <f t="shared" si="57"/>
         <v>0.28190104166666674</v>
       </c>
       <c r="V41" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.17420010157440324</v>
       </c>
       <c r="W41" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.26038062283737018</v>
       </c>
       <c r="X41" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>1.4070006863418083E-2</v>
       </c>
       <c r="Y41" s="6"/>
@@ -5451,27 +5451,27 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>9.3607954545454453E-2</v>
       </c>
       <c r="H42" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>8.2063949499108002E-2</v>
       </c>
       <c r="I42" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>5.7832299811269916E-2</v>
       </c>
       <c r="J42" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>4.2362322452030865E-2</v>
       </c>
       <c r="K42" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>1.1949603844655154E-2</v>
       </c>
       <c r="L42" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>5.1109701965757814E-2</v>
       </c>
       <c r="M42" s="9"/>
@@ -5479,35 +5479,35 @@
       <c r="O42" s="6"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="9">
-        <f t="shared" ref="Q42:S42" si="59">+Q19/P19-1</f>
+        <f t="shared" ref="Q42:S42" si="60">+Q19/P19-1</f>
         <v>0.20771075447334431</v>
       </c>
       <c r="R42" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.18000610966855057</v>
       </c>
       <c r="S42" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.15021681444566704</v>
       </c>
       <c r="T42" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.20717983344586988</v>
       </c>
       <c r="U42" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.18257667567819524</v>
       </c>
       <c r="V42" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>8.4624177210200546E-2</v>
       </c>
       <c r="W42" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>8.1873682680427384E-2</v>
       </c>
       <c r="X42" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>6.8052803063383793E-2</v>
       </c>
       <c r="Y42" s="9"/>
@@ -5536,62 +5536,62 @@
         <v>42</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" ref="C43:J43" si="60">+C22/C19</f>
+        <f t="shared" ref="C43:J43" si="61">+C22/C19</f>
         <v>0.47088068181818182</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.45944833264717994</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.45416554327311942</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.45751308248193373</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.44953890115599426</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.45757767913760306</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.46565566458519181</v>
       </c>
       <c r="J43" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.47035620368156827</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" ref="K43:L43" si="61">+K22/K19</f>
+        <f t="shared" ref="K43:L43" si="62">+K22/K19</f>
         <v>0.4769605955589783</v>
       </c>
       <c r="L43" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.46380308880308879</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6">
-        <f t="shared" ref="P43:S43" si="62">+P22/P19</f>
+        <f t="shared" ref="P43:S43" si="63">+P22/P19</f>
         <v>0.5242575170632725</v>
       </c>
       <c r="Q43" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.52382770734687645</v>
       </c>
       <c r="R43" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.50611610898970938</v>
       </c>
       <c r="S43" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.54028809363042984</v>
       </c>
       <c r="T43" s="6">
@@ -5640,82 +5640,82 @@
         <v>43</v>
       </c>
       <c r="C44" s="6">
-        <f t="shared" ref="C44:J44" si="63">+C28/C19</f>
+        <f t="shared" ref="C44:J44" si="64">+C28/C19</f>
         <v>0.14190340909090909</v>
       </c>
       <c r="D44" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.15548236585700562</v>
       </c>
       <c r="E44" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.15745483957940146</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.21530027410914529</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.15170801402779582</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.16804058338617628</v>
       </c>
       <c r="I44" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.17726519689053141</v>
       </c>
       <c r="J44" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.17224480038250059</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" ref="K44:L44" si="64">+K28/K19</f>
+        <f t="shared" ref="K44:L44" si="65">+K28/K19</f>
         <v>0.19638043896804006</v>
       </c>
       <c r="L44" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.18146718146718147</v>
       </c>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6">
-        <f t="shared" ref="P44:R44" si="65">+P28/P19</f>
+        <f t="shared" ref="P44:R44" si="66">+P28/P19</f>
         <v>0.14628297362110312</v>
       </c>
       <c r="Q44" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.16244081258591722</v>
       </c>
       <c r="R44" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.1419972817293379</v>
       </c>
       <c r="S44" s="6">
-        <f t="shared" ref="S44:X44" si="66">+S28/S19</f>
+        <f t="shared" ref="S44:X44" si="67">+S28/S19</f>
         <v>0.15299347287868556</v>
       </c>
       <c r="T44" s="6">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.15330474503589075</v>
       </c>
       <c r="U44" s="6">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.16798707185369122</v>
       </c>
       <c r="V44" s="6">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.13943600552365723</v>
       </c>
       <c r="W44" s="6">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.16888918746431092</v>
       </c>
       <c r="X44" s="6">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.16746862911595434</v>
       </c>
       <c r="Y44" s="6"/>
@@ -5744,27 +5744,27 @@
         <v>44</v>
       </c>
       <c r="C45" s="6">
-        <f t="shared" ref="C45:H45" si="67">+C31/C30</f>
+        <f t="shared" ref="C45:H45" si="68">+C31/C30</f>
         <v>0.25977653631284914</v>
       </c>
       <c r="D45" s="6">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.21028396009209516</v>
       </c>
       <c r="E45" s="6">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.17808219178082191</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.2180702732849972</v>
       </c>
       <c r="G45" s="6">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.26550868486352358</v>
       </c>
       <c r="H45" s="6">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.1937097927090779</v>
       </c>
       <c r="I45" s="6">
@@ -5772,54 +5772,54 @@
         <v>0.2295957284515637</v>
       </c>
       <c r="J45" s="6">
-        <f t="shared" ref="J45:X45" si="68">+J31/J30</f>
+        <f t="shared" ref="J45:X45" si="69">+J31/J30</f>
         <v>0.20496453900709219</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" ref="K45:L45" si="69">+K31/K30</f>
+        <f t="shared" ref="K45:L45" si="70">+K31/K30</f>
         <v>0.19713038053649407</v>
       </c>
       <c r="L45" s="6">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.17593198168737736</v>
       </c>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6">
-        <f t="shared" ref="P45:R45" si="70">+P31/P30</f>
+        <f t="shared" ref="P45:R45" si="71">+P31/P30</f>
         <v>0.14101778050275904</v>
       </c>
       <c r="Q45" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.18409090909090908</v>
       </c>
       <c r="R45" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.13425925925925927</v>
       </c>
       <c r="S45" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.17978652434956638</v>
       </c>
       <c r="T45" s="6">
-        <f t="shared" ref="T45:U45" si="71">+T31/T30</f>
+        <f t="shared" ref="T45:U45" si="72">+T31/T30</f>
         <v>0.17038499506416585</v>
       </c>
       <c r="U45" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>-1.7077335935594046E-2</v>
       </c>
       <c r="V45" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.28134284016636957</v>
       </c>
       <c r="W45" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.21530216226205878</v>
       </c>
       <c r="X45" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.22180521673860012</v>
       </c>
       <c r="Y45" s="6"/>
@@ -6334,31 +6334,31 @@
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3">
-        <f t="shared" ref="Q54:W54" si="72">+SUM(Q48:Q53)</f>
+        <f t="shared" ref="Q54:W54" si="73">+SUM(Q48:Q53)</f>
         <v>32645</v>
       </c>
       <c r="R54" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>32963</v>
       </c>
       <c r="S54" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>38495</v>
       </c>
       <c r="T54" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>50995</v>
       </c>
       <c r="U54" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>52574</v>
       </c>
       <c r="V54" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>57517</v>
       </c>
       <c r="W54" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>62569</v>
       </c>
       <c r="X54" s="3">
@@ -6728,23 +6728,23 @@
         <v>10369</v>
       </c>
       <c r="S60" s="3">
-        <f t="shared" ref="S60:W60" si="73">+SUM(S55:S59)</f>
+        <f t="shared" ref="S60:W60" si="74">+SUM(S55:S59)</f>
         <v>12838</v>
       </c>
       <c r="T60" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>19384</v>
       </c>
       <c r="U60" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>23229</v>
       </c>
       <c r="V60" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>21200</v>
       </c>
       <c r="W60" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>19597</v>
       </c>
       <c r="X60" s="3">
@@ -6799,23 +6799,23 @@
         <v>43332</v>
       </c>
       <c r="S61" s="3">
-        <f t="shared" ref="S61:W61" si="74">+S60+S54</f>
+        <f t="shared" ref="S61:W61" si="75">+S60+S54</f>
         <v>51333</v>
       </c>
       <c r="T61" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>70379</v>
       </c>
       <c r="U61" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>75803</v>
       </c>
       <c r="V61" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>78717</v>
       </c>
       <c r="W61" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>82166</v>
       </c>
       <c r="X61" s="3">
@@ -7124,31 +7124,31 @@
         <v>22863</v>
       </c>
       <c r="R66" s="3">
-        <f t="shared" ref="R66:X66" si="75">+SUM(R62:R65)</f>
+        <f t="shared" ref="R66:X66" si="76">+SUM(R62:R65)</f>
         <v>25904</v>
       </c>
       <c r="S66" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>26919</v>
       </c>
       <c r="T66" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>38447</v>
       </c>
       <c r="U66" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>43029</v>
       </c>
       <c r="V66" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>45101</v>
       </c>
       <c r="W66" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>48466</v>
       </c>
       <c r="X66" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>48376</v>
       </c>
       <c r="Y66" s="3"/>
@@ -7317,27 +7317,27 @@
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3">
-        <f t="shared" ref="Q69:V69" si="76">+SUM(Q67:Q68)</f>
+        <f t="shared" ref="Q69:V69" si="77">+SUM(Q67:Q68)</f>
         <v>1917</v>
       </c>
       <c r="R69" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>2042</v>
       </c>
       <c r="S69" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>7485</v>
       </c>
       <c r="T69" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>11869</v>
       </c>
       <c r="U69" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>11047</v>
       </c>
       <c r="V69" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>13342</v>
       </c>
       <c r="W69" s="3">
@@ -7388,31 +7388,31 @@
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3">
-        <f t="shared" ref="Q70:W70" si="77">+Q69+Q66</f>
+        <f t="shared" ref="Q70:W70" si="78">+Q69+Q66</f>
         <v>24780</v>
       </c>
       <c r="R70" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>27946</v>
       </c>
       <c r="S70" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>34404</v>
       </c>
       <c r="T70" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>50316</v>
       </c>
       <c r="U70" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>54076</v>
       </c>
       <c r="V70" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>58443</v>
       </c>
       <c r="W70" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>61115</v>
       </c>
       <c r="X70" s="3">
@@ -7522,31 +7522,31 @@
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
       <c r="Q72" s="3">
-        <f t="shared" ref="Q72:W72" si="78">+Q70+Q71</f>
+        <f t="shared" ref="Q72:W72" si="79">+Q70+Q71</f>
         <v>40774</v>
       </c>
       <c r="R72" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>43332</v>
       </c>
       <c r="S72" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>51333</v>
       </c>
       <c r="T72" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>70379</v>
       </c>
       <c r="U72" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>75803</v>
       </c>
       <c r="V72" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>78717</v>
       </c>
       <c r="W72" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>82166</v>
       </c>
       <c r="X72" s="3">
@@ -7636,35 +7636,35 @@
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3">
-        <f t="shared" ref="P74:W74" si="79">+P32</f>
+        <f t="shared" ref="P74:W74" si="80">+P32</f>
         <v>1401</v>
       </c>
       <c r="Q74" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>1795</v>
       </c>
       <c r="R74" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>2057</v>
       </c>
       <c r="S74" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>2459</v>
       </c>
       <c r="T74" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>4202</v>
       </c>
       <c r="U74" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>4169</v>
       </c>
       <c r="V74" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>2419</v>
       </c>
       <c r="W74" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>4246</v>
       </c>
       <c r="X74" s="3">
@@ -8697,35 +8697,35 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3">
-        <f t="shared" ref="P90:S90" si="80">+SUM(P85:P89)</f>
+        <f t="shared" ref="P90:S90" si="81">+SUM(P85:P89)</f>
         <v>-481</v>
       </c>
       <c r="Q90" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>-581</v>
       </c>
       <c r="R90" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>622</v>
       </c>
       <c r="S90" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>-1075</v>
       </c>
       <c r="T90" s="3">
-        <f t="shared" ref="T90" si="81">+SUM(T85:T89)</f>
+        <f t="shared" ref="T90" si="82">+SUM(T85:T89)</f>
         <v>-952</v>
       </c>
       <c r="U90" s="3">
-        <f t="shared" ref="U90:W90" si="82">+SUM(U85:U89)</f>
+        <f t="shared" ref="U90:W90" si="83">+SUM(U85:U89)</f>
         <v>-1102</v>
       </c>
       <c r="V90" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-454</v>
       </c>
       <c r="W90" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-1314</v>
       </c>
       <c r="X90" s="3">
@@ -8771,35 +8771,35 @@
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
       <c r="P91" s="3">
-        <f t="shared" ref="P91:W91" si="83">+SUM(P74:P84)+P90</f>
+        <f t="shared" ref="P91:W91" si="84">+SUM(P74:P84)+P90</f>
         <v>3158</v>
       </c>
       <c r="Q91" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>2531</v>
       </c>
       <c r="R91" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>5483</v>
       </c>
       <c r="S91" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>4071</v>
       </c>
       <c r="T91" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>5854</v>
       </c>
       <c r="U91" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>6340</v>
       </c>
       <c r="V91" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>5813</v>
       </c>
       <c r="W91" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>4843</v>
       </c>
       <c r="X91" s="3">
@@ -9496,35 +9496,35 @@
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
       <c r="P102" s="3">
-        <f t="shared" ref="P102:W102" si="84">+SUM(P92:P101)</f>
+        <f t="shared" ref="P102:W102" si="85">+SUM(P92:P101)</f>
         <v>-5904</v>
       </c>
       <c r="Q102" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-4485</v>
       </c>
       <c r="R102" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>840</v>
       </c>
       <c r="S102" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-5742</v>
       </c>
       <c r="T102" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-16218</v>
       </c>
       <c r="U102" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-5485</v>
       </c>
       <c r="V102" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-3328</v>
       </c>
       <c r="W102" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>752</v>
       </c>
       <c r="X102" s="3">
@@ -10092,35 +10092,35 @@
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
       <c r="P111" s="3">
-        <f t="shared" ref="P111:W111" si="85">+SUM(P103:P110)</f>
+        <f t="shared" ref="P111:W111" si="86">+SUM(P103:P110)</f>
         <v>2038</v>
       </c>
       <c r="Q111" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>4084</v>
       </c>
       <c r="R111" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>-1262</v>
       </c>
       <c r="S111" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>4187</v>
       </c>
       <c r="T111" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>12492</v>
       </c>
       <c r="U111" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>-764</v>
       </c>
       <c r="V111" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>-1203</v>
       </c>
       <c r="W111" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>-2993</v>
       </c>
       <c r="X111" s="3">
@@ -10231,39 +10231,39 @@
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
       <c r="P113" s="3">
-        <f t="shared" ref="P113" si="86">+SUM(P112,P111,P102,P91)</f>
+        <f t="shared" ref="P113" si="87">+SUM(P112,P111,P102,P91)</f>
         <v>-708</v>
       </c>
       <c r="Q113" s="3">
-        <f t="shared" ref="Q113" si="87">+SUM(Q112,Q111,Q102,Q91)</f>
+        <f t="shared" ref="Q113" si="88">+SUM(Q112,Q111,Q102,Q91)</f>
         <v>2166</v>
       </c>
       <c r="R113" s="3">
-        <f t="shared" ref="R113" si="88">+SUM(R112,R111,R102,R91)</f>
+        <f t="shared" ref="R113" si="89">+SUM(R112,R111,R102,R91)</f>
         <v>4948</v>
       </c>
       <c r="S113" s="3">
-        <f t="shared" ref="S113:X113" si="89">+SUM(S112,S111,S102,S91)</f>
+        <f t="shared" ref="S113:X113" si="90">+SUM(S112,S111,S102,S91)</f>
         <v>2510</v>
       </c>
       <c r="T113" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>2297</v>
       </c>
       <c r="U113" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>-11</v>
       </c>
       <c r="V113" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>1127</v>
       </c>
       <c r="W113" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>2678</v>
       </c>
       <c r="X113" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>556</v>
       </c>
       <c r="Y113" s="3"/>
@@ -10305,35 +10305,35 @@
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
       <c r="P114" s="3">
-        <f t="shared" ref="P114:W114" si="90">+P115-P113</f>
+        <f t="shared" ref="P114:W114" si="91">+P115-P113</f>
         <v>6827</v>
       </c>
       <c r="Q114" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>6119</v>
       </c>
       <c r="R114" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>8285</v>
       </c>
       <c r="S114" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>13233</v>
       </c>
       <c r="T114" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>15743</v>
       </c>
       <c r="U114" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>18040</v>
       </c>
       <c r="V114" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>18029</v>
       </c>
       <c r="W114" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>19156</v>
       </c>
       <c r="X114" s="3">
@@ -10378,35 +10378,35 @@
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
       <c r="P115" s="3">
-        <f t="shared" ref="P115:W115" si="91">+Q114</f>
+        <f t="shared" ref="P115:W115" si="92">+Q114</f>
         <v>6119</v>
       </c>
       <c r="Q115" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>8285</v>
       </c>
       <c r="R115" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>13233</v>
       </c>
       <c r="S115" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>15743</v>
       </c>
       <c r="T115" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>18040</v>
       </c>
       <c r="U115" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>18029</v>
       </c>
       <c r="V115" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>19156</v>
       </c>
       <c r="W115" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>21834</v>
       </c>
       <c r="X115" s="3">
@@ -15790,7 +15790,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="65" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C2" s="66">
         <v>18</v>
@@ -15841,7 +15841,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -15855,7 +15855,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -15869,7 +15869,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -15908,10 +15908,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -15925,197 +15925,197 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L10" s="48" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L11" s="48" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L12" s="48"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L13" s="48" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L15" s="48" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L16" s="48" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L17" s="48" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L18" s="48" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L21" s="48" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L22" s="48" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L23" s="48" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L24" s="48" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L25" s="48" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L26" s="48" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L28" s="48" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L29" s="48" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L30" s="48" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L31" s="48" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B33" s="62" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L34" s="48" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L35" s="48" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L36" s="48" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -16125,12 +16125,12 @@
       <c r="I37" s="68"/>
       <c r="J37" s="68"/>
       <c r="L37" s="48" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="69"/>
@@ -16140,20 +16140,20 @@
       <c r="I38" s="68"/>
       <c r="J38" s="68"/>
       <c r="L38" s="48" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="61" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B40" s="62" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C41" s="70"/>
       <c r="D41" s="70"/>
@@ -16163,12 +16163,12 @@
       <c r="I41" s="70"/>
       <c r="J41" s="70"/>
       <c r="L41" s="48" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C42" s="70"/>
       <c r="D42" s="70"/>
@@ -16178,52 +16178,52 @@
       <c r="I42" s="70"/>
       <c r="J42" s="70"/>
       <c r="L42" s="48" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L43" s="48" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L44" s="48" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L45" s="48" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L46" s="48" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="61" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B48" s="62" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="62" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C49" s="47"/>
       <c r="D49" s="47"/>
@@ -16233,7 +16233,7 @@
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C50" s="70"/>
       <c r="D50" s="70"/>
@@ -16243,12 +16243,12 @@
       <c r="I50" s="70"/>
       <c r="J50" s="70"/>
       <c r="L50" s="48" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C51" s="70"/>
       <c r="D51" s="70"/>
@@ -16258,12 +16258,12 @@
       <c r="I51" s="70"/>
       <c r="J51" s="70"/>
       <c r="L51" s="48" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C52" s="70"/>
       <c r="D52" s="70"/>
@@ -16273,12 +16273,12 @@
       <c r="I52" s="70"/>
       <c r="J52" s="70"/>
       <c r="L52" s="48" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C53" s="70"/>
       <c r="D53" s="70"/>
@@ -16288,12 +16288,12 @@
       <c r="I53" s="70"/>
       <c r="J53" s="70"/>
       <c r="L53" s="48" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C54" s="70"/>
       <c r="D54" s="70"/>
@@ -16303,12 +16303,12 @@
       <c r="I54" s="70"/>
       <c r="J54" s="70"/>
       <c r="L54" s="48" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C55" s="70"/>
       <c r="D55" s="70"/>
@@ -16318,19 +16318,19 @@
       <c r="I55" s="70"/>
       <c r="J55" s="70"/>
       <c r="L55" s="48" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="62" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I56" s="70"/>
       <c r="J56" s="70"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C57" s="70"/>
       <c r="D57" s="70"/>
@@ -16340,12 +16340,12 @@
       <c r="I57" s="70"/>
       <c r="J57" s="70"/>
       <c r="L57" s="48" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C58" s="70"/>
       <c r="D58" s="70"/>
@@ -16355,12 +16355,12 @@
       <c r="I58" s="70"/>
       <c r="J58" s="70"/>
       <c r="L58" s="48" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C59" s="70"/>
       <c r="D59" s="70"/>
@@ -16370,12 +16370,12 @@
       <c r="I59" s="70"/>
       <c r="J59" s="70"/>
       <c r="L59" s="48" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C60" s="70"/>
       <c r="D60" s="70"/>
@@ -16385,7 +16385,7 @@
       <c r="I60" s="70"/>
       <c r="J60" s="70"/>
       <c r="L60" s="48" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -16417,7 +16417,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -16426,117 +16426,117 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="62" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F8">
         <f>F6+F7</f>
         <v>0</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H11" s="48" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H12" s="48" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H13" s="48" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H15" s="48" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H18" s="48" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F20">
         <f>F18-F19</f>
@@ -16545,10 +16545,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="61" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C22" s="51"/>
       <c r="D22" s="51"/>
@@ -16558,51 +16558,51 @@
         <v>0</v>
       </c>
       <c r="H22" s="48" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H26" s="48" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="61" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C32" s="51"/>
       <c r="D32" s="51"/>
@@ -16614,25 +16614,25 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B34" s="62" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F37">
         <f>F35+F36</f>
@@ -16641,15 +16641,15 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="61" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B41" s="63" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C41" s="51"/>
       <c r="D41" s="51"/>
@@ -16659,7 +16659,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H41" s="48" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -16670,7 +16670,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H48" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -16699,7 +16699,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -16732,20 +16732,20 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J3" s="16">
         <f>+Main!I2</f>
         <v>76.400000000000006</v>
       </c>
       <c r="L3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O3" s="16">
         <f>+J3</f>
@@ -16754,21 +16754,21 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E4" s="71">
         <f ca="1">+TODAY()</f>
-        <v>45867</v>
+        <v>45873</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J4" s="17">
         <f ca="1">V62</f>
-        <v>84.431386030334167</v>
+        <v>84.476376027541818</v>
       </c>
       <c r="L4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O4" s="18">
         <f>+J15+O15+T15</f>
@@ -16777,20 +16777,20 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E5" s="71">
         <v>46022</v>
       </c>
       <c r="G5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J5" s="20">
         <f ca="1">J4/J3-1</f>
-        <v>0.10512285380018538</v>
+        <v>0.10571172810918594</v>
       </c>
       <c r="L5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O5" s="20">
         <f>O4/O3-1</f>
@@ -16799,10 +16799,10 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -16831,25 +16831,25 @@
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
       <c r="G9" s="23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H9" s="23"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="L9" s="23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="Q9" s="23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R9" s="24"/>
       <c r="S9" s="24"/>
@@ -16858,35 +16858,35 @@
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -16897,42 +16897,42 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E12" s="19">
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E13" s="19">
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J13" s="25"/>
       <c r="O13" s="25"/>
@@ -16940,71 +16940,71 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E14" s="19">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J14" s="25"/>
       <c r="L14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O14" s="25"/>
       <c r="Q14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="T14" s="25"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E15" s="19">
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J15" s="25"/>
       <c r="L15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O15" s="25"/>
       <c r="Q15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="T15" s="25"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E18" s="25">
         <f>CHOOSE(E13,J18,O18,T18)</f>
         <v>0.09</v>
       </c>
       <c r="G18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J18" s="25">
         <v>0.11</v>
       </c>
       <c r="L18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O18" s="25">
         <v>0.09</v>
       </c>
       <c r="Q18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="T18" s="25">
         <v>7.0000000000000007E-2</v>
@@ -17012,26 +17012,26 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E19" s="25">
         <f>CHOOSE(E14,J19,O19,T19)</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J19" s="25">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="L19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O19" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T19" s="25">
         <v>3.5000000000000003E-2</v>
@@ -17039,26 +17039,26 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E20" s="25">
         <f>CHOOSE(E15,J20,O20,T20)</f>
         <v>0.1</v>
       </c>
       <c r="G20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J20" s="25">
         <v>0.09</v>
       </c>
       <c r="L20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O20" s="25">
         <v>0.1</v>
       </c>
       <c r="Q20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="T20" s="25">
         <v>0.11</v>
@@ -17066,10 +17066,10 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -17141,7 +17141,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G25" s="27">
         <f>+Model!S19</f>
@@ -17210,7 +17210,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B26" s="28" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C26" s="29"/>
       <c r="G26" s="30"/>
@@ -17277,7 +17277,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B27" s="28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C27" s="29"/>
       <c r="I27" s="6"/>
@@ -17327,7 +17327,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B28" s="28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C28" s="29"/>
       <c r="I28" s="6"/>
@@ -17376,7 +17376,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B29" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C29" s="29"/>
       <c r="I29" s="6"/>
@@ -17426,7 +17426,7 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G31" s="27">
         <f>+Model!S28</f>
@@ -17495,7 +17495,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B32" s="28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G32" s="31">
         <f>G31/G25</f>
@@ -17564,7 +17564,7 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M33" s="32">
         <f>+M34-2%</f>
@@ -17609,7 +17609,7 @@
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M34" s="32">
         <v>0.17</v>
@@ -17647,7 +17647,7 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M35" s="32">
         <f>+M34+2%</f>
@@ -17692,7 +17692,7 @@
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G37" s="27">
         <f>+Model!S31</f>
@@ -17761,7 +17761,7 @@
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="29" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G38" s="31">
         <f t="shared" ref="G38:L38" si="12">G37/G31</f>
@@ -17823,7 +17823,7 @@
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="33" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
@@ -17896,7 +17896,7 @@
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G42" s="27">
         <f>+Model!S76</f>
@@ -17965,7 +17965,7 @@
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
@@ -18097,7 +18097,7 @@
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G46" s="37">
         <f t="shared" ref="G46:L46" si="17">G45/G25</f>
@@ -18225,7 +18225,7 @@
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B49" s="28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G49" s="37">
         <f t="shared" ref="G49:L49" si="19">G48/G25</f>
@@ -18284,7 +18284,7 @@
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B51" s="39" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="40"/>
@@ -18357,7 +18357,7 @@
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B52" s="43" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C52" s="44"/>
       <c r="D52" s="44"/>
@@ -18371,93 +18371,93 @@
       <c r="L52" s="45"/>
       <c r="M52" s="45">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>1698.2404568824179</v>
+        <v>1644.3442426776612</v>
       </c>
       <c r="N52" s="45">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>4148.2539136955729</v>
+        <v>4153.2219830203821</v>
       </c>
       <c r="O52" s="45">
         <f t="shared" ref="O52:U52" ca="1" si="21">O51/(1+$E$18)^O53</f>
-        <v>4264.1281527811598</v>
+        <v>4269.2349964589175</v>
       </c>
       <c r="P52" s="45">
         <f t="shared" ca="1" si="21"/>
-        <v>4369.3961809906796</v>
+        <v>4374.6290967153054</v>
       </c>
       <c r="Q52" s="45">
         <f t="shared" ca="1" si="21"/>
-        <v>4310.9596531578654</v>
+        <v>4316.1225836001513</v>
       </c>
       <c r="R52" s="45">
         <f t="shared" ca="1" si="21"/>
-        <v>4169.2305883431427</v>
+        <v>4174.2237799425338</v>
       </c>
       <c r="S52" s="45">
         <f t="shared" ca="1" si="21"/>
-        <v>4021.8021284749684</v>
+        <v>4026.618755470477</v>
       </c>
       <c r="T52" s="45">
         <f t="shared" ca="1" si="21"/>
-        <v>3870.0938882042183</v>
+        <v>3874.7288250065776</v>
       </c>
       <c r="U52" s="45">
         <f t="shared" ca="1" si="21"/>
-        <v>3715.4301313349824</v>
+        <v>3719.8798383317062</v>
       </c>
       <c r="V52" s="46">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>3559.0325381974912</v>
+        <v>3563.294938895926</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M53" s="70">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.42222222222222222</v>
+        <v>0.40833333333333333</v>
       </c>
       <c r="N53" s="70">
         <f ca="1">M53+1</f>
-        <v>1.4222222222222223</v>
+        <v>1.4083333333333332</v>
       </c>
       <c r="O53" s="70">
         <f ca="1">N53+1</f>
-        <v>2.4222222222222225</v>
+        <v>2.4083333333333332</v>
       </c>
       <c r="P53" s="70">
         <f t="shared" ref="P53:V53" ca="1" si="22">O53+1</f>
-        <v>3.4222222222222225</v>
+        <v>3.4083333333333332</v>
       </c>
       <c r="Q53" s="70">
         <f t="shared" ca="1" si="22"/>
-        <v>4.4222222222222225</v>
+        <v>4.4083333333333332</v>
       </c>
       <c r="R53" s="70">
         <f t="shared" ca="1" si="22"/>
-        <v>5.4222222222222225</v>
+        <v>5.4083333333333332</v>
       </c>
       <c r="S53" s="70">
         <f t="shared" ca="1" si="22"/>
-        <v>6.4222222222222225</v>
+        <v>6.4083333333333332</v>
       </c>
       <c r="T53" s="70">
         <f t="shared" ca="1" si="22"/>
-        <v>7.4222222222222225</v>
+        <v>7.4083333333333332</v>
       </c>
       <c r="U53" s="70">
         <f t="shared" ca="1" si="22"/>
-        <v>8.4222222222222225</v>
+        <v>8.4083333333333332</v>
       </c>
       <c r="V53" s="70">
         <f t="shared" ca="1" si="22"/>
-        <v>9.4222222222222225</v>
+        <v>9.4083333333333332</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N54" s="47"/>
       <c r="O54" s="47"/>
@@ -18465,12 +18465,12 @@
       <c r="Q54" s="47"/>
       <c r="V54" s="27">
         <f ca="1">SUM(M52:V52)</f>
-        <v>38126.567632062499</v>
+        <v>38116.299040119637</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N55" s="47"/>
       <c r="O55" s="47"/>
@@ -18481,12 +18481,12 @@
         <v>101301.58810181872</v>
       </c>
       <c r="X55" s="48" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B56" s="14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
@@ -18509,12 +18509,12 @@
       <c r="U56" s="49"/>
       <c r="V56" s="50">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>44975.445431331311</v>
+        <v>45029.309330568372</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B57" s="51" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C57" s="51"/>
       <c r="D57" s="51"/>
@@ -18537,12 +18537,12 @@
       <c r="U57" s="52"/>
       <c r="V57" s="53">
         <f ca="1">V54+V56</f>
-        <v>83102.01306339381</v>
+        <v>83145.608370688016</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="N58" s="47"/>
       <c r="O58" s="47"/>
@@ -18555,7 +18555,7 @@
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
@@ -18583,7 +18583,7 @@
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N60" s="47"/>
       <c r="O60" s="47"/>
@@ -18591,12 +18591,12 @@
       <c r="Q60" s="47"/>
       <c r="V60" s="54">
         <f ca="1">V57+V58-V59</f>
-        <v>81814.01306339381</v>
+        <v>81857.608370688016</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
@@ -18624,19 +18624,19 @@
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="V62" s="54">
         <f ca="1">V60/V61</f>
-        <v>84.431386030334167</v>
+        <v>84.476376027541818</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C66" s="22"/>
       <c r="D66" s="22"/>
@@ -18662,7 +18662,7 @@
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B68" s="55"/>
       <c r="C68" s="73" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D68" s="73"/>
       <c r="E68" s="73"/>
@@ -18673,7 +18673,7 @@
       <c r="J68" s="74"/>
       <c r="M68" s="55"/>
       <c r="N68" s="75" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O68" s="75"/>
       <c r="P68" s="75"/>
@@ -18685,11 +18685,11 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B69" s="77" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C69" s="56">
         <f ca="1">+J4</f>
-        <v>84.431386030334167</v>
+        <v>84.476376027541818</v>
       </c>
       <c r="D69" s="57">
         <v>0.01</v>
@@ -18713,11 +18713,11 @@
         <v>0.04</v>
       </c>
       <c r="M69" s="77" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N69" s="56">
         <f ca="1">+J4</f>
-        <v>84.431386030334167</v>
+        <v>84.476376027541818</v>
       </c>
       <c r="O69" s="57">
         <v>7.0000000000000007E-2</v>
@@ -18748,25 +18748,25 @@
       </c>
       <c r="D70" s="59">
         <f t="dataTable" ref="D70:J76" dt2D="1" dtr="1" r1="E19" r2="E18" ca="1"/>
-        <v>103.44103061602929</v>
+        <v>103.48827343504711</v>
       </c>
       <c r="E70" s="59">
-        <v>105.20538830213718</v>
+        <v>105.25440422699502</v>
       </c>
       <c r="F70" s="59">
-        <v>107.2498854923535</v>
+        <v>107.30095605156153</v>
       </c>
       <c r="G70" s="60">
-        <v>109.65856403791071</v>
+        <v>109.71205521853216</v>
       </c>
       <c r="H70" s="59">
-        <v>112.55281772392252</v>
+        <v>112.60921750870828</v>
       </c>
       <c r="I70" s="59">
-        <v>116.11473722805934</v>
+        <v>116.17471659329202</v>
       </c>
       <c r="J70" s="59">
-        <v>120.63046504380341</v>
+        <v>120.69498252702948</v>
       </c>
       <c r="M70" s="77"/>
       <c r="N70" s="58">
@@ -18774,25 +18774,25 @@
       </c>
       <c r="O70" s="59">
         <f t="dataTable" ref="O70:U76" dt2D="1" dtr="1" r1="E20" r2="E18" ca="1"/>
-        <v>99.836556587220755</v>
+        <v>99.880177060270341</v>
       </c>
       <c r="P70" s="59">
-        <v>103.92905969167489</v>
+        <v>103.9767929595461</v>
       </c>
       <c r="Q70" s="59">
-        <v>107.1121176618059</v>
+        <v>107.16304977009391</v>
       </c>
       <c r="R70" s="60">
-        <v>109.65856403791071</v>
+        <v>109.71205521853216</v>
       </c>
       <c r="S70" s="59">
-        <v>111.74202016381464</v>
+        <v>111.79760513089072</v>
       </c>
       <c r="T70" s="59">
-        <v>113.47823360206792</v>
+        <v>113.53556339118951</v>
       </c>
       <c r="U70" s="59">
-        <v>114.94733728058991</v>
+        <v>115.0061434575962</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
@@ -18801,50 +18801,50 @@
         <v>0.08</v>
       </c>
       <c r="D71" s="59">
-        <v>95.493759636884562</v>
+        <v>95.539372349671851</v>
       </c>
       <c r="E71" s="59">
-        <v>96.723815835372676</v>
+        <v>96.770744062303649</v>
       </c>
       <c r="F71" s="59">
-        <v>98.12321055449398</v>
+        <v>98.17163539885415</v>
       </c>
       <c r="G71" s="60">
-        <v>99.738127027148394</v>
+        <v>99.788278984028437</v>
       </c>
       <c r="H71" s="59">
-        <v>101.63322177939585</v>
+        <v>101.68540049241372</v>
       </c>
       <c r="I71" s="59">
-        <v>103.90188757110073</v>
+        <v>103.95649256508025</v>
       </c>
       <c r="J71" s="59">
-        <v>106.68421354205957</v>
+        <v>106.74179416363361</v>
       </c>
       <c r="M71" s="77"/>
       <c r="N71" s="58">
         <v>0.08</v>
       </c>
       <c r="O71" s="59">
-        <v>91.191021771705479</v>
+        <v>91.232032814646345</v>
       </c>
       <c r="P71" s="59">
-        <v>94.752315628140025</v>
+        <v>94.797135385222219</v>
       </c>
       <c r="Q71" s="59">
-        <v>97.522210849811344</v>
+        <v>97.56999294011456</v>
       </c>
       <c r="R71" s="60">
-        <v>99.738127027148394</v>
+        <v>99.788278984028437</v>
       </c>
       <c r="S71" s="59">
-        <v>101.55114935406051</v>
+        <v>101.60324029268524</v>
       </c>
       <c r="T71" s="59">
-        <v>103.06200129315395</v>
+        <v>103.11570804989925</v>
       </c>
       <c r="U71" s="59">
-        <v>104.34041447238687</v>
+        <v>104.39548845984957</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
@@ -18853,50 +18853,50 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="D72" s="60">
-        <v>88.616655905834548</v>
+        <v>88.660799465120419</v>
       </c>
       <c r="E72" s="60">
-        <v>89.456788239092617</v>
+        <v>89.501884254325063</v>
       </c>
       <c r="F72" s="60">
-        <v>90.394647035131186</v>
+        <v>90.440806298559167</v>
       </c>
       <c r="G72" s="60">
-        <v>91.454663909645319</v>
+        <v>91.502024911580037</v>
       </c>
       <c r="H72" s="60">
-        <v>92.670154702219349</v>
+        <v>92.718893703056821</v>
       </c>
       <c r="I72" s="60">
-        <v>94.087761588271192</v>
+        <v>94.138107726526314</v>
       </c>
       <c r="J72" s="60">
-        <v>95.77485659896017</v>
+        <v>95.827115392652729</v>
       </c>
       <c r="M72" s="77"/>
       <c r="N72" s="58">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="O72" s="60">
-        <v>83.953482362698338</v>
+        <v>83.992339293681368</v>
       </c>
       <c r="P72" s="60">
-        <v>87.07897467392624</v>
+        <v>87.121374967805792</v>
       </c>
       <c r="Q72" s="60">
-        <v>89.509913138214628</v>
+        <v>89.555069381013695</v>
       </c>
       <c r="R72" s="60">
-        <v>91.454663909645319</v>
+        <v>91.502024911580037</v>
       </c>
       <c r="S72" s="60">
-        <v>93.045823631725</v>
+        <v>93.094988527497932</v>
       </c>
       <c r="T72" s="60">
-        <v>94.371790066791377</v>
+        <v>94.422458207429514</v>
       </c>
       <c r="U72" s="60">
-        <v>95.493761665693711</v>
+        <v>95.54570178275624</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
@@ -18905,50 +18905,50 @@
         <v>0.09</v>
       </c>
       <c r="D73" s="59">
-        <v>82.608776169918769</v>
+        <v>82.651583356641069</v>
       </c>
       <c r="E73" s="59">
-        <v>83.161470975071666</v>
+        <v>83.204940085139199</v>
       </c>
       <c r="F73" s="59">
-        <v>83.76509032271116</v>
+        <v>83.809282344834529</v>
       </c>
       <c r="G73" s="60">
-        <v>84.431386030334167</v>
+        <v>84.476376027541818</v>
       </c>
       <c r="H73" s="59">
-        <v>85.176027187936583</v>
+        <v>85.221908989014011</v>
       </c>
       <c r="I73" s="59">
-        <v>86.020380736421899</v>
+        <v>86.067273759823422</v>
       </c>
       <c r="J73" s="59">
-        <v>86.994360393054961</v>
+        <v>87.042419882771171</v>
       </c>
       <c r="M73" s="77"/>
       <c r="N73" s="58">
         <v>0.09</v>
       </c>
       <c r="O73" s="59">
-        <v>77.800773405930315</v>
+        <v>77.837822388949974</v>
       </c>
       <c r="P73" s="59">
-        <v>80.563528666098591</v>
+        <v>80.603886405029897</v>
       </c>
       <c r="Q73" s="59">
-        <v>82.712338312896122</v>
+        <v>82.755269528647631</v>
       </c>
       <c r="R73" s="60">
-        <v>84.431386030334167</v>
+        <v>84.476376027541818</v>
       </c>
       <c r="S73" s="59">
-        <v>85.837879617328909</v>
+        <v>85.884554072091589</v>
       </c>
       <c r="T73" s="59">
-        <v>87.009957606491227</v>
+        <v>87.05803577588307</v>
       </c>
       <c r="U73" s="59">
-        <v>88.001715905013171</v>
+        <v>88.050981832937424</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -18957,50 +18957,50 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D74" s="59">
-        <v>77.316466882614449</v>
+        <v>77.358048855782215</v>
       </c>
       <c r="E74" s="59">
-        <v>77.655728483830359</v>
+        <v>77.697738358157423</v>
       </c>
       <c r="F74" s="59">
-        <v>78.015166131391496</v>
+        <v>78.05762935436023</v>
       </c>
       <c r="G74" s="60">
-        <v>78.399103263800399</v>
+        <v>78.44205073592515</v>
       </c>
       <c r="H74" s="59">
-        <v>78.813193608329627</v>
+        <v>78.856663361012622</v>
       </c>
       <c r="I74" s="59">
-        <v>79.264975468009268</v>
+        <v>79.30901504050334</v>
       </c>
       <c r="J74" s="59">
-        <v>79.764728346971282</v>
+        <v>79.809398243779995</v>
       </c>
       <c r="M74" s="77"/>
       <c r="N74" s="58">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="O74" s="59">
-        <v>72.501966989288007</v>
+        <v>72.537476568532028</v>
       </c>
       <c r="P74" s="59">
-        <v>74.959107103668174</v>
+        <v>74.997715804945827</v>
       </c>
       <c r="Q74" s="59">
-        <v>76.870216081519402</v>
+        <v>76.911235211045451</v>
       </c>
       <c r="R74" s="60">
-        <v>78.399103263800399</v>
+        <v>78.44205073592515</v>
       </c>
       <c r="S74" s="59">
-        <v>79.650010958393921</v>
+        <v>79.694536165372156</v>
       </c>
       <c r="T74" s="59">
-        <v>80.692434037221872</v>
+        <v>80.738274023244685</v>
       </c>
       <c r="U74" s="59">
-        <v>81.574484334691661</v>
+        <v>81.621436826059892</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -19009,50 +19009,50 @@
         <v>0.1</v>
       </c>
       <c r="D75" s="59">
-        <v>72.620227880435166</v>
+        <v>72.66067891091231</v>
       </c>
       <c r="E75" s="59">
-        <v>72.800272285898544</v>
+        <v>72.840961808424424</v>
       </c>
       <c r="F75" s="59">
-        <v>72.980316691361935</v>
+        <v>73.021244705936567</v>
       </c>
       <c r="G75" s="60">
-        <v>73.160361096825312</v>
+        <v>73.201527603448696</v>
       </c>
       <c r="H75" s="59">
-        <v>73.340405502288675</v>
+        <v>73.381810500960825</v>
       </c>
       <c r="I75" s="59">
-        <v>73.520449907752052</v>
+        <v>73.562093398472939</v>
       </c>
       <c r="J75" s="59">
-        <v>73.700494313215444</v>
+        <v>73.742376295985082</v>
       </c>
       <c r="M75" s="77"/>
       <c r="N75" s="58">
         <v>0.1</v>
       </c>
       <c r="O75" s="59">
-        <v>67.887632079683513</v>
+        <v>67.921814176307777</v>
       </c>
       <c r="P75" s="59">
-        <v>70.084602503492576</v>
+        <v>70.12169477094983</v>
       </c>
       <c r="Q75" s="59">
-        <v>71.793357277566315</v>
+        <v>71.832713011226971</v>
       </c>
       <c r="R75" s="60">
-        <v>73.160361096825312</v>
+        <v>73.201527603448696</v>
       </c>
       <c r="S75" s="59">
-        <v>74.278818767128101</v>
+        <v>74.321466815266447</v>
       </c>
       <c r="T75" s="59">
-        <v>75.210866825713765</v>
+        <v>75.254749491781254</v>
       </c>
       <c r="U75" s="59">
-        <v>75.999522875286246</v>
+        <v>76.04445021806302</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -19061,50 +19061,50 @@
         <v>0.105</v>
       </c>
       <c r="D76" s="59">
-        <v>68.42572438130297</v>
+        <v>68.465125342866813</v>
       </c>
       <c r="E76" s="59">
-        <v>68.486759663048275</v>
+        <v>68.526245323439412</v>
       </c>
       <c r="F76" s="59">
-        <v>68.534679925575574</v>
+        <v>68.574232085045978</v>
       </c>
       <c r="G76" s="60">
-        <v>68.567026102781497</v>
+        <v>68.606623149130414</v>
       </c>
       <c r="H76" s="59">
-        <v>68.580683377601773</v>
+        <v>68.620299376188285</v>
       </c>
       <c r="I76" s="59">
-        <v>68.571646985239468</v>
+        <v>68.611250443999623</v>
       </c>
       <c r="J76" s="59">
-        <v>68.534679925575574</v>
+        <v>68.574232085045978</v>
       </c>
       <c r="M76" s="78"/>
       <c r="N76" s="58">
         <v>0.105</v>
       </c>
       <c r="O76" s="59">
-        <v>63.830621583342356</v>
+        <v>63.863645908194805</v>
       </c>
       <c r="P76" s="59">
-        <v>65.804123466441993</v>
+        <v>65.839886425251308</v>
       </c>
       <c r="Q76" s="59">
-        <v>67.3390693755195</v>
+        <v>67.376962382961921</v>
       </c>
       <c r="R76" s="60">
-        <v>68.567026102781497</v>
+        <v>68.606623149130414</v>
       </c>
       <c r="S76" s="59">
-        <v>69.5717179705413</v>
+        <v>69.612709230541</v>
       </c>
       <c r="T76" s="59">
-        <v>70.408961193674486</v>
+        <v>70.45111429838316</v>
       </c>
       <c r="U76" s="59">
-        <v>71.117397767094872</v>
+        <v>71.160533971172683</v>
       </c>
     </row>
   </sheetData>

--- a/PYPL.xlsx
+++ b/PYPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD39F076-B7D6-40DE-B65D-9E1103865E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938B0258-E71F-4BBF-AB0D-A0CE941B772E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="5325" windowWidth="38175" windowHeight="15240" xr2:uid="{B690896D-DF4D-4BA1-A25A-CD8C19559281}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{B690896D-DF4D-4BA1-A25A-CD8C19559281}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1085,7 +1085,7 @@
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="\F\Y#,##0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1094,14 +1094,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -1118,72 +1116,70 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.14999847407452621"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1397,137 +1393,138 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -1959,32 +1956,33 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="3">
@@ -1994,11 +1992,11 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="3">
@@ -2006,11 +2004,11 @@
         <v>74031.600000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="3">
@@ -2021,8 +2019,8 @@
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="3">
@@ -2032,11 +2030,11 @@
         <v>324</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="3">
@@ -2044,123 +2042,123 @@
         <v>75319.600000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>1998</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>137</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>770</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>322</v>
       </c>
       <c r="D21" s="3">
         <v>128000</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>333</v>
       </c>
     </row>
@@ -2177,24 +2175,28 @@
   <dimension ref="A1:AR236"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="2"/>
+    <col min="16" max="24" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -2271,8 +2273,8 @@
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C3" s="4"/>
@@ -2328,8 +2330,8 @@
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C4" s="4"/>
@@ -2384,8 +2386,8 @@
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C5" s="4"/>
@@ -2401,39 +2403,39 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="11">
+      <c r="P5" s="7">
         <f t="shared" ref="P5:W5" si="0">+P12/P4</f>
         <v>8.9920619991136885E-3</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="7">
         <f t="shared" si="0"/>
         <v>1.1396695591045107E-2</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="7">
         <f t="shared" si="0"/>
         <v>1.445061098182231E-2</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="7">
         <f t="shared" si="0"/>
         <v>1.7785984248847028E-2</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="7">
         <f t="shared" si="0"/>
         <v>2.3157629037150584E-2</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="7">
         <f t="shared" si="0"/>
         <v>3.0412925567692033E-2</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="7">
         <f t="shared" si="0"/>
         <v>3.4117893442395471E-2</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="7">
         <f t="shared" si="0"/>
         <v>3.9676267543676709E-2</v>
       </c>
-      <c r="X5" s="11">
+      <c r="X5" s="7">
         <f>+X12/X4</f>
         <v>4.278083081690038E-2</v>
       </c>
@@ -2449,7 +2451,7 @@
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -2484,8 +2486,8 @@
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="3">
@@ -2560,8 +2562,8 @@
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="3">
@@ -2636,8 +2638,8 @@
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="8">
@@ -2730,8 +2732,8 @@
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="3">
@@ -2825,8 +2827,8 @@
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="3">
@@ -2920,43 +2922,43 @@
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="9">
         <v>354508</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
         <v>376538</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="9">
         <v>387701</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="9">
         <v>409832</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="9">
         <v>403860</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="9">
         <v>416814</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="9">
         <v>422641</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="9">
         <v>437836</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="9">
         <v>417208</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="9">
         <v>443547</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="1">
         <v>359928</v>
       </c>
@@ -2984,116 +2986,116 @@
       <c r="X12" s="1">
         <v>1681150</v>
       </c>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
       <c r="AJ12" s="3"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C13" s="10">
         <f t="shared" ref="C13:D13" si="17">+C19/C12</f>
         <v>1.9858508129576766E-2</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="10">
         <f t="shared" si="17"/>
         <v>1.9352628419973549E-2</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="10">
         <f>+E19/E12</f>
         <v>1.913330117796962E-2</v>
       </c>
-      <c r="F13" s="72">
+      <c r="F13" s="10">
         <f t="shared" ref="F13:I13" si="18">+F19/F12</f>
         <v>1.9583634269651956E-2</v>
       </c>
-      <c r="G13" s="72">
+      <c r="G13" s="10">
         <f t="shared" si="18"/>
         <v>1.9063536869212104E-2</v>
       </c>
-      <c r="H13" s="72">
+      <c r="H13" s="10">
         <f t="shared" si="18"/>
         <v>1.8917310838887369E-2</v>
       </c>
-      <c r="I13" s="72">
+      <c r="I13" s="10">
         <f t="shared" si="18"/>
         <v>1.8566584879365702E-2</v>
       </c>
-      <c r="J13" s="72">
+      <c r="J13" s="10">
         <f>+J19/J12</f>
         <v>1.9107611068984735E-2</v>
       </c>
-      <c r="K13" s="72">
+      <c r="K13" s="10">
         <f>+K19/K12</f>
         <v>1.8674138559183907E-2</v>
       </c>
-      <c r="L13" s="72">
+      <c r="L13" s="10">
         <f>+L19/L12</f>
         <v>1.8685731162650182E-2</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="72">
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="10">
         <f t="shared" ref="P13:R13" si="19">+P19/P12</f>
         <v>3.012269120490765E-2</v>
       </c>
-      <c r="Q13" s="72">
+      <c r="Q13" s="10">
         <f t="shared" si="19"/>
         <v>2.8703644841169804E-2</v>
       </c>
-      <c r="R13" s="72">
+      <c r="R13" s="10">
         <f t="shared" si="19"/>
         <v>2.6712469680283669E-2</v>
       </c>
-      <c r="S13" s="72">
+      <c r="S13" s="10">
         <f t="shared" ref="S13:X13" si="20">+S19/S12</f>
         <v>2.4963303718790603E-2</v>
       </c>
-      <c r="T13" s="72">
+      <c r="T13" s="10">
         <f t="shared" si="20"/>
         <v>2.2919422004098019E-2</v>
       </c>
-      <c r="U13" s="72">
+      <c r="U13" s="10">
         <f t="shared" si="20"/>
         <v>2.0363935823623322E-2</v>
       </c>
-      <c r="V13" s="72">
+      <c r="V13" s="10">
         <f t="shared" si="20"/>
         <v>2.0276882084897932E-2</v>
       </c>
-      <c r="W13" s="72">
+      <c r="W13" s="10">
         <f t="shared" si="20"/>
         <v>1.9476258668999116E-2</v>
       </c>
-      <c r="X13" s="72">
+      <c r="X13" s="10">
         <f t="shared" si="20"/>
         <v>1.8913838741337775E-2</v>
       </c>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
       <c r="AJ13" s="3"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -3129,8 +3131,8 @@
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>327</v>
       </c>
       <c r="C15" s="3">
@@ -3206,8 +3208,8 @@
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>328</v>
       </c>
       <c r="C16" s="3">
@@ -3289,8 +3291,8 @@
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
     </row>
-    <row r="17" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="3">
@@ -3366,8 +3368,8 @@
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
     </row>
-    <row r="18" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C18" s="3">
@@ -3451,81 +3453,81 @@
       <c r="AQ18" s="3"/>
       <c r="AR18" s="3"/>
     </row>
-    <row r="19" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="9">
         <v>7040</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="9">
         <v>7287</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="9">
         <v>7418</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="9">
         <v>8026</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="9">
         <v>7699</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="9">
         <v>7885</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="9">
         <v>7847</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="9">
         <v>8366</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="9">
         <v>7791</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="9">
         <v>8288</v>
       </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7">
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9">
         <v>10842</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="9">
         <v>13094</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="9">
         <v>15451</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S19" s="9">
         <v>17772</v>
       </c>
-      <c r="T19" s="7">
+      <c r="T19" s="9">
         <v>21454</v>
       </c>
-      <c r="U19" s="7">
+      <c r="U19" s="9">
         <v>25371</v>
       </c>
-      <c r="V19" s="7">
+      <c r="V19" s="9">
         <v>27518</v>
       </c>
-      <c r="W19" s="7">
+      <c r="W19" s="9">
         <v>29771</v>
       </c>
-      <c r="X19" s="7">
+      <c r="X19" s="9">
         <v>31797</v>
       </c>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
       <c r="AJ19" s="3"/>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
@@ -3536,8 +3538,8 @@
       <c r="AQ19" s="3"/>
       <c r="AR19" s="3"/>
     </row>
-    <row r="20" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="3">
@@ -3624,8 +3626,8 @@
       <c r="AQ20" s="3"/>
       <c r="AR20" s="3"/>
     </row>
-    <row r="21" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="3">
@@ -3709,8 +3711,8 @@
       <c r="AQ21" s="3"/>
       <c r="AR21" s="3"/>
     </row>
-    <row r="22" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="3">
@@ -3813,8 +3815,8 @@
       <c r="AQ22" s="3"/>
       <c r="AR22" s="3"/>
     </row>
-    <row r="23" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="3">
@@ -3898,8 +3900,8 @@
       <c r="AQ23" s="3"/>
       <c r="AR23" s="3"/>
     </row>
-    <row r="24" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="3">
@@ -3983,8 +3985,8 @@
       <c r="AQ24" s="3"/>
       <c r="AR24" s="3"/>
     </row>
-    <row r="25" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="3">
@@ -4068,8 +4070,8 @@
       <c r="AQ25" s="3"/>
       <c r="AR25" s="3"/>
     </row>
-    <row r="26" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="3">
@@ -4153,8 +4155,8 @@
       <c r="AQ26" s="3"/>
       <c r="AR26" s="3"/>
     </row>
-    <row r="27" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="3">
@@ -4238,8 +4240,8 @@
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
     </row>
-    <row r="28" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="3">
@@ -4342,8 +4344,8 @@
       <c r="AQ28" s="3"/>
       <c r="AR28" s="3"/>
     </row>
-    <row r="29" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="3">
@@ -4427,8 +4429,8 @@
       <c r="AQ29" s="3"/>
       <c r="AR29" s="3"/>
     </row>
-    <row r="30" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="3">
@@ -4531,8 +4533,8 @@
       <c r="AQ30" s="3"/>
       <c r="AR30" s="3"/>
     </row>
-    <row r="31" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="3">
@@ -4616,8 +4618,8 @@
       <c r="AQ31" s="3"/>
       <c r="AR31" s="3"/>
     </row>
-    <row r="32" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="3">
@@ -4720,7 +4722,7 @@
       <c r="AQ32" s="3"/>
       <c r="AR32" s="3"/>
     </row>
-    <row r="33" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -4764,100 +4766,100 @@
       <c r="AQ33" s="3"/>
       <c r="AR33" s="3"/>
     </row>
-    <row r="34" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="12">
         <f t="shared" ref="C34:D34" si="46">+C32/C35</f>
         <v>0.70416297608503098</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="12">
         <f t="shared" si="46"/>
         <v>0.9261926192619262</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="12">
         <f>+E32/E35</f>
         <v>0.93235831809872027</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="12">
         <f>+F32/F35</f>
         <v>1.3017641597028784</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="12">
         <f t="shared" ref="G34:L34" si="47">+G32/G35</f>
         <v>0.83458646616541354</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="12">
         <f t="shared" si="47"/>
         <v>1</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="12">
         <f t="shared" si="47"/>
         <v>0.99507389162561577</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="12">
         <f t="shared" si="47"/>
         <v>1.1243731193580742</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="12">
         <f t="shared" si="47"/>
         <v>1.3052738336713996</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="12">
         <f t="shared" si="47"/>
         <v>1.3003095975232197</v>
       </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2">
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12">
         <f t="shared" ref="P34:W34" si="48">+P32/P35</f>
         <v>1.1578512396694214</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="Q34" s="12">
         <f t="shared" si="48"/>
         <v>1.4921030756442228</v>
       </c>
-      <c r="R34" s="2">
+      <c r="R34" s="12">
         <f t="shared" si="48"/>
         <v>1.7373310810810811</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S34" s="12">
         <f t="shared" si="48"/>
         <v>2.094548551959114</v>
       </c>
-      <c r="T34" s="2">
+      <c r="T34" s="12">
         <f t="shared" si="48"/>
         <v>3.5822676896845693</v>
       </c>
-      <c r="U34" s="2">
+      <c r="U34" s="12">
         <f t="shared" si="48"/>
         <v>3.5511073253833048</v>
       </c>
-      <c r="V34" s="2">
+      <c r="V34" s="12">
         <f t="shared" si="48"/>
         <v>2.0889464594127807</v>
       </c>
-      <c r="W34" s="2">
+      <c r="W34" s="12">
         <f t="shared" si="48"/>
         <v>3.8355916892502258</v>
       </c>
-      <c r="X34" s="2">
+      <c r="X34" s="12">
         <f>+X32/X35</f>
         <v>4.0301263362487854</v>
       </c>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-      <c r="AH34" s="2"/>
-      <c r="AI34" s="2"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="12"/>
       <c r="AJ34" s="3"/>
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
@@ -4868,8 +4870,8 @@
       <c r="AQ34" s="3"/>
       <c r="AR34" s="3"/>
     </row>
-    <row r="35" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="3">
@@ -4953,7 +4955,7 @@
       <c r="AQ35" s="3"/>
       <c r="AR35" s="3"/>
     </row>
-    <row r="36" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -4997,35 +4999,35 @@
       <c r="AQ36" s="3"/>
       <c r="AR36" s="3"/>
     </row>
-    <row r="37" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="6">
+      <c r="G37" s="11">
         <f t="shared" ref="G37:J37" si="49">+G7/C7-1</f>
         <v>-1.3856812933025431E-2</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="11">
         <f t="shared" si="49"/>
         <v>-4.6403712296984034E-3</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="11">
         <f t="shared" si="49"/>
         <v>9.3457943925232545E-3</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="11">
         <f t="shared" si="49"/>
         <v>1.8779342723004744E-2</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="11">
         <f>+K7/G7-1</f>
         <v>2.1077283372365363E-2</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L37" s="11">
         <f>+L7/H7-1</f>
         <v>2.0979020979021046E-2</v>
       </c>
@@ -5033,35 +5035,35 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="6">
+      <c r="Q37" s="11">
         <f t="shared" ref="Q37:S37" si="50">+Q7/P7-1</f>
         <v>0.15075376884422109</v>
       </c>
-      <c r="R37" s="6">
+      <c r="R37" s="11">
         <f t="shared" si="50"/>
         <v>0.1659388646288209</v>
       </c>
-      <c r="S37" s="6">
+      <c r="S37" s="11">
         <f t="shared" si="50"/>
         <v>0.14232209737827706</v>
       </c>
-      <c r="T37" s="6">
+      <c r="T37" s="11">
         <f t="shared" ref="T37:X38" si="51">+T7/S7-1</f>
         <v>0.23606557377049175</v>
       </c>
-      <c r="U37" s="6">
+      <c r="U37" s="11">
         <f t="shared" si="51"/>
         <v>0.12997347480106103</v>
       </c>
-      <c r="V37" s="6">
+      <c r="V37" s="11">
         <f t="shared" si="51"/>
         <v>2.1126760563380254E-2</v>
       </c>
-      <c r="W37" s="6">
+      <c r="W37" s="11">
         <f t="shared" si="51"/>
         <v>-2.0689655172413834E-2</v>
       </c>
-      <c r="X37" s="6">
+      <c r="X37" s="11">
         <f t="shared" si="51"/>
         <v>1.8779342723004744E-2</v>
       </c>
@@ -5086,35 +5088,35 @@
       <c r="AQ37" s="3"/>
       <c r="AR37" s="3"/>
     </row>
-    <row r="38" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="6">
+      <c r="G38" s="11">
         <f t="shared" ref="G38:J38" si="52">+G8/C8-1</f>
         <v>0.11482433590402752</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="11">
         <f t="shared" si="52"/>
         <v>8.3305893974316758E-2</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="11">
         <f t="shared" si="52"/>
         <v>5.6733067729083597E-2</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="11">
         <f t="shared" si="52"/>
         <v>-2.6331273904089403E-2</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="11">
         <f>+K8/G8-1</f>
         <v>-7.0714834742505728E-2</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38" s="11">
         <f>+L8/H8-1</f>
         <v>-5.3799392097264476E-2</v>
       </c>
@@ -5122,35 +5124,35 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
-      <c r="Q38" s="6">
+      <c r="Q38" s="11">
         <f t="shared" ref="Q38:S38" si="53">+Q8/P8-1</f>
         <v>0.23415409054805392</v>
       </c>
-      <c r="R38" s="6">
+      <c r="R38" s="11">
         <f t="shared" si="53"/>
         <v>0.27056249195520654</v>
       </c>
-      <c r="S38" s="6">
+      <c r="S38" s="11">
         <f t="shared" si="53"/>
         <v>0.25225407760105356</v>
       </c>
-      <c r="T38" s="6">
+      <c r="T38" s="11">
         <f t="shared" si="51"/>
         <v>0.24771458619852771</v>
       </c>
-      <c r="U38" s="6">
+      <c r="U38" s="11">
         <f t="shared" si="51"/>
         <v>0.25449004733190694</v>
       </c>
-      <c r="V38" s="6">
+      <c r="V38" s="11">
         <f t="shared" si="51"/>
         <v>0.15510647095307006</v>
       </c>
-      <c r="W38" s="6">
+      <c r="W38" s="11">
         <f t="shared" si="51"/>
         <v>0.11776813280236254</v>
       </c>
-      <c r="X38" s="6">
+      <c r="X38" s="11">
         <f t="shared" si="51"/>
         <v>5.4161162483487457E-2</v>
       </c>
@@ -5175,85 +5177,85 @@
       <c r="AQ38" s="3"/>
       <c r="AR38" s="3"/>
     </row>
-    <row r="39" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="6">
+      <c r="G39" s="11">
         <f t="shared" ref="G39:L39" si="54">+G12/C12-1</f>
         <v>0.1392126552856352</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="11">
         <f t="shared" si="54"/>
         <v>0.10696397176380601</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="11">
         <f t="shared" si="54"/>
         <v>9.0120995303081486E-2</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="11">
         <f t="shared" si="54"/>
         <v>6.8330437837943458E-2</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="11">
         <f t="shared" si="54"/>
         <v>3.3051057297083242E-2</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L39" s="11">
         <f t="shared" si="54"/>
         <v>6.4136521326059182E-2</v>
       </c>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6">
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11">
         <f t="shared" ref="Q39:S39" si="55">+Q12/P12-1</f>
         <v>0.26741737236336149</v>
       </c>
-      <c r="R39" s="6">
+      <c r="R39" s="11">
         <f t="shared" si="55"/>
         <v>0.26796498742818065</v>
       </c>
-      <c r="S39" s="6">
+      <c r="S39" s="11">
         <f t="shared" si="55"/>
         <v>0.23081192007869733</v>
       </c>
-      <c r="T39" s="6">
+      <c r="T39" s="11">
         <f>+T12/S12-1</f>
         <v>0.31483232082031121</v>
       </c>
-      <c r="U39" s="6">
+      <c r="U39" s="11">
         <f>+U12/T12-1</f>
         <v>0.33097914454384436</v>
       </c>
-      <c r="V39" s="6">
+      <c r="V39" s="11">
         <f>+V12/U12-1</f>
         <v>8.9280740746091825E-2</v>
       </c>
-      <c r="W39" s="6">
+      <c r="W39" s="11">
         <f>+W12/V12-1</f>
         <v>0.12634697799444705</v>
       </c>
-      <c r="X39" s="6">
+      <c r="X39" s="11">
         <f>+X12/W12-1</f>
         <v>9.9812309340897576E-2</v>
       </c>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
-      <c r="AA39" s="6"/>
-      <c r="AB39" s="6"/>
-      <c r="AC39" s="6"/>
-      <c r="AD39" s="6"/>
-      <c r="AE39" s="6"/>
-      <c r="AF39" s="6"/>
-      <c r="AG39" s="6"/>
-      <c r="AH39" s="6"/>
-      <c r="AI39" s="6"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
@@ -5264,85 +5266,85 @@
       <c r="AQ39" s="3"/>
       <c r="AR39" s="3"/>
     </row>
-    <row r="40" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="40" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="6">
+      <c r="G40" s="11">
         <f t="shared" ref="G40:L42" si="56">+G17/C17-1</f>
         <v>0.10527969830295403</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="11">
         <f t="shared" si="56"/>
         <v>1.6917827694057364E-2</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="11">
         <f t="shared" si="56"/>
         <v>6.2067929065223959E-2</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="11">
         <f t="shared" si="56"/>
         <v>4.1878346835095392E-2</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="11">
         <f t="shared" si="56"/>
         <v>-2.5589991470003071E-3</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L40" s="11">
         <f t="shared" si="56"/>
         <v>4.0262826785963934E-2</v>
       </c>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6">
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11">
         <f t="shared" ref="Q40:S40" si="57">+Q17/P17-1</f>
         <v>0.19989567031820554</v>
       </c>
-      <c r="R40" s="6">
+      <c r="R40" s="11">
         <f t="shared" si="57"/>
         <v>0.19198330579949574</v>
       </c>
-      <c r="S40" s="6">
+      <c r="S40" s="11">
         <f t="shared" si="57"/>
         <v>0.17433802611423155</v>
       </c>
-      <c r="T40" s="6">
+      <c r="T40" s="11">
         <f t="shared" ref="T40:X42" si="58">+T17/S17-1</f>
         <v>0.23721970308714835</v>
       </c>
-      <c r="U40" s="6">
+      <c r="U40" s="11">
         <f t="shared" si="58"/>
         <v>0.17491716035746552</v>
       </c>
-      <c r="V40" s="6">
+      <c r="V40" s="11">
         <f t="shared" si="58"/>
         <v>7.7087428424921001E-2</v>
       </c>
-      <c r="W40" s="6">
+      <c r="W40" s="11">
         <f t="shared" si="58"/>
         <v>6.5500277711656008E-2</v>
       </c>
-      <c r="X40" s="6">
+      <c r="X40" s="11">
         <f t="shared" si="58"/>
         <v>7.3909967606210714E-2</v>
       </c>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="6"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="6"/>
-      <c r="AI40" s="6"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
@@ -5353,85 +5355,85 @@
       <c r="AQ40" s="3"/>
       <c r="AR40" s="3"/>
     </row>
-    <row r="41" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="41" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="6">
+      <c r="G41" s="11">
         <f t="shared" si="56"/>
         <v>-1.6272189349112454E-2</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="11">
         <f t="shared" si="56"/>
         <v>0.10075187969924815</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="11">
         <f t="shared" si="56"/>
         <v>2.0942408376963373E-2</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="11">
         <f t="shared" si="56"/>
         <v>4.7106325706594898E-2</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="11">
         <f t="shared" si="56"/>
         <v>0.16541353383458657</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="11">
         <f t="shared" si="56"/>
         <v>0.15710382513661192</v>
       </c>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6">
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11">
         <f t="shared" ref="Q41:S41" si="59">+Q18/P18-1</f>
         <v>0.26730310262529833</v>
       </c>
-      <c r="R41" s="6">
+      <c r="R41" s="11">
         <f t="shared" si="59"/>
         <v>9.3534212178280063E-2</v>
       </c>
-      <c r="S41" s="6">
+      <c r="S41" s="11">
         <f t="shared" si="59"/>
         <v>-3.960964408725598E-2</v>
       </c>
-      <c r="T41" s="6">
+      <c r="T41" s="11">
         <f t="shared" si="58"/>
         <v>-8.1888822474596501E-2</v>
       </c>
-      <c r="U41" s="6">
+      <c r="U41" s="11">
         <f t="shared" si="58"/>
         <v>0.28190104166666674</v>
       </c>
-      <c r="V41" s="6">
+      <c r="V41" s="11">
         <f t="shared" si="58"/>
         <v>0.17420010157440324</v>
       </c>
-      <c r="W41" s="6">
+      <c r="W41" s="11">
         <f t="shared" si="58"/>
         <v>0.26038062283737018</v>
       </c>
-      <c r="X41" s="6">
+      <c r="X41" s="11">
         <f t="shared" si="58"/>
         <v>1.4070006863418083E-2</v>
       </c>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="6"/>
-      <c r="AB41" s="6"/>
-      <c r="AC41" s="6"/>
-      <c r="AD41" s="6"/>
-      <c r="AE41" s="6"/>
-      <c r="AF41" s="6"/>
-      <c r="AG41" s="6"/>
-      <c r="AH41" s="6"/>
-      <c r="AI41" s="6"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
@@ -5442,85 +5444,85 @@
       <c r="AQ41" s="3"/>
       <c r="AR41" s="3"/>
     </row>
-    <row r="42" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="9">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="13">
         <f t="shared" si="56"/>
         <v>9.3607954545454453E-2</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="13">
         <f t="shared" si="56"/>
         <v>8.2063949499108002E-2</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="13">
         <f t="shared" si="56"/>
         <v>5.7832299811269916E-2</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="13">
         <f t="shared" si="56"/>
         <v>4.2362322452030865E-2</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K42" s="13">
         <f t="shared" si="56"/>
         <v>1.1949603844655154E-2</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L42" s="13">
         <f t="shared" si="56"/>
         <v>5.1109701965757814E-2</v>
       </c>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9">
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13">
         <f t="shared" ref="Q42:S42" si="60">+Q19/P19-1</f>
         <v>0.20771075447334431</v>
       </c>
-      <c r="R42" s="9">
+      <c r="R42" s="13">
         <f t="shared" si="60"/>
         <v>0.18000610966855057</v>
       </c>
-      <c r="S42" s="9">
+      <c r="S42" s="13">
         <f t="shared" si="60"/>
         <v>0.15021681444566704</v>
       </c>
-      <c r="T42" s="9">
+      <c r="T42" s="13">
         <f t="shared" si="58"/>
         <v>0.20717983344586988</v>
       </c>
-      <c r="U42" s="9">
+      <c r="U42" s="13">
         <f t="shared" si="58"/>
         <v>0.18257667567819524</v>
       </c>
-      <c r="V42" s="9">
+      <c r="V42" s="13">
         <f t="shared" si="58"/>
         <v>8.4624177210200546E-2</v>
       </c>
-      <c r="W42" s="9">
+      <c r="W42" s="13">
         <f t="shared" si="58"/>
         <v>8.1873682680427384E-2</v>
       </c>
-      <c r="X42" s="9">
+      <c r="X42" s="13">
         <f t="shared" si="58"/>
         <v>6.8052803063383793E-2</v>
       </c>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="9"/>
-      <c r="AC42" s="9"/>
-      <c r="AD42" s="9"/>
-      <c r="AE42" s="9"/>
-      <c r="AF42" s="9"/>
-      <c r="AG42" s="9"/>
-      <c r="AH42" s="9"/>
-      <c r="AI42" s="9"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="13"/>
+      <c r="AC42" s="13"/>
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="13"/>
+      <c r="AF42" s="13"/>
+      <c r="AG42" s="13"/>
+      <c r="AH42" s="13"/>
+      <c r="AI42" s="13"/>
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
@@ -5531,100 +5533,100 @@
       <c r="AQ42" s="3"/>
       <c r="AR42" s="3"/>
     </row>
-    <row r="43" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="43" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="11">
         <f t="shared" ref="C43:J43" si="61">+C22/C19</f>
         <v>0.47088068181818182</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="11">
         <f t="shared" si="61"/>
         <v>0.45944833264717994</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="11">
         <f t="shared" si="61"/>
         <v>0.45416554327311942</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="11">
         <f t="shared" si="61"/>
         <v>0.45751308248193373</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="11">
         <f t="shared" si="61"/>
         <v>0.44953890115599426</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="11">
         <f t="shared" si="61"/>
         <v>0.45757767913760306</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="11">
         <f t="shared" si="61"/>
         <v>0.46565566458519181</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="11">
         <f t="shared" si="61"/>
         <v>0.47035620368156827</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="11">
         <f t="shared" ref="K43:L43" si="62">+K22/K19</f>
         <v>0.4769605955589783</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L43" s="11">
         <f t="shared" si="62"/>
         <v>0.46380308880308879</v>
       </c>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6">
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11">
         <f t="shared" ref="P43:S43" si="63">+P22/P19</f>
         <v>0.5242575170632725</v>
       </c>
-      <c r="Q43" s="6">
+      <c r="Q43" s="11">
         <f t="shared" si="63"/>
         <v>0.52382770734687645</v>
       </c>
-      <c r="R43" s="6">
+      <c r="R43" s="11">
         <f t="shared" si="63"/>
         <v>0.50611610898970938</v>
       </c>
-      <c r="S43" s="6">
+      <c r="S43" s="11">
         <f t="shared" si="63"/>
         <v>0.54028809363042984</v>
       </c>
-      <c r="T43" s="6">
+      <c r="T43" s="11">
         <f>+T22/T19</f>
         <v>0.54903514496131256</v>
       </c>
-      <c r="U43" s="6">
+      <c r="U43" s="11">
         <f>+U22/U19</f>
         <v>0.55165346261479642</v>
       </c>
-      <c r="V43" s="6">
+      <c r="V43" s="11">
         <f>+V22/V19</f>
         <v>0.50050875790391747</v>
       </c>
-      <c r="W43" s="6">
+      <c r="W43" s="11">
         <f>+W22/W19</f>
         <v>0.46031372812468507</v>
       </c>
-      <c r="X43" s="6">
+      <c r="X43" s="11">
         <f>+X22/X19</f>
         <v>0.46098688555524103</v>
       </c>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6"/>
-      <c r="AB43" s="6"/>
-      <c r="AC43" s="6"/>
-      <c r="AD43" s="6"/>
-      <c r="AE43" s="6"/>
-      <c r="AF43" s="6"/>
-      <c r="AG43" s="6"/>
-      <c r="AH43" s="6"/>
-      <c r="AI43" s="6"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11"/>
       <c r="AJ43" s="3"/>
       <c r="AK43" s="3"/>
       <c r="AL43" s="3"/>
@@ -5635,100 +5637,100 @@
       <c r="AQ43" s="3"/>
       <c r="AR43" s="3"/>
     </row>
-    <row r="44" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="44" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="11">
         <f t="shared" ref="C44:J44" si="64">+C28/C19</f>
         <v>0.14190340909090909</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="11">
         <f t="shared" si="64"/>
         <v>0.15548236585700562</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="11">
         <f t="shared" si="64"/>
         <v>0.15745483957940146</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="11">
         <f t="shared" si="64"/>
         <v>0.21530027410914529</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="11">
         <f t="shared" si="64"/>
         <v>0.15170801402779582</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="11">
         <f t="shared" si="64"/>
         <v>0.16804058338617628</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="11">
         <f t="shared" si="64"/>
         <v>0.17726519689053141</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="11">
         <f t="shared" si="64"/>
         <v>0.17224480038250059</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="11">
         <f t="shared" ref="K44:L44" si="65">+K28/K19</f>
         <v>0.19638043896804006</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44" s="11">
         <f t="shared" si="65"/>
         <v>0.18146718146718147</v>
       </c>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6">
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11">
         <f t="shared" ref="P44:R44" si="66">+P28/P19</f>
         <v>0.14628297362110312</v>
       </c>
-      <c r="Q44" s="6">
+      <c r="Q44" s="11">
         <f t="shared" si="66"/>
         <v>0.16244081258591722</v>
       </c>
-      <c r="R44" s="6">
+      <c r="R44" s="11">
         <f t="shared" si="66"/>
         <v>0.1419972817293379</v>
       </c>
-      <c r="S44" s="6">
+      <c r="S44" s="11">
         <f t="shared" ref="S44:X44" si="67">+S28/S19</f>
         <v>0.15299347287868556</v>
       </c>
-      <c r="T44" s="6">
+      <c r="T44" s="11">
         <f t="shared" si="67"/>
         <v>0.15330474503589075</v>
       </c>
-      <c r="U44" s="6">
+      <c r="U44" s="11">
         <f t="shared" si="67"/>
         <v>0.16798707185369122</v>
       </c>
-      <c r="V44" s="6">
+      <c r="V44" s="11">
         <f t="shared" si="67"/>
         <v>0.13943600552365723</v>
       </c>
-      <c r="W44" s="6">
+      <c r="W44" s="11">
         <f t="shared" si="67"/>
         <v>0.16888918746431092</v>
       </c>
-      <c r="X44" s="6">
+      <c r="X44" s="11">
         <f t="shared" si="67"/>
         <v>0.16746862911595434</v>
       </c>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="6"/>
-      <c r="AB44" s="6"/>
-      <c r="AC44" s="6"/>
-      <c r="AD44" s="6"/>
-      <c r="AE44" s="6"/>
-      <c r="AF44" s="6"/>
-      <c r="AG44" s="6"/>
-      <c r="AH44" s="6"/>
-      <c r="AI44" s="6"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11"/>
       <c r="AJ44" s="3"/>
       <c r="AK44" s="3"/>
       <c r="AL44" s="3"/>
@@ -5739,100 +5741,100 @@
       <c r="AQ44" s="3"/>
       <c r="AR44" s="3"/>
     </row>
-    <row r="45" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="45" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="11">
         <f t="shared" ref="C45:H45" si="68">+C31/C30</f>
         <v>0.25977653631284914</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="11">
         <f t="shared" si="68"/>
         <v>0.21028396009209516</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="11">
         <f t="shared" si="68"/>
         <v>0.17808219178082191</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="11">
         <f t="shared" si="68"/>
         <v>0.2180702732849972</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="11">
         <f t="shared" si="68"/>
         <v>0.26550868486352358</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="11">
         <f t="shared" si="68"/>
         <v>0.1937097927090779</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="11">
         <f>+I31/I30</f>
         <v>0.2295957284515637</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="11">
         <f t="shared" ref="J45:X45" si="69">+J31/J30</f>
         <v>0.20496453900709219</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="11">
         <f t="shared" ref="K45:L45" si="70">+K31/K30</f>
         <v>0.19713038053649407</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L45" s="11">
         <f t="shared" si="70"/>
         <v>0.17593198168737736</v>
       </c>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6">
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11">
         <f t="shared" ref="P45:R45" si="71">+P31/P30</f>
         <v>0.14101778050275904</v>
       </c>
-      <c r="Q45" s="6">
+      <c r="Q45" s="11">
         <f t="shared" si="71"/>
         <v>0.18409090909090908</v>
       </c>
-      <c r="R45" s="6">
+      <c r="R45" s="11">
         <f t="shared" si="71"/>
         <v>0.13425925925925927</v>
       </c>
-      <c r="S45" s="6">
+      <c r="S45" s="11">
         <f t="shared" si="69"/>
         <v>0.17978652434956638</v>
       </c>
-      <c r="T45" s="6">
+      <c r="T45" s="11">
         <f t="shared" ref="T45:U45" si="72">+T31/T30</f>
         <v>0.17038499506416585</v>
       </c>
-      <c r="U45" s="6">
+      <c r="U45" s="11">
         <f t="shared" si="72"/>
         <v>-1.7077335935594046E-2</v>
       </c>
-      <c r="V45" s="6">
+      <c r="V45" s="11">
         <f t="shared" si="69"/>
         <v>0.28134284016636957</v>
       </c>
-      <c r="W45" s="6">
+      <c r="W45" s="11">
         <f t="shared" si="69"/>
         <v>0.21530216226205878</v>
       </c>
-      <c r="X45" s="6">
+      <c r="X45" s="11">
         <f t="shared" si="69"/>
         <v>0.22180521673860012</v>
       </c>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
-      <c r="AB45" s="6"/>
-      <c r="AC45" s="6"/>
-      <c r="AD45" s="6"/>
-      <c r="AE45" s="6"/>
-      <c r="AF45" s="6"/>
-      <c r="AG45" s="6"/>
-      <c r="AH45" s="6"/>
-      <c r="AI45" s="6"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11"/>
+      <c r="AE45" s="11"/>
+      <c r="AF45" s="11"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="11"/>
       <c r="AJ45" s="3"/>
       <c r="AK45" s="3"/>
       <c r="AL45" s="3"/>
@@ -5843,43 +5845,43 @@
       <c r="AQ45" s="3"/>
       <c r="AR45" s="3"/>
     </row>
-    <row r="46" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="46" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
-      <c r="AB46" s="6"/>
-      <c r="AC46" s="6"/>
-      <c r="AD46" s="6"/>
-      <c r="AE46" s="6"/>
-      <c r="AF46" s="6"/>
-      <c r="AG46" s="6"/>
-      <c r="AH46" s="6"/>
-      <c r="AI46" s="6"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="11"/>
+      <c r="AD46" s="11"/>
+      <c r="AE46" s="11"/>
+      <c r="AF46" s="11"/>
+      <c r="AG46" s="11"/>
+      <c r="AH46" s="11"/>
+      <c r="AI46" s="11"/>
       <c r="AJ46" s="3"/>
       <c r="AK46" s="3"/>
       <c r="AL46" s="3"/>
@@ -5890,7 +5892,7 @@
       <c r="AQ46" s="3"/>
       <c r="AR46" s="3"/>
     </row>
-    <row r="47" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -5934,8 +5936,8 @@
       <c r="AQ47" s="3"/>
       <c r="AR47" s="3"/>
     </row>
-    <row r="48" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="48" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C48" s="3"/>
@@ -5997,8 +5999,8 @@
       <c r="AQ48" s="3"/>
       <c r="AR48" s="3"/>
     </row>
-    <row r="49" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="49" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C49" s="3"/>
@@ -6060,8 +6062,8 @@
       <c r="AQ49" s="3"/>
       <c r="AR49" s="3"/>
     </row>
-    <row r="50" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="50" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C50" s="3"/>
@@ -6123,8 +6125,8 @@
       <c r="AQ50" s="3"/>
       <c r="AR50" s="3"/>
     </row>
-    <row r="51" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="51" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C51" s="3"/>
@@ -6189,8 +6191,8 @@
       <c r="AQ51" s="3"/>
       <c r="AR51" s="3"/>
     </row>
-    <row r="52" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="52" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C52" s="3"/>
@@ -6252,8 +6254,8 @@
       <c r="AQ52" s="3"/>
       <c r="AR52" s="3"/>
     </row>
-    <row r="53" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="53" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C53" s="3"/>
@@ -6315,8 +6317,8 @@
       <c r="AQ53" s="3"/>
       <c r="AR53" s="3"/>
     </row>
-    <row r="54" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="54" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C54" s="3"/>
@@ -6386,8 +6388,8 @@
       <c r="AQ54" s="3"/>
       <c r="AR54" s="3"/>
     </row>
-    <row r="55" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="55" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C55" s="3"/>
@@ -6449,8 +6451,8 @@
       <c r="AQ55" s="3"/>
       <c r="AR55" s="3"/>
     </row>
-    <row r="56" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="56" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C56" s="3"/>
@@ -6512,8 +6514,8 @@
       <c r="AQ56" s="3"/>
       <c r="AR56" s="3"/>
     </row>
-    <row r="57" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="57" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C57" s="3"/>
@@ -6575,8 +6577,8 @@
       <c r="AQ57" s="3"/>
       <c r="AR57" s="3"/>
     </row>
-    <row r="58" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="58" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C58" s="3"/>
@@ -6638,8 +6640,8 @@
       <c r="AQ58" s="3"/>
       <c r="AR58" s="3"/>
     </row>
-    <row r="59" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="59" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C59" s="3"/>
@@ -6701,8 +6703,8 @@
       <c r="AQ59" s="3"/>
       <c r="AR59" s="3"/>
     </row>
-    <row r="60" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="60" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C60" s="3"/>
@@ -6772,7 +6774,7 @@
       <c r="AQ60" s="3"/>
       <c r="AR60" s="3"/>
     </row>
-    <row r="61" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>72</v>
       </c>
@@ -6843,8 +6845,8 @@
       <c r="AQ61" s="3"/>
       <c r="AR61" s="3"/>
     </row>
-    <row r="62" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="62" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C62" s="3"/>
@@ -6906,8 +6908,8 @@
       <c r="AQ62" s="3"/>
       <c r="AR62" s="3"/>
     </row>
-    <row r="63" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="63" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C63" s="3"/>
@@ -6969,8 +6971,8 @@
       <c r="AQ63" s="3"/>
       <c r="AR63" s="3"/>
     </row>
-    <row r="64" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="64" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C64" s="3"/>
@@ -7032,8 +7034,8 @@
       <c r="AQ64" s="3"/>
       <c r="AR64" s="3"/>
     </row>
-    <row r="65" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="65" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C65" s="3"/>
@@ -7101,8 +7103,8 @@
       <c r="AQ65" s="3"/>
       <c r="AR65" s="3"/>
     </row>
-    <row r="66" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="66" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C66" s="3"/>
@@ -7172,8 +7174,8 @@
       <c r="AQ66" s="3"/>
       <c r="AR66" s="3"/>
     </row>
-    <row r="67" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="67" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C67" s="3"/>
@@ -7235,8 +7237,8 @@
       <c r="AQ67" s="3"/>
       <c r="AR67" s="3"/>
     </row>
-    <row r="68" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="68" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="3"/>
@@ -7298,8 +7300,8 @@
       <c r="AQ68" s="3"/>
       <c r="AR68" s="3"/>
     </row>
-    <row r="69" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="69" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C69" s="3"/>
@@ -7369,7 +7371,7 @@
       <c r="AQ69" s="3"/>
       <c r="AR69" s="3"/>
     </row>
-    <row r="70" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>78</v>
       </c>
@@ -7440,8 +7442,8 @@
       <c r="AQ70" s="3"/>
       <c r="AR70" s="3"/>
     </row>
-    <row r="71" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="71" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C71" s="3"/>
@@ -7503,8 +7505,8 @@
       <c r="AQ71" s="3"/>
       <c r="AR71" s="3"/>
     </row>
-    <row r="72" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+    <row r="72" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C72" s="3"/>
@@ -7574,7 +7576,7 @@
       <c r="AQ72" s="3"/>
       <c r="AR72" s="3"/>
     </row>
-    <row r="73" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -7618,8 +7620,8 @@
       <c r="AQ73" s="3"/>
       <c r="AR73" s="3"/>
     </row>
-    <row r="74" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="74" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C74" s="3"/>
@@ -7692,8 +7694,8 @@
       <c r="AQ74" s="3"/>
       <c r="AR74" s="3"/>
     </row>
-    <row r="75" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+    <row r="75" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C75" s="3"/>
@@ -7757,8 +7759,8 @@
       <c r="AQ75" s="3"/>
       <c r="AR75" s="3"/>
     </row>
-    <row r="76" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+    <row r="76" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C76" s="3"/>
@@ -7822,8 +7824,8 @@
       <c r="AQ76" s="3"/>
       <c r="AR76" s="3"/>
     </row>
-    <row r="77" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+    <row r="77" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C77" s="3"/>
@@ -7887,8 +7889,8 @@
       <c r="AQ77" s="3"/>
       <c r="AR77" s="3"/>
     </row>
-    <row r="78" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+    <row r="78" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C78" s="3"/>
@@ -7952,8 +7954,8 @@
       <c r="AQ78" s="3"/>
       <c r="AR78" s="3"/>
     </row>
-    <row r="79" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+    <row r="79" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C79" s="3"/>
@@ -8018,8 +8020,8 @@
       <c r="AQ79" s="3"/>
       <c r="AR79" s="3"/>
     </row>
-    <row r="80" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="80" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C80" s="3"/>
@@ -8083,8 +8085,8 @@
       <c r="AQ80" s="3"/>
       <c r="AR80" s="3"/>
     </row>
-    <row r="81" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+    <row r="81" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C81" s="3"/>
@@ -8148,8 +8150,8 @@
       <c r="AQ81" s="3"/>
       <c r="AR81" s="3"/>
     </row>
-    <row r="82" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+    <row r="82" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C82" s="3"/>
@@ -8215,8 +8217,8 @@
       <c r="AQ82" s="3"/>
       <c r="AR82" s="3"/>
     </row>
-    <row r="83" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+    <row r="83" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C83" s="3"/>
@@ -8280,8 +8282,8 @@
       <c r="AQ83" s="3"/>
       <c r="AR83" s="3"/>
     </row>
-    <row r="84" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+    <row r="84" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C84" s="3"/>
@@ -8345,8 +8347,8 @@
       <c r="AQ84" s="3"/>
       <c r="AR84" s="3"/>
     </row>
-    <row r="85" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+    <row r="85" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C85" s="3"/>
@@ -8410,8 +8412,8 @@
       <c r="AQ85" s="3"/>
       <c r="AR85" s="3"/>
     </row>
-    <row r="86" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+    <row r="86" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C86" s="3"/>
@@ -8475,8 +8477,8 @@
       <c r="AQ86" s="3"/>
       <c r="AR86" s="3"/>
     </row>
-    <row r="87" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+    <row r="87" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C87" s="3"/>
@@ -8543,8 +8545,8 @@
       <c r="AQ87" s="3"/>
       <c r="AR87" s="3"/>
     </row>
-    <row r="88" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="88" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C88" s="3"/>
@@ -8608,8 +8610,8 @@
       <c r="AQ88" s="3"/>
       <c r="AR88" s="3"/>
     </row>
-    <row r="89" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="89" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C89" s="3"/>
@@ -8679,8 +8681,8 @@
       <c r="AQ89" s="3"/>
       <c r="AR89" s="3"/>
     </row>
-    <row r="90" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+    <row r="90" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B90" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C90" s="3"/>
@@ -8753,7 +8755,7 @@
       <c r="AQ90" s="3"/>
       <c r="AR90" s="3"/>
     </row>
-    <row r="91" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
         <v>96</v>
       </c>
@@ -8827,8 +8829,8 @@
       <c r="AQ91" s="3"/>
       <c r="AR91" s="3"/>
     </row>
-    <row r="92" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+    <row r="92" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B92" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C92" s="3"/>
@@ -8892,8 +8894,8 @@
       <c r="AQ92" s="3"/>
       <c r="AR92" s="3"/>
     </row>
-    <row r="93" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+    <row r="93" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C93" s="3"/>
@@ -8957,8 +8959,8 @@
       <c r="AQ93" s="3"/>
       <c r="AR93" s="3"/>
     </row>
-    <row r="94" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+    <row r="94" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C94" s="3"/>
@@ -9022,8 +9024,8 @@
       <c r="AQ94" s="3"/>
       <c r="AR94" s="3"/>
     </row>
-    <row r="95" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+    <row r="95" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B95" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C95" s="3"/>
@@ -9087,8 +9089,8 @@
       <c r="AQ95" s="3"/>
       <c r="AR95" s="3"/>
     </row>
-    <row r="96" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+    <row r="96" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B96" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C96" s="3"/>
@@ -9152,8 +9154,8 @@
       <c r="AQ96" s="3"/>
       <c r="AR96" s="3"/>
     </row>
-    <row r="97" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+    <row r="97" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B97" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C97" s="3"/>
@@ -9217,8 +9219,8 @@
       <c r="AQ97" s="3"/>
       <c r="AR97" s="3"/>
     </row>
-    <row r="98" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+    <row r="98" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B98" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C98" s="3"/>
@@ -9282,8 +9284,8 @@
       <c r="AQ98" s="3"/>
       <c r="AR98" s="3"/>
     </row>
-    <row r="99" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
+    <row r="99" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B99" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C99" s="3"/>
@@ -9347,8 +9349,8 @@
       <c r="AQ99" s="3"/>
       <c r="AR99" s="3"/>
     </row>
-    <row r="100" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+    <row r="100" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B100" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C100" s="3"/>
@@ -9412,8 +9414,8 @@
       <c r="AQ100" s="3"/>
       <c r="AR100" s="3"/>
     </row>
-    <row r="101" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+    <row r="101" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B101" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C101" s="3"/>
@@ -9478,7 +9480,7 @@
       <c r="AQ101" s="3"/>
       <c r="AR101" s="3"/>
     </row>
-    <row r="102" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
         <v>106</v>
       </c>
@@ -9552,8 +9554,8 @@
       <c r="AQ102" s="3"/>
       <c r="AR102" s="3"/>
     </row>
-    <row r="103" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
+    <row r="103" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B103" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C103" s="3"/>
@@ -9617,8 +9619,8 @@
       <c r="AQ103" s="3"/>
       <c r="AR103" s="3"/>
     </row>
-    <row r="104" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+    <row r="104" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B104" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C104" s="3"/>
@@ -9682,8 +9684,8 @@
       <c r="AQ104" s="3"/>
       <c r="AR104" s="3"/>
     </row>
-    <row r="105" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
+    <row r="105" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B105" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C105" s="3"/>
@@ -9748,8 +9750,8 @@
       <c r="AQ105" s="3"/>
       <c r="AR105" s="3"/>
     </row>
-    <row r="106" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
+    <row r="106" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B106" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C106" s="3"/>
@@ -9813,8 +9815,8 @@
       <c r="AQ106" s="3"/>
       <c r="AR106" s="3"/>
     </row>
-    <row r="107" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
+    <row r="107" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B107" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C107" s="3"/>
@@ -9878,8 +9880,8 @@
       <c r="AQ107" s="3"/>
       <c r="AR107" s="3"/>
     </row>
-    <row r="108" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
+    <row r="108" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B108" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C108" s="3"/>
@@ -9943,8 +9945,8 @@
       <c r="AQ108" s="3"/>
       <c r="AR108" s="3"/>
     </row>
-    <row r="109" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
+    <row r="109" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B109" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C109" s="3"/>
@@ -10008,8 +10010,8 @@
       <c r="AQ109" s="3"/>
       <c r="AR109" s="3"/>
     </row>
-    <row r="110" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
+    <row r="110" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B110" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C110" s="3"/>
@@ -10074,7 +10076,7 @@
       <c r="AQ110" s="3"/>
       <c r="AR110" s="3"/>
     </row>
-    <row r="111" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
         <v>114</v>
       </c>
@@ -10148,8 +10150,8 @@
       <c r="AQ111" s="3"/>
       <c r="AR111" s="3"/>
     </row>
-    <row r="112" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
+    <row r="112" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B112" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C112" s="3"/>
@@ -10213,7 +10215,7 @@
       <c r="AQ112" s="3"/>
       <c r="AR112" s="3"/>
     </row>
-    <row r="113" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
         <v>116</v>
       </c>
@@ -10287,8 +10289,8 @@
       <c r="AQ113" s="3"/>
       <c r="AR113" s="3"/>
     </row>
-    <row r="114" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
+    <row r="114" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B114" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C114" s="3"/>
@@ -10360,7 +10362,7 @@
       <c r="AQ114" s="3"/>
       <c r="AR114" s="3"/>
     </row>
-    <row r="115" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
         <v>118</v>
       </c>
@@ -10434,7 +10436,7 @@
       <c r="AQ115" s="3"/>
       <c r="AR115" s="3"/>
     </row>
-    <row r="116" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -10478,7 +10480,7 @@
       <c r="AQ116" s="3"/>
       <c r="AR116" s="3"/>
     </row>
-    <row r="117" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -10522,7 +10524,7 @@
       <c r="AQ117" s="3"/>
       <c r="AR117" s="3"/>
     </row>
-    <row r="118" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -10566,7 +10568,7 @@
       <c r="AQ118" s="3"/>
       <c r="AR118" s="3"/>
     </row>
-    <row r="119" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -10610,7 +10612,7 @@
       <c r="AQ119" s="3"/>
       <c r="AR119" s="3"/>
     </row>
-    <row r="120" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -10654,7 +10656,7 @@
       <c r="AQ120" s="3"/>
       <c r="AR120" s="3"/>
     </row>
-    <row r="121" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -10698,7 +10700,7 @@
       <c r="AQ121" s="3"/>
       <c r="AR121" s="3"/>
     </row>
-    <row r="122" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -10742,7 +10744,7 @@
       <c r="AQ122" s="3"/>
       <c r="AR122" s="3"/>
     </row>
-    <row r="123" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -10786,7 +10788,7 @@
       <c r="AQ123" s="3"/>
       <c r="AR123" s="3"/>
     </row>
-    <row r="124" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -10830,7 +10832,7 @@
       <c r="AQ124" s="3"/>
       <c r="AR124" s="3"/>
     </row>
-    <row r="125" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -10874,7 +10876,7 @@
       <c r="AQ125" s="3"/>
       <c r="AR125" s="3"/>
     </row>
-    <row r="126" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -10918,7 +10920,7 @@
       <c r="AQ126" s="3"/>
       <c r="AR126" s="3"/>
     </row>
-    <row r="127" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -10962,7 +10964,7 @@
       <c r="AQ127" s="3"/>
       <c r="AR127" s="3"/>
     </row>
-    <row r="128" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:44" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -11006,7 +11008,7 @@
       <c r="AQ128" s="3"/>
       <c r="AR128" s="3"/>
     </row>
-    <row r="129" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -11050,7 +11052,7 @@
       <c r="AQ129" s="3"/>
       <c r="AR129" s="3"/>
     </row>
-    <row r="130" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -11094,7 +11096,7 @@
       <c r="AQ130" s="3"/>
       <c r="AR130" s="3"/>
     </row>
-    <row r="131" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -11138,7 +11140,7 @@
       <c r="AQ131" s="3"/>
       <c r="AR131" s="3"/>
     </row>
-    <row r="132" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -11182,7 +11184,7 @@
       <c r="AQ132" s="3"/>
       <c r="AR132" s="3"/>
     </row>
-    <row r="133" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -11226,7 +11228,7 @@
       <c r="AQ133" s="3"/>
       <c r="AR133" s="3"/>
     </row>
-    <row r="134" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -11270,7 +11272,7 @@
       <c r="AQ134" s="3"/>
       <c r="AR134" s="3"/>
     </row>
-    <row r="135" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -11314,7 +11316,7 @@
       <c r="AQ135" s="3"/>
       <c r="AR135" s="3"/>
     </row>
-    <row r="136" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -11358,7 +11360,7 @@
       <c r="AQ136" s="3"/>
       <c r="AR136" s="3"/>
     </row>
-    <row r="137" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -11402,7 +11404,7 @@
       <c r="AQ137" s="3"/>
       <c r="AR137" s="3"/>
     </row>
-    <row r="138" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -11446,7 +11448,7 @@
       <c r="AQ138" s="3"/>
       <c r="AR138" s="3"/>
     </row>
-    <row r="139" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -11490,7 +11492,7 @@
       <c r="AQ139" s="3"/>
       <c r="AR139" s="3"/>
     </row>
-    <row r="140" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -11534,7 +11536,7 @@
       <c r="AQ140" s="3"/>
       <c r="AR140" s="3"/>
     </row>
-    <row r="141" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -11578,7 +11580,7 @@
       <c r="AQ141" s="3"/>
       <c r="AR141" s="3"/>
     </row>
-    <row r="142" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -11622,7 +11624,7 @@
       <c r="AQ142" s="3"/>
       <c r="AR142" s="3"/>
     </row>
-    <row r="143" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -11666,7 +11668,7 @@
       <c r="AQ143" s="3"/>
       <c r="AR143" s="3"/>
     </row>
-    <row r="144" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -11710,7 +11712,7 @@
       <c r="AQ144" s="3"/>
       <c r="AR144" s="3"/>
     </row>
-    <row r="145" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -11754,7 +11756,7 @@
       <c r="AQ145" s="3"/>
       <c r="AR145" s="3"/>
     </row>
-    <row r="146" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -11798,7 +11800,7 @@
       <c r="AQ146" s="3"/>
       <c r="AR146" s="3"/>
     </row>
-    <row r="147" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -11842,7 +11844,7 @@
       <c r="AQ147" s="3"/>
       <c r="AR147" s="3"/>
     </row>
-    <row r="148" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -11886,7 +11888,7 @@
       <c r="AQ148" s="3"/>
       <c r="AR148" s="3"/>
     </row>
-    <row r="149" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -11930,7 +11932,7 @@
       <c r="AQ149" s="3"/>
       <c r="AR149" s="3"/>
     </row>
-    <row r="150" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -11974,7 +11976,7 @@
       <c r="AQ150" s="3"/>
       <c r="AR150" s="3"/>
     </row>
-    <row r="151" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -12018,7 +12020,7 @@
       <c r="AQ151" s="3"/>
       <c r="AR151" s="3"/>
     </row>
-    <row r="152" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -12062,7 +12064,7 @@
       <c r="AQ152" s="3"/>
       <c r="AR152" s="3"/>
     </row>
-    <row r="153" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -12106,7 +12108,7 @@
       <c r="AQ153" s="3"/>
       <c r="AR153" s="3"/>
     </row>
-    <row r="154" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -12150,7 +12152,7 @@
       <c r="AQ154" s="3"/>
       <c r="AR154" s="3"/>
     </row>
-    <row r="155" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -12194,7 +12196,7 @@
       <c r="AQ155" s="3"/>
       <c r="AR155" s="3"/>
     </row>
-    <row r="156" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -12238,7 +12240,7 @@
       <c r="AQ156" s="3"/>
       <c r="AR156" s="3"/>
     </row>
-    <row r="157" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -12282,7 +12284,7 @@
       <c r="AQ157" s="3"/>
       <c r="AR157" s="3"/>
     </row>
-    <row r="158" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -12326,7 +12328,7 @@
       <c r="AQ158" s="3"/>
       <c r="AR158" s="3"/>
     </row>
-    <row r="159" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -12370,7 +12372,7 @@
       <c r="AQ159" s="3"/>
       <c r="AR159" s="3"/>
     </row>
-    <row r="160" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -12414,7 +12416,7 @@
       <c r="AQ160" s="3"/>
       <c r="AR160" s="3"/>
     </row>
-    <row r="161" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -12458,7 +12460,7 @@
       <c r="AQ161" s="3"/>
       <c r="AR161" s="3"/>
     </row>
-    <row r="162" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -12502,7 +12504,7 @@
       <c r="AQ162" s="3"/>
       <c r="AR162" s="3"/>
     </row>
-    <row r="163" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -12546,7 +12548,7 @@
       <c r="AQ163" s="3"/>
       <c r="AR163" s="3"/>
     </row>
-    <row r="164" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -12590,7 +12592,7 @@
       <c r="AQ164" s="3"/>
       <c r="AR164" s="3"/>
     </row>
-    <row r="165" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -12634,7 +12636,7 @@
       <c r="AQ165" s="3"/>
       <c r="AR165" s="3"/>
     </row>
-    <row r="166" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -12678,7 +12680,7 @@
       <c r="AQ166" s="3"/>
       <c r="AR166" s="3"/>
     </row>
-    <row r="167" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -12722,7 +12724,7 @@
       <c r="AQ167" s="3"/>
       <c r="AR167" s="3"/>
     </row>
-    <row r="168" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -12766,7 +12768,7 @@
       <c r="AQ168" s="3"/>
       <c r="AR168" s="3"/>
     </row>
-    <row r="169" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -12810,7 +12812,7 @@
       <c r="AQ169" s="3"/>
       <c r="AR169" s="3"/>
     </row>
-    <row r="170" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -12854,7 +12856,7 @@
       <c r="AQ170" s="3"/>
       <c r="AR170" s="3"/>
     </row>
-    <row r="171" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -12898,7 +12900,7 @@
       <c r="AQ171" s="3"/>
       <c r="AR171" s="3"/>
     </row>
-    <row r="172" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -12942,7 +12944,7 @@
       <c r="AQ172" s="3"/>
       <c r="AR172" s="3"/>
     </row>
-    <row r="173" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -12986,7 +12988,7 @@
       <c r="AQ173" s="3"/>
       <c r="AR173" s="3"/>
     </row>
-    <row r="174" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -13030,7 +13032,7 @@
       <c r="AQ174" s="3"/>
       <c r="AR174" s="3"/>
     </row>
-    <row r="175" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -13074,7 +13076,7 @@
       <c r="AQ175" s="3"/>
       <c r="AR175" s="3"/>
     </row>
-    <row r="176" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -13118,7 +13120,7 @@
       <c r="AQ176" s="3"/>
       <c r="AR176" s="3"/>
     </row>
-    <row r="177" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -13162,7 +13164,7 @@
       <c r="AQ177" s="3"/>
       <c r="AR177" s="3"/>
     </row>
-    <row r="178" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -13206,7 +13208,7 @@
       <c r="AQ178" s="3"/>
       <c r="AR178" s="3"/>
     </row>
-    <row r="179" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -13250,7 +13252,7 @@
       <c r="AQ179" s="3"/>
       <c r="AR179" s="3"/>
     </row>
-    <row r="180" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -13294,7 +13296,7 @@
       <c r="AQ180" s="3"/>
       <c r="AR180" s="3"/>
     </row>
-    <row r="181" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -13338,7 +13340,7 @@
       <c r="AQ181" s="3"/>
       <c r="AR181" s="3"/>
     </row>
-    <row r="182" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -13382,7 +13384,7 @@
       <c r="AQ182" s="3"/>
       <c r="AR182" s="3"/>
     </row>
-    <row r="183" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -13426,7 +13428,7 @@
       <c r="AQ183" s="3"/>
       <c r="AR183" s="3"/>
     </row>
-    <row r="184" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -13470,7 +13472,7 @@
       <c r="AQ184" s="3"/>
       <c r="AR184" s="3"/>
     </row>
-    <row r="185" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -13514,7 +13516,7 @@
       <c r="AQ185" s="3"/>
       <c r="AR185" s="3"/>
     </row>
-    <row r="186" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -13558,7 +13560,7 @@
       <c r="AQ186" s="3"/>
       <c r="AR186" s="3"/>
     </row>
-    <row r="187" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -13602,7 +13604,7 @@
       <c r="AQ187" s="3"/>
       <c r="AR187" s="3"/>
     </row>
-    <row r="188" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -13646,7 +13648,7 @@
       <c r="AQ188" s="3"/>
       <c r="AR188" s="3"/>
     </row>
-    <row r="189" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -13690,7 +13692,7 @@
       <c r="AQ189" s="3"/>
       <c r="AR189" s="3"/>
     </row>
-    <row r="190" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -13734,7 +13736,7 @@
       <c r="AQ190" s="3"/>
       <c r="AR190" s="3"/>
     </row>
-    <row r="191" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -13778,7 +13780,7 @@
       <c r="AQ191" s="3"/>
       <c r="AR191" s="3"/>
     </row>
-    <row r="192" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -13822,7 +13824,7 @@
       <c r="AQ192" s="3"/>
       <c r="AR192" s="3"/>
     </row>
-    <row r="193" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -13866,7 +13868,7 @@
       <c r="AQ193" s="3"/>
       <c r="AR193" s="3"/>
     </row>
-    <row r="194" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -13910,7 +13912,7 @@
       <c r="AQ194" s="3"/>
       <c r="AR194" s="3"/>
     </row>
-    <row r="195" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -13954,7 +13956,7 @@
       <c r="AQ195" s="3"/>
       <c r="AR195" s="3"/>
     </row>
-    <row r="196" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -13998,7 +14000,7 @@
       <c r="AQ196" s="3"/>
       <c r="AR196" s="3"/>
     </row>
-    <row r="197" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -14042,7 +14044,7 @@
       <c r="AQ197" s="3"/>
       <c r="AR197" s="3"/>
     </row>
-    <row r="198" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -14086,7 +14088,7 @@
       <c r="AQ198" s="3"/>
       <c r="AR198" s="3"/>
     </row>
-    <row r="199" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -14130,7 +14132,7 @@
       <c r="AQ199" s="3"/>
       <c r="AR199" s="3"/>
     </row>
-    <row r="200" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -14174,7 +14176,7 @@
       <c r="AQ200" s="3"/>
       <c r="AR200" s="3"/>
     </row>
-    <row r="201" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -14218,7 +14220,7 @@
       <c r="AQ201" s="3"/>
       <c r="AR201" s="3"/>
     </row>
-    <row r="202" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -14262,7 +14264,7 @@
       <c r="AQ202" s="3"/>
       <c r="AR202" s="3"/>
     </row>
-    <row r="203" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -14306,7 +14308,7 @@
       <c r="AQ203" s="3"/>
       <c r="AR203" s="3"/>
     </row>
-    <row r="204" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -14350,7 +14352,7 @@
       <c r="AQ204" s="3"/>
       <c r="AR204" s="3"/>
     </row>
-    <row r="205" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -14394,7 +14396,7 @@
       <c r="AQ205" s="3"/>
       <c r="AR205" s="3"/>
     </row>
-    <row r="206" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -14438,7 +14440,7 @@
       <c r="AQ206" s="3"/>
       <c r="AR206" s="3"/>
     </row>
-    <row r="207" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -14482,7 +14484,7 @@
       <c r="AQ207" s="3"/>
       <c r="AR207" s="3"/>
     </row>
-    <row r="208" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -14526,7 +14528,7 @@
       <c r="AQ208" s="3"/>
       <c r="AR208" s="3"/>
     </row>
-    <row r="209" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -14570,7 +14572,7 @@
       <c r="AQ209" s="3"/>
       <c r="AR209" s="3"/>
     </row>
-    <row r="210" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -14614,7 +14616,7 @@
       <c r="AQ210" s="3"/>
       <c r="AR210" s="3"/>
     </row>
-    <row r="211" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -14658,7 +14660,7 @@
       <c r="AQ211" s="3"/>
       <c r="AR211" s="3"/>
     </row>
-    <row r="212" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -14702,7 +14704,7 @@
       <c r="AQ212" s="3"/>
       <c r="AR212" s="3"/>
     </row>
-    <row r="213" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -14746,7 +14748,7 @@
       <c r="AQ213" s="3"/>
       <c r="AR213" s="3"/>
     </row>
-    <row r="214" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -14790,7 +14792,7 @@
       <c r="AQ214" s="3"/>
       <c r="AR214" s="3"/>
     </row>
-    <row r="215" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -14834,7 +14836,7 @@
       <c r="AQ215" s="3"/>
       <c r="AR215" s="3"/>
     </row>
-    <row r="216" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -14878,7 +14880,7 @@
       <c r="AQ216" s="3"/>
       <c r="AR216" s="3"/>
     </row>
-    <row r="217" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -14922,7 +14924,7 @@
       <c r="AQ217" s="3"/>
       <c r="AR217" s="3"/>
     </row>
-    <row r="218" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -14966,7 +14968,7 @@
       <c r="AQ218" s="3"/>
       <c r="AR218" s="3"/>
     </row>
-    <row r="219" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -15010,7 +15012,7 @@
       <c r="AQ219" s="3"/>
       <c r="AR219" s="3"/>
     </row>
-    <row r="220" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -15054,7 +15056,7 @@
       <c r="AQ220" s="3"/>
       <c r="AR220" s="3"/>
     </row>
-    <row r="221" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -15098,7 +15100,7 @@
       <c r="AQ221" s="3"/>
       <c r="AR221" s="3"/>
     </row>
-    <row r="222" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -15142,7 +15144,7 @@
       <c r="AQ222" s="3"/>
       <c r="AR222" s="3"/>
     </row>
-    <row r="223" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -15186,7 +15188,7 @@
       <c r="AQ223" s="3"/>
       <c r="AR223" s="3"/>
     </row>
-    <row r="224" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -15230,7 +15232,7 @@
       <c r="AQ224" s="3"/>
       <c r="AR224" s="3"/>
     </row>
-    <row r="225" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -15274,7 +15276,7 @@
       <c r="AQ225" s="3"/>
       <c r="AR225" s="3"/>
     </row>
-    <row r="226" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -15318,7 +15320,7 @@
       <c r="AQ226" s="3"/>
       <c r="AR226" s="3"/>
     </row>
-    <row r="227" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -15362,7 +15364,7 @@
       <c r="AQ227" s="3"/>
       <c r="AR227" s="3"/>
     </row>
-    <row r="228" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -15406,7 +15408,7 @@
       <c r="AQ228" s="3"/>
       <c r="AR228" s="3"/>
     </row>
-    <row r="229" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -15450,7 +15452,7 @@
       <c r="AQ229" s="3"/>
       <c r="AR229" s="3"/>
     </row>
-    <row r="230" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -15494,7 +15496,7 @@
       <c r="AQ230" s="3"/>
       <c r="AR230" s="3"/>
     </row>
-    <row r="231" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -15538,7 +15540,7 @@
       <c r="AQ231" s="3"/>
       <c r="AR231" s="3"/>
     </row>
-    <row r="232" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -15582,7 +15584,7 @@
       <c r="AQ232" s="3"/>
       <c r="AR232" s="3"/>
     </row>
-    <row r="233" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -15626,7 +15628,7 @@
       <c r="AQ233" s="3"/>
       <c r="AR233" s="3"/>
     </row>
-    <row r="234" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -15670,7 +15672,7 @@
       <c r="AQ234" s="3"/>
       <c r="AR234" s="3"/>
     </row>
-    <row r="235" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -15714,7 +15716,7 @@
       <c r="AQ235" s="3"/>
       <c r="AR235" s="3"/>
     </row>
-    <row r="236" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:44" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -15771,620 +15773,621 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C2" s="66">
+      <c r="C2" s="15">
         <v>18</v>
       </c>
-      <c r="D2" s="66">
+      <c r="D2" s="15">
         <f>+C2+1</f>
         <v>19</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="15">
         <f t="shared" ref="E2:J2" si="0">+D2+1</f>
         <v>20</v>
       </c>
-      <c r="F2" s="66">
+      <c r="F2" s="15">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="G2" s="66">
+      <c r="G2" s="15">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H2" s="66">
+      <c r="H2" s="15">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I2" s="66">
+      <c r="I2" s="15">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="J2" s="66">
+      <c r="J2" s="15">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="K2" s="67"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="L10" s="48" t="s">
+      <c r="L10" s="20" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="L11" s="48" t="s">
+      <c r="L11" s="20" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="48"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="L13" s="48" t="s">
+      <c r="L13" s="20" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="L15" s="48" t="s">
+      <c r="L15" s="20" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="L16" s="48" t="s">
+      <c r="L16" s="20" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="L17" s="48" t="s">
+      <c r="L17" s="20" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="L18" s="48" t="s">
+      <c r="L18" s="20" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="L21" s="48" t="s">
+      <c r="L21" s="20" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="L22" s="48" t="s">
+      <c r="L22" s="20" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="L23" s="48" t="s">
+      <c r="L23" s="20" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="L24" s="48" t="s">
+      <c r="L24" s="20" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="L25" s="48" t="s">
+      <c r="L25" s="20" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="L26" s="48" t="s">
+      <c r="L26" s="20" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="L28" s="48" t="s">
+      <c r="L28" s="20" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="L29" s="48" t="s">
+      <c r="L29" s="20" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="L30" s="48" t="s">
+      <c r="L30" s="20" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="L31" s="48" t="s">
+      <c r="L31" s="20" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="61" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="19" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="L34" s="48" t="s">
+      <c r="L34" s="20" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="L35" s="48" t="s">
+      <c r="L35" s="20" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="L36" s="48" t="s">
+      <c r="L36" s="20" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="L37" s="48" t="s">
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="L37" s="20" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>281</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="69"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="L38" s="48" t="s">
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="L38" s="20" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="61" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="19" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="70"/>
-      <c r="L41" s="48" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="L41" s="20" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="L42" s="48" t="s">
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="L42" s="20" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="L43" s="48" t="s">
+      <c r="L43" s="20" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="L44" s="48" t="s">
+      <c r="L44" s="20" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="L45" s="48" t="s">
+      <c r="L45" s="20" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="L46" s="48" t="s">
+      <c r="L46" s="20" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="61" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="19" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="62" t="s">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B49" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="L50" s="48" t="s">
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="L50" s="20" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="L51" s="48" t="s">
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="L51" s="20" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="L52" s="48" t="s">
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="L52" s="20" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="L53" s="48" t="s">
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="L53" s="20" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="I54" s="70"/>
-      <c r="J54" s="70"/>
-      <c r="L54" s="48" t="s">
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="L54" s="20" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
-      <c r="L55" s="48" t="s">
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="L55" s="20" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="62" t="s">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B56" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
-      <c r="L57" s="48" t="s">
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="L57" s="20" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="70"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="70"/>
-      <c r="L58" s="48" t="s">
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="L58" s="20" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="70"/>
-      <c r="L59" s="48" t="s">
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="L59" s="20" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="70"/>
-      <c r="L60" s="48" t="s">
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="L60" s="20" t="s">
         <v>318</v>
       </c>
     </row>
@@ -16402,274 +16405,275 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="19" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="62" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="20" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="20" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <f>F6+F7</f>
         <v>0</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="20" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="20" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="H13" s="20" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="H14" s="20" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="20" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="61" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H18" s="48" t="s">
+      <c r="H18" s="20" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <f>F18-F19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="64">
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28">
         <f>F8+F15*F20</f>
         <v>0</v>
       </c>
-      <c r="H22" s="48" t="s">
+      <c r="H22" s="20" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="61" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="19" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H26" s="48" t="s">
+      <c r="H26" s="20" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="61" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="64">
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28">
         <f>F28+F29+F30</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="19" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <f>F35+F36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="61" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="64" t="e">
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="28" t="e">
         <f>(F32*(F35/F37)*(1-F39))+((F36/F38)*F22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="48" t="s">
+      <c r="H41" s="20" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I47" t="e">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I47" s="2" t="e">
         <f>SLOPE(H48:H52,K48:K52)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H48" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H48" s="2" t="s">
         <v>228</v>
       </c>
     </row>
@@ -16686,2425 +16690,2426 @@
   <dimension ref="A1:AA76"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="33">
         <f>+Main!I2</f>
         <v>76.400000000000006</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="33">
         <f>+J3</f>
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="34">
         <f ca="1">+TODAY()</f>
-        <v>45873</v>
-      </c>
-      <c r="G4" t="s">
+        <v>45902</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="35">
         <f ca="1">V62</f>
-        <v>84.476376027541818</v>
-      </c>
-      <c r="L4" t="s">
+        <v>84.728035414071073</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="36">
         <f>+J15+O15+T15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="34">
         <v>46022</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="37">
         <f ca="1">J4/J3-1</f>
-        <v>0.10571172810918594</v>
-      </c>
-      <c r="L5" t="s">
+        <v>0.10900569913705582</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="37">
         <f>O4/O3-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="23" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="38"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="38"/>
+      <c r="B9" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="G9" s="23" t="s">
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="G9" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="L9" s="23" t="s">
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="L9" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="Q9" s="23" t="s">
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="Q9" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="10" t="s">
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="38"/>
+      <c r="B10" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10" t="s">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="Q10" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="S10" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="T10" s="10" t="s">
+      <c r="T10" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="41">
         <v>2</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>160</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" t="s">
+      <c r="L11" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="41">
         <v>2</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="41">
         <v>2</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="T13" s="25"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="J13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="T13" s="42"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="41">
         <v>2</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="L14" t="s">
+      <c r="J14" s="42"/>
+      <c r="L14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="O14" s="25"/>
-      <c r="Q14" t="s">
+      <c r="O14" s="42"/>
+      <c r="Q14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="T14" s="25"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="T14" s="42"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="41">
         <v>2</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="L15" t="s">
+      <c r="J15" s="42"/>
+      <c r="L15" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="O15" s="25"/>
-      <c r="Q15" t="s">
+      <c r="O15" s="42"/>
+      <c r="Q15" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="T15" s="25"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="T15" s="42"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="42">
         <f>CHOOSE(E13,J18,O18,T18)</f>
         <v>0.09</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="42">
         <v>0.11</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O18" s="25">
+      <c r="O18" s="42">
         <v>0.09</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="T18" s="25">
+      <c r="T18" s="42">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="42">
         <f>CHOOSE(E14,J19,O19,T19)</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="42">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="O19" s="25">
+      <c r="O19" s="42">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="T19" s="25">
+      <c r="T19" s="42">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="42">
         <f>CHOOSE(E15,J20,O20,T20)</f>
         <v>0.1</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="42">
         <v>0.09</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="O20" s="25">
+      <c r="O20" s="42">
         <v>0.1</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="T20" s="25">
+      <c r="T20" s="42">
         <v>0.11</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="26">
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="43">
         <v>19</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="43">
         <f>G24+1</f>
         <v>20</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="43">
         <f t="shared" ref="I24:V24" si="0">H24+1</f>
         <v>21</v>
       </c>
-      <c r="J24" s="26">
+      <c r="J24" s="43">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="K24" s="26">
+      <c r="K24" s="43">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="L24" s="26">
+      <c r="L24" s="43">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M24" s="43">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="N24" s="26">
+      <c r="N24" s="43">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="O24" s="26">
+      <c r="O24" s="43">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="P24" s="26">
+      <c r="P24" s="43">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="Q24" s="26">
+      <c r="Q24" s="43">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="R24" s="26">
+      <c r="R24" s="43">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="S24" s="26">
+      <c r="S24" s="43">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="T24" s="26">
+      <c r="T24" s="43">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="U24" s="26">
+      <c r="U24" s="43">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="V24" s="26">
+      <c r="V24" s="43">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="17">
         <f>+Model!S19</f>
         <v>17772</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="17">
         <f>+Model!T19</f>
         <v>21454</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="17">
         <f>+Model!U19</f>
         <v>25371</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="17">
         <f>+Model!V19</f>
         <v>27518</v>
       </c>
-      <c r="K25" s="27">
+      <c r="K25" s="17">
         <f>+Model!W19</f>
         <v>29771</v>
       </c>
-      <c r="L25" s="27">
+      <c r="L25" s="17">
         <f>+Model!X19</f>
         <v>31797</v>
       </c>
-      <c r="M25" s="27">
+      <c r="M25" s="17">
         <f ca="1">L25*(1+M26)</f>
         <v>34022.79</v>
       </c>
-      <c r="N25" s="27">
+      <c r="N25" s="17">
         <f t="shared" ref="N25:V25" ca="1" si="1">M25*(1+N26)</f>
         <v>36285.305535</v>
       </c>
-      <c r="O25" s="27">
+      <c r="O25" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>38577.629712173621</v>
       </c>
-      <c r="P25" s="27">
+      <c r="P25" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>40892.914381386858</v>
       </c>
-      <c r="Q25" s="27">
+      <c r="Q25" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>43224.441785491676</v>
       </c>
-      <c r="R25" s="27">
+      <c r="R25" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>45565.679221630104</v>
       </c>
-      <c r="S25" s="27">
+      <c r="S25" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>47910.326511694933</v>
       </c>
-      <c r="T25" s="27">
+      <c r="T25" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>50252.35626267513</v>
       </c>
-      <c r="U25" s="27">
+      <c r="U25" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>52586.047053230424</v>
       </c>
-      <c r="V25" s="27">
+      <c r="V25" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>54906.00981128386</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="28" t="s">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B26" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31">
+      <c r="C26" s="45"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="47">
         <f t="shared" ref="H26:L26" si="2">H25/G25-1</f>
         <v>0.20717983344586988</v>
       </c>
-      <c r="I26" s="31">
+      <c r="I26" s="47">
         <f t="shared" si="2"/>
         <v>0.18257667567819524</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="47">
         <f t="shared" si="2"/>
         <v>8.4624177210200546E-2</v>
       </c>
-      <c r="K26" s="31">
+      <c r="K26" s="47">
         <f t="shared" si="2"/>
         <v>8.1873682680427384E-2</v>
       </c>
-      <c r="L26" s="31">
+      <c r="L26" s="47">
         <f t="shared" si="2"/>
         <v>6.8052803063383793E-2</v>
       </c>
-      <c r="M26" s="31" cm="1">
+      <c r="M26" s="47" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">OFFSET(M26,$E$11,,)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N26" s="31" cm="1">
+      <c r="N26" s="47" cm="1">
         <f t="array" aca="1" ref="N26" ca="1">OFFSET(N26,$E$11,,)</f>
         <v>6.6500000000000004E-2</v>
       </c>
-      <c r="O26" s="31" cm="1">
+      <c r="O26" s="47" cm="1">
         <f t="array" aca="1" ref="O26" ca="1">OFFSET(O26,$E$11,,)</f>
         <v>6.3174999999999995E-2</v>
       </c>
-      <c r="P26" s="31" cm="1">
+      <c r="P26" s="47" cm="1">
         <f t="array" aca="1" ref="P26" ca="1">OFFSET(P26,$E$11,,)</f>
         <v>6.0016249999999993E-2</v>
       </c>
-      <c r="Q26" s="31" cm="1">
+      <c r="Q26" s="47" cm="1">
         <f t="array" aca="1" ref="Q26" ca="1">OFFSET(Q26,$E$11,,)</f>
         <v>5.7015437499999988E-2</v>
       </c>
-      <c r="R26" s="31" cm="1">
+      <c r="R26" s="47" cm="1">
         <f t="array" aca="1" ref="R26" ca="1">OFFSET(R26,$E$11,,)</f>
         <v>5.4164665624999983E-2</v>
       </c>
-      <c r="S26" s="31" cm="1">
+      <c r="S26" s="47" cm="1">
         <f t="array" aca="1" ref="S26" ca="1">OFFSET(S26,$E$11,,)</f>
         <v>5.1456432343749983E-2</v>
       </c>
-      <c r="T26" s="31" cm="1">
+      <c r="T26" s="47" cm="1">
         <f t="array" aca="1" ref="T26" ca="1">OFFSET(T26,$E$11,,)</f>
         <v>4.8883610726562485E-2</v>
       </c>
-      <c r="U26" s="31" cm="1">
+      <c r="U26" s="47" cm="1">
         <f t="array" aca="1" ref="U26" ca="1">OFFSET(U26,$E$11,,)</f>
         <v>4.643943019023436E-2</v>
       </c>
-      <c r="V26" s="31" cm="1">
+      <c r="V26" s="47" cm="1">
         <f t="array" aca="1" ref="V26" ca="1">OFFSET(V26,$E$11,,)</f>
         <v>4.4117458680722643E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B27" s="28" t="s">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B27" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="32">
+      <c r="C27" s="45"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="48">
         <f>+M28-2%</f>
         <v>0.05</v>
       </c>
-      <c r="N27" s="32">
+      <c r="N27" s="48">
         <f t="shared" ref="N27:V27" si="3">+N28-2%</f>
         <v>4.65E-2</v>
       </c>
-      <c r="O27" s="32">
+      <c r="O27" s="48">
         <f t="shared" si="3"/>
         <v>4.3174999999999991E-2</v>
       </c>
-      <c r="P27" s="32">
+      <c r="P27" s="48">
         <f t="shared" si="3"/>
         <v>4.0016249999999989E-2</v>
       </c>
-      <c r="Q27" s="32">
+      <c r="Q27" s="48">
         <f t="shared" si="3"/>
         <v>3.7015437499999984E-2</v>
       </c>
-      <c r="R27" s="32">
+      <c r="R27" s="48">
         <f t="shared" si="3"/>
         <v>3.4164665624999979E-2</v>
       </c>
-      <c r="S27" s="32">
+      <c r="S27" s="48">
         <f t="shared" si="3"/>
         <v>3.1456432343749979E-2</v>
       </c>
-      <c r="T27" s="32">
+      <c r="T27" s="48">
         <f t="shared" si="3"/>
         <v>2.8883610726562484E-2</v>
       </c>
-      <c r="U27" s="32">
+      <c r="U27" s="48">
         <f t="shared" si="3"/>
         <v>2.6439430190234359E-2</v>
       </c>
-      <c r="V27" s="32">
+      <c r="V27" s="48">
         <f t="shared" si="3"/>
         <v>2.4117458680722643E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="28" t="s">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B28" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="32">
+      <c r="C28" s="45"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="48">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N28" s="32">
+      <c r="N28" s="48">
         <f>+M28*(1-5%)</f>
         <v>6.6500000000000004E-2</v>
       </c>
-      <c r="O28" s="32">
+      <c r="O28" s="48">
         <f t="shared" ref="O28:V28" si="4">+N28*(1-5%)</f>
         <v>6.3174999999999995E-2</v>
       </c>
-      <c r="P28" s="32">
+      <c r="P28" s="48">
         <f t="shared" si="4"/>
         <v>6.0016249999999993E-2</v>
       </c>
-      <c r="Q28" s="32">
+      <c r="Q28" s="48">
         <f t="shared" si="4"/>
         <v>5.7015437499999988E-2</v>
       </c>
-      <c r="R28" s="32">
+      <c r="R28" s="48">
         <f t="shared" si="4"/>
         <v>5.4164665624999983E-2</v>
       </c>
-      <c r="S28" s="32">
+      <c r="S28" s="48">
         <f t="shared" si="4"/>
         <v>5.1456432343749983E-2</v>
       </c>
-      <c r="T28" s="32">
+      <c r="T28" s="48">
         <f t="shared" si="4"/>
         <v>4.8883610726562485E-2</v>
       </c>
-      <c r="U28" s="32">
+      <c r="U28" s="48">
         <f t="shared" si="4"/>
         <v>4.643943019023436E-2</v>
       </c>
-      <c r="V28" s="32">
+      <c r="V28" s="48">
         <f t="shared" si="4"/>
         <v>4.4117458680722643E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="28" t="s">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B29" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="32">
+      <c r="C29" s="45"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="48">
         <f>+M28+2%</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="N29" s="32">
+      <c r="N29" s="48">
         <f t="shared" ref="N29:V29" si="5">+N28+2%</f>
         <v>8.6500000000000007E-2</v>
       </c>
-      <c r="O29" s="32">
+      <c r="O29" s="48">
         <f t="shared" si="5"/>
         <v>8.3174999999999999E-2</v>
       </c>
-      <c r="P29" s="32">
+      <c r="P29" s="48">
         <f t="shared" si="5"/>
         <v>8.0016249999999997E-2</v>
       </c>
-      <c r="Q29" s="32">
+      <c r="Q29" s="48">
         <f t="shared" si="5"/>
         <v>7.7015437499999992E-2</v>
       </c>
-      <c r="R29" s="32">
+      <c r="R29" s="48">
         <f t="shared" si="5"/>
         <v>7.4164665624999987E-2</v>
       </c>
-      <c r="S29" s="32">
+      <c r="S29" s="48">
         <f t="shared" si="5"/>
         <v>7.1456432343749987E-2</v>
       </c>
-      <c r="T29" s="32">
+      <c r="T29" s="48">
         <f t="shared" si="5"/>
         <v>6.8883610726562489E-2</v>
       </c>
-      <c r="U29" s="32">
+      <c r="U29" s="48">
         <f t="shared" si="5"/>
         <v>6.6439430190234364E-2</v>
       </c>
-      <c r="V29" s="32">
+      <c r="V29" s="48">
         <f t="shared" si="5"/>
         <v>6.4117458680722647E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="17">
         <f>+Model!S28</f>
         <v>2719</v>
       </c>
-      <c r="H31" s="27">
+      <c r="H31" s="17">
         <f>+Model!T28</f>
         <v>3289</v>
       </c>
-      <c r="I31" s="27">
+      <c r="I31" s="17">
         <f>+Model!U28</f>
         <v>4262</v>
       </c>
-      <c r="J31" s="27">
+      <c r="J31" s="17">
         <f>+Model!V28</f>
         <v>3837</v>
       </c>
-      <c r="K31" s="27">
+      <c r="K31" s="17">
         <f>+Model!W28</f>
         <v>5028</v>
       </c>
-      <c r="L31" s="27">
+      <c r="L31" s="17">
         <f>+Model!X28</f>
         <v>5325</v>
       </c>
-      <c r="M31" s="27">
+      <c r="M31" s="17">
         <f ca="1">M32*M25</f>
         <v>5783.8743000000004</v>
       </c>
-      <c r="N31" s="27">
+      <c r="N31" s="17">
         <f t="shared" ref="N31:V31" ca="1" si="6">N32*N25</f>
         <v>6476.9270379975005</v>
       </c>
-      <c r="O31" s="27">
+      <c r="O31" s="17">
         <f t="shared" ca="1" si="6"/>
         <v>7230.4122488041421</v>
       </c>
-      <c r="P31" s="27">
+      <c r="P31" s="17">
         <f t="shared" ca="1" si="6"/>
         <v>8047.5722018280048</v>
       </c>
-      <c r="Q31" s="27">
+      <c r="Q31" s="17">
         <f t="shared" ca="1" si="6"/>
         <v>8644.8883570983362</v>
       </c>
-      <c r="R31" s="27">
+      <c r="R31" s="17">
         <f t="shared" ca="1" si="6"/>
         <v>9113.1358443260215</v>
       </c>
-      <c r="S31" s="27">
+      <c r="S31" s="17">
         <f t="shared" ca="1" si="6"/>
         <v>9582.0653023389877</v>
       </c>
-      <c r="T31" s="27">
+      <c r="T31" s="17">
         <f t="shared" ca="1" si="6"/>
         <v>10050.471252535026</v>
       </c>
-      <c r="U31" s="27">
+      <c r="U31" s="17">
         <f t="shared" ca="1" si="6"/>
         <v>10517.209410646086</v>
       </c>
-      <c r="V31" s="27">
+      <c r="V31" s="17">
         <f t="shared" ca="1" si="6"/>
         <v>10981.201962256773</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="28" t="s">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B32" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="47">
         <f>G31/G25</f>
         <v>0.15299347287868556</v>
       </c>
-      <c r="H32" s="31">
+      <c r="H32" s="47">
         <f t="shared" ref="H32:L32" si="7">H31/H25</f>
         <v>0.15330474503589075</v>
       </c>
-      <c r="I32" s="31">
+      <c r="I32" s="47">
         <f t="shared" si="7"/>
         <v>0.16798707185369122</v>
       </c>
-      <c r="J32" s="31">
+      <c r="J32" s="47">
         <f t="shared" si="7"/>
         <v>0.13943600552365723</v>
       </c>
-      <c r="K32" s="31">
+      <c r="K32" s="47">
         <f t="shared" si="7"/>
         <v>0.16888918746431092</v>
       </c>
-      <c r="L32" s="31">
+      <c r="L32" s="47">
         <f t="shared" si="7"/>
         <v>0.16746862911595434</v>
       </c>
-      <c r="M32" s="31" cm="1">
+      <c r="M32" s="47" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">OFFSET(M32,$E$12,,)</f>
         <v>0.17</v>
       </c>
-      <c r="N32" s="31" cm="1">
+      <c r="N32" s="47" cm="1">
         <f t="array" aca="1" ref="N32" ca="1">OFFSET(N32,$E$12,,)</f>
         <v>0.17850000000000002</v>
       </c>
-      <c r="O32" s="31" cm="1">
+      <c r="O32" s="47" cm="1">
         <f t="array" aca="1" ref="O32" ca="1">OFFSET(O32,$E$12,,)</f>
         <v>0.18742500000000004</v>
       </c>
-      <c r="P32" s="31" cm="1">
+      <c r="P32" s="47" cm="1">
         <f t="array" aca="1" ref="P32" ca="1">OFFSET(P32,$E$12,,)</f>
         <v>0.19679625000000003</v>
       </c>
-      <c r="Q32" s="31" cm="1">
+      <c r="Q32" s="47" cm="1">
         <f t="array" aca="1" ref="Q32" ca="1">OFFSET(Q32,$E$12,,)</f>
         <v>0.2</v>
       </c>
-      <c r="R32" s="31" cm="1">
+      <c r="R32" s="47" cm="1">
         <f t="array" aca="1" ref="R32" ca="1">OFFSET(R32,$E$12,,)</f>
         <v>0.2</v>
       </c>
-      <c r="S32" s="31" cm="1">
+      <c r="S32" s="47" cm="1">
         <f t="array" aca="1" ref="S32" ca="1">OFFSET(S32,$E$12,,)</f>
         <v>0.2</v>
       </c>
-      <c r="T32" s="31" cm="1">
+      <c r="T32" s="47" cm="1">
         <f t="array" aca="1" ref="T32" ca="1">OFFSET(T32,$E$12,,)</f>
         <v>0.2</v>
       </c>
-      <c r="U32" s="31" cm="1">
+      <c r="U32" s="47" cm="1">
         <f t="array" aca="1" ref="U32" ca="1">OFFSET(U32,$E$12,,)</f>
         <v>0.2</v>
       </c>
-      <c r="V32" s="31" cm="1">
+      <c r="V32" s="47" cm="1">
         <f t="array" aca="1" ref="V32" ca="1">OFFSET(V32,$E$12,,)</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="28" t="s">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B33" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="M33" s="32">
+      <c r="M33" s="48">
         <f>+M34-2%</f>
         <v>0.15000000000000002</v>
       </c>
-      <c r="N33" s="32">
+      <c r="N33" s="48">
         <f t="shared" ref="N33:V33" si="8">+N34-2%</f>
         <v>0.15850000000000003</v>
       </c>
-      <c r="O33" s="32">
+      <c r="O33" s="48">
         <f t="shared" si="8"/>
         <v>0.16742500000000005</v>
       </c>
-      <c r="P33" s="32">
+      <c r="P33" s="48">
         <f t="shared" si="8"/>
         <v>0.17679625000000004</v>
       </c>
-      <c r="Q33" s="32">
+      <c r="Q33" s="48">
         <f t="shared" si="8"/>
         <v>0.18000000000000002</v>
       </c>
-      <c r="R33" s="32">
+      <c r="R33" s="48">
         <f t="shared" si="8"/>
         <v>0.18000000000000002</v>
       </c>
-      <c r="S33" s="32">
+      <c r="S33" s="48">
         <f t="shared" si="8"/>
         <v>0.18000000000000002</v>
       </c>
-      <c r="T33" s="32">
+      <c r="T33" s="48">
         <f t="shared" si="8"/>
         <v>0.18000000000000002</v>
       </c>
-      <c r="U33" s="32">
+      <c r="U33" s="48">
         <f t="shared" si="8"/>
         <v>0.18000000000000002</v>
       </c>
-      <c r="V33" s="32">
+      <c r="V33" s="48">
         <f t="shared" si="8"/>
         <v>0.18000000000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="28" t="s">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B34" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="M34" s="32">
+      <c r="M34" s="48">
         <v>0.17</v>
       </c>
-      <c r="N34" s="32">
+      <c r="N34" s="48">
         <f>+M34*(1+5%)</f>
         <v>0.17850000000000002</v>
       </c>
-      <c r="O34" s="32">
+      <c r="O34" s="48">
         <f t="shared" ref="O34:P34" si="9">+N34*(1+5%)</f>
         <v>0.18742500000000004</v>
       </c>
-      <c r="P34" s="32">
+      <c r="P34" s="48">
         <f t="shared" si="9"/>
         <v>0.19679625000000003</v>
       </c>
-      <c r="Q34" s="32">
+      <c r="Q34" s="48">
         <v>0.2</v>
       </c>
-      <c r="R34" s="32">
+      <c r="R34" s="48">
         <v>0.2</v>
       </c>
-      <c r="S34" s="32">
+      <c r="S34" s="48">
         <v>0.2</v>
       </c>
-      <c r="T34" s="32">
+      <c r="T34" s="48">
         <v>0.2</v>
       </c>
-      <c r="U34" s="32">
+      <c r="U34" s="48">
         <v>0.2</v>
       </c>
-      <c r="V34" s="32">
+      <c r="V34" s="48">
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="28" t="s">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B35" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="M35" s="32">
+      <c r="M35" s="48">
         <f>+M34+2%</f>
         <v>0.19</v>
       </c>
-      <c r="N35" s="32">
+      <c r="N35" s="48">
         <f t="shared" ref="N35:V35" si="10">+N34+2%</f>
         <v>0.19850000000000001</v>
       </c>
-      <c r="O35" s="32">
+      <c r="O35" s="48">
         <f t="shared" si="10"/>
         <v>0.20742500000000003</v>
       </c>
-      <c r="P35" s="32">
+      <c r="P35" s="48">
         <f t="shared" si="10"/>
         <v>0.21679625000000002</v>
       </c>
-      <c r="Q35" s="32">
+      <c r="Q35" s="48">
         <f t="shared" si="10"/>
         <v>0.22</v>
       </c>
-      <c r="R35" s="32">
+      <c r="R35" s="48">
         <f t="shared" si="10"/>
         <v>0.22</v>
       </c>
-      <c r="S35" s="32">
+      <c r="S35" s="48">
         <f t="shared" si="10"/>
         <v>0.22</v>
       </c>
-      <c r="T35" s="32">
+      <c r="T35" s="48">
         <f t="shared" si="10"/>
         <v>0.22</v>
       </c>
-      <c r="U35" s="32">
+      <c r="U35" s="48">
         <f t="shared" si="10"/>
         <v>0.22</v>
       </c>
-      <c r="V35" s="32">
+      <c r="V35" s="48">
         <f t="shared" si="10"/>
         <v>0.22</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G37" s="27">
+      <c r="G37" s="17">
         <f>+Model!S31</f>
         <v>539</v>
       </c>
-      <c r="H37" s="27">
+      <c r="H37" s="17">
         <f>+Model!T31</f>
         <v>863</v>
       </c>
-      <c r="I37" s="27">
+      <c r="I37" s="17">
         <f>+Model!U31</f>
         <v>-70</v>
       </c>
-      <c r="J37" s="27">
+      <c r="J37" s="17">
         <f>+Model!V31</f>
         <v>947</v>
       </c>
-      <c r="K37" s="27">
+      <c r="K37" s="17">
         <f>+Model!W31</f>
         <v>1165</v>
       </c>
-      <c r="L37" s="27">
+      <c r="L37" s="17">
         <f>+Model!X31</f>
         <v>1182</v>
       </c>
-      <c r="M37" s="27">
+      <c r="M37" s="17">
         <f ca="1">M38*M31</f>
         <v>1272.452346</v>
       </c>
-      <c r="N37" s="27">
+      <c r="N37" s="17">
         <f t="shared" ref="N37:V37" ca="1" si="11">N38*N31</f>
         <v>1424.9239483594502</v>
       </c>
-      <c r="O37" s="27">
+      <c r="O37" s="17">
         <f t="shared" ca="1" si="11"/>
         <v>1590.6906947369114</v>
       </c>
-      <c r="P37" s="27">
+      <c r="P37" s="17">
         <f t="shared" ca="1" si="11"/>
         <v>1770.465884402161</v>
       </c>
-      <c r="Q37" s="27">
+      <c r="Q37" s="17">
         <f t="shared" ca="1" si="11"/>
         <v>1901.8754385616339</v>
       </c>
-      <c r="R37" s="27">
+      <c r="R37" s="17">
         <f t="shared" ca="1" si="11"/>
         <v>2004.8898857517247</v>
       </c>
-      <c r="S37" s="27">
+      <c r="S37" s="17">
         <f t="shared" ca="1" si="11"/>
         <v>2108.0543665145774</v>
       </c>
-      <c r="T37" s="27">
+      <c r="T37" s="17">
         <f t="shared" ca="1" si="11"/>
         <v>2211.1036755577056</v>
       </c>
-      <c r="U37" s="27">
+      <c r="U37" s="17">
         <f t="shared" ca="1" si="11"/>
         <v>2313.7860703421388</v>
       </c>
-      <c r="V37" s="27">
+      <c r="V37" s="17">
         <f t="shared" ca="1" si="11"/>
         <v>2415.8644316964901</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B38" s="29" t="s">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B38" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="G38" s="31">
+      <c r="G38" s="47">
         <f t="shared" ref="G38:L38" si="12">G37/G31</f>
         <v>0.19823464509010666</v>
       </c>
-      <c r="H38" s="31">
+      <c r="H38" s="47">
         <f t="shared" si="12"/>
         <v>0.26238978412891456</v>
       </c>
-      <c r="I38" s="31">
+      <c r="I38" s="47">
         <f t="shared" si="12"/>
         <v>-1.642421398404505E-2</v>
       </c>
-      <c r="J38" s="31">
+      <c r="J38" s="47">
         <f t="shared" si="12"/>
         <v>0.24680740161584572</v>
       </c>
-      <c r="K38" s="31">
+      <c r="K38" s="47">
         <f t="shared" si="12"/>
         <v>0.23170246618933971</v>
       </c>
-      <c r="L38" s="31">
+      <c r="L38" s="47">
         <f t="shared" si="12"/>
         <v>0.2219718309859155</v>
       </c>
-      <c r="M38" s="31">
+      <c r="M38" s="47">
         <v>0.22</v>
       </c>
-      <c r="N38" s="31">
+      <c r="N38" s="47">
         <v>0.22</v>
       </c>
-      <c r="O38" s="31">
+      <c r="O38" s="47">
         <v>0.22</v>
       </c>
-      <c r="P38" s="31">
+      <c r="P38" s="47">
         <v>0.22</v>
       </c>
-      <c r="Q38" s="31">
+      <c r="Q38" s="47">
         <v>0.22</v>
       </c>
-      <c r="R38" s="31">
+      <c r="R38" s="47">
         <v>0.22</v>
       </c>
-      <c r="S38" s="31">
+      <c r="S38" s="47">
         <v>0.22</v>
       </c>
-      <c r="T38" s="31">
+      <c r="T38" s="47">
         <v>0.22</v>
       </c>
-      <c r="U38" s="31">
+      <c r="U38" s="47">
         <v>0.22</v>
       </c>
-      <c r="V38" s="31">
+      <c r="V38" s="47">
         <v>0.22</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B39" s="29"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B40" s="33" t="s">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B39" s="45"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B40" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="35">
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="51">
         <f t="shared" ref="G40:V40" si="13">G31-G37</f>
         <v>2180</v>
       </c>
-      <c r="H40" s="35">
+      <c r="H40" s="51">
         <f t="shared" si="13"/>
         <v>2426</v>
       </c>
-      <c r="I40" s="35">
+      <c r="I40" s="51">
         <f t="shared" si="13"/>
         <v>4332</v>
       </c>
-      <c r="J40" s="35">
+      <c r="J40" s="51">
         <f t="shared" si="13"/>
         <v>2890</v>
       </c>
-      <c r="K40" s="35">
+      <c r="K40" s="51">
         <f t="shared" si="13"/>
         <v>3863</v>
       </c>
-      <c r="L40" s="35">
+      <c r="L40" s="51">
         <f t="shared" si="13"/>
         <v>4143</v>
       </c>
-      <c r="M40" s="35">
+      <c r="M40" s="51">
         <f t="shared" ca="1" si="13"/>
         <v>4511.4219540000004</v>
       </c>
-      <c r="N40" s="35">
+      <c r="N40" s="51">
         <f t="shared" ca="1" si="13"/>
         <v>5052.0030896380504</v>
       </c>
-      <c r="O40" s="35">
+      <c r="O40" s="51">
         <f t="shared" ca="1" si="13"/>
         <v>5639.7215540672305</v>
       </c>
-      <c r="P40" s="35">
+      <c r="P40" s="51">
         <f t="shared" ca="1" si="13"/>
         <v>6277.1063174258434</v>
       </c>
-      <c r="Q40" s="35">
+      <c r="Q40" s="51">
         <f t="shared" ca="1" si="13"/>
         <v>6743.0129185367023</v>
       </c>
-      <c r="R40" s="35">
+      <c r="R40" s="51">
         <f t="shared" ca="1" si="13"/>
         <v>7108.2459585742963</v>
       </c>
-      <c r="S40" s="35">
+      <c r="S40" s="51">
         <f t="shared" ca="1" si="13"/>
         <v>7474.0109358244099</v>
       </c>
-      <c r="T40" s="35">
+      <c r="T40" s="51">
         <f t="shared" ca="1" si="13"/>
         <v>7839.3675769773199</v>
       </c>
-      <c r="U40" s="35">
+      <c r="U40" s="51">
         <f t="shared" ca="1" si="13"/>
         <v>8203.423340303947</v>
       </c>
-      <c r="V40" s="36">
+      <c r="V40" s="52">
         <f t="shared" ca="1" si="13"/>
         <v>8565.3375305602822</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G42" s="27">
+      <c r="G42" s="17">
         <f>+Model!S76</f>
         <v>912</v>
       </c>
-      <c r="H42" s="27">
+      <c r="H42" s="17">
         <f>+Model!T76</f>
         <v>1189</v>
       </c>
-      <c r="I42" s="27">
+      <c r="I42" s="17">
         <f>+Model!U76</f>
         <v>1265</v>
       </c>
-      <c r="J42" s="27">
+      <c r="J42" s="17">
         <f>+Model!V76</f>
         <v>1317</v>
       </c>
-      <c r="K42" s="27">
+      <c r="K42" s="17">
         <f>+Model!W76</f>
         <v>1072</v>
       </c>
-      <c r="L42" s="27">
+      <c r="L42" s="17">
         <f>+Model!X76</f>
         <v>1032</v>
       </c>
-      <c r="M42" s="27">
+      <c r="M42" s="17">
         <f ca="1">M43*M25</f>
         <v>1360.9116000000001</v>
       </c>
-      <c r="N42" s="27">
+      <c r="N42" s="17">
         <f t="shared" ref="N42:V42" ca="1" si="14">N43*N25</f>
         <v>1451.4122213999999</v>
       </c>
-      <c r="O42" s="27">
+      <c r="O42" s="17">
         <f t="shared" ca="1" si="14"/>
         <v>1543.1051884869448</v>
       </c>
-      <c r="P42" s="27">
+      <c r="P42" s="17">
         <f t="shared" ca="1" si="14"/>
         <v>1635.7165752554743</v>
       </c>
-      <c r="Q42" s="27">
+      <c r="Q42" s="17">
         <f t="shared" ca="1" si="14"/>
         <v>1728.9776714196671</v>
       </c>
-      <c r="R42" s="27">
+      <c r="R42" s="17">
         <f t="shared" ca="1" si="14"/>
         <v>1822.6271688652041</v>
       </c>
-      <c r="S42" s="27">
+      <c r="S42" s="17">
         <f t="shared" ca="1" si="14"/>
         <v>1916.4130604677973</v>
       </c>
-      <c r="T42" s="27">
+      <c r="T42" s="17">
         <f t="shared" ca="1" si="14"/>
         <v>2010.0942505070052</v>
       </c>
-      <c r="U42" s="27">
+      <c r="U42" s="17">
         <f t="shared" ca="1" si="14"/>
         <v>2103.441882129217</v>
       </c>
-      <c r="V42" s="27">
+      <c r="V42" s="17">
         <f t="shared" ca="1" si="14"/>
         <v>2196.2403924513546</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B43" s="28" t="s">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B43" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="37">
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="53">
         <f t="shared" ref="G43:L43" si="15">G42/G25</f>
         <v>5.1316677920324107E-2</v>
       </c>
-      <c r="H43" s="37">
+      <c r="H43" s="53">
         <f t="shared" si="15"/>
         <v>5.5420900531369444E-2</v>
       </c>
-      <c r="I43" s="37">
+      <c r="I43" s="53">
         <f t="shared" si="15"/>
         <v>4.9860076465255608E-2</v>
       </c>
-      <c r="J43" s="37">
+      <c r="J43" s="53">
         <f t="shared" si="15"/>
         <v>4.7859582818518785E-2</v>
       </c>
-      <c r="K43" s="37">
+      <c r="K43" s="53">
         <f t="shared" si="15"/>
         <v>3.6008195895334383E-2</v>
       </c>
-      <c r="L43" s="37">
+      <c r="L43" s="53">
         <f t="shared" si="15"/>
         <v>3.2455892065289177E-2</v>
       </c>
-      <c r="M43" s="38">
+      <c r="M43" s="54">
         <v>0.04</v>
       </c>
-      <c r="N43" s="38">
+      <c r="N43" s="54">
         <v>0.04</v>
       </c>
-      <c r="O43" s="38">
+      <c r="O43" s="54">
         <v>0.04</v>
       </c>
-      <c r="P43" s="38">
+      <c r="P43" s="54">
         <v>0.04</v>
       </c>
-      <c r="Q43" s="38">
+      <c r="Q43" s="54">
         <v>0.04</v>
       </c>
-      <c r="R43" s="38">
+      <c r="R43" s="54">
         <v>0.04</v>
       </c>
-      <c r="S43" s="38">
+      <c r="S43" s="54">
         <v>0.04</v>
       </c>
-      <c r="T43" s="38">
+      <c r="T43" s="54">
         <v>0.04</v>
       </c>
-      <c r="U43" s="38">
+      <c r="U43" s="54">
         <v>0.04</v>
       </c>
-      <c r="V43" s="38">
+      <c r="V43" s="54">
         <v>0.04</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G45" s="27">
+      <c r="G45" s="17">
         <f>+Model!S92</f>
         <v>-704</v>
       </c>
-      <c r="H45" s="27">
+      <c r="H45" s="17">
         <f>+Model!T92</f>
         <v>-866</v>
       </c>
-      <c r="I45" s="27">
+      <c r="I45" s="17">
         <f>+Model!U92</f>
         <v>-908</v>
       </c>
-      <c r="J45" s="27">
+      <c r="J45" s="17">
         <f>+Model!V92</f>
         <v>-706</v>
       </c>
-      <c r="K45" s="27">
+      <c r="K45" s="17">
         <f>+Model!W92</f>
         <v>-623</v>
       </c>
-      <c r="L45" s="27">
+      <c r="L45" s="17">
         <f>+Model!X92</f>
         <v>-683</v>
       </c>
-      <c r="M45" s="27">
+      <c r="M45" s="17">
         <f ca="1">M46*M25</f>
         <v>-1020.6837</v>
       </c>
-      <c r="N45" s="27">
+      <c r="N45" s="17">
         <f t="shared" ref="N45:V45" ca="1" si="16">N46*N25</f>
         <v>-1088.5591660499999</v>
       </c>
-      <c r="O45" s="27">
+      <c r="O45" s="17">
         <f t="shared" ca="1" si="16"/>
         <v>-1157.3288913652086</v>
       </c>
-      <c r="P45" s="27">
+      <c r="P45" s="17">
         <f t="shared" ca="1" si="16"/>
         <v>-1226.7874314416056</v>
       </c>
-      <c r="Q45" s="27">
+      <c r="Q45" s="17">
         <f t="shared" ca="1" si="16"/>
         <v>-1296.7332535647502</v>
       </c>
-      <c r="R45" s="27">
+      <c r="R45" s="17">
         <f t="shared" ca="1" si="16"/>
         <v>-1366.9703766489031</v>
       </c>
-      <c r="S45" s="27">
+      <c r="S45" s="17">
         <f t="shared" ca="1" si="16"/>
         <v>-1437.3097953508479</v>
       </c>
-      <c r="T45" s="27">
+      <c r="T45" s="17">
         <f t="shared" ca="1" si="16"/>
         <v>-1507.5706878802539</v>
       </c>
-      <c r="U45" s="27">
+      <c r="U45" s="17">
         <f t="shared" ca="1" si="16"/>
         <v>-1577.5814115969126</v>
       </c>
-      <c r="V45" s="27">
+      <c r="V45" s="17">
         <f t="shared" ca="1" si="16"/>
         <v>-1647.1802943385158</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B46" s="28" t="s">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B46" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="G46" s="37">
+      <c r="G46" s="53">
         <f t="shared" ref="G46:L46" si="17">G45/G25</f>
         <v>-3.9612874184109838E-2</v>
       </c>
-      <c r="H46" s="37">
+      <c r="H46" s="53">
         <f t="shared" si="17"/>
         <v>-4.0365433019483546E-2</v>
       </c>
-      <c r="I46" s="37">
+      <c r="I46" s="53">
         <f t="shared" si="17"/>
         <v>-3.5788892830396907E-2</v>
       </c>
-      <c r="J46" s="37">
+      <c r="J46" s="53">
         <f t="shared" si="17"/>
         <v>-2.5655934297550694E-2</v>
       </c>
-      <c r="K46" s="37">
+      <c r="K46" s="53">
         <f t="shared" si="17"/>
         <v>-2.0926404890665412E-2</v>
       </c>
-      <c r="L46" s="37">
+      <c r="L46" s="53">
         <f t="shared" si="17"/>
         <v>-2.1480013837783439E-2</v>
       </c>
-      <c r="M46" s="38">
+      <c r="M46" s="54">
         <v>-0.03</v>
       </c>
-      <c r="N46" s="38">
+      <c r="N46" s="54">
         <v>-0.03</v>
       </c>
-      <c r="O46" s="38">
+      <c r="O46" s="54">
         <v>-0.03</v>
       </c>
-      <c r="P46" s="38">
+      <c r="P46" s="54">
         <v>-0.03</v>
       </c>
-      <c r="Q46" s="38">
+      <c r="Q46" s="54">
         <v>-0.03</v>
       </c>
-      <c r="R46" s="38">
+      <c r="R46" s="54">
         <v>-0.03</v>
       </c>
-      <c r="S46" s="38">
+      <c r="S46" s="54">
         <v>-0.03</v>
       </c>
-      <c r="T46" s="38">
+      <c r="T46" s="54">
         <v>-0.03</v>
       </c>
-      <c r="U46" s="38">
+      <c r="U46" s="54">
         <v>-0.03</v>
       </c>
-      <c r="V46" s="38">
+      <c r="V46" s="54">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G48" s="27">
+      <c r="G48" s="17">
         <f>+Model!S90</f>
         <v>-1075</v>
       </c>
-      <c r="H48" s="27">
+      <c r="H48" s="17">
         <f>+Model!T90</f>
         <v>-952</v>
       </c>
-      <c r="I48" s="27">
+      <c r="I48" s="17">
         <f>+Model!U90</f>
         <v>-1102</v>
       </c>
-      <c r="J48" s="27">
+      <c r="J48" s="17">
         <f>+Model!V90</f>
         <v>-454</v>
       </c>
-      <c r="K48" s="27">
+      <c r="K48" s="17">
         <f>+Model!W90</f>
         <v>-1314</v>
       </c>
-      <c r="L48" s="27">
+      <c r="L48" s="17">
         <f>+Model!X90</f>
         <v>-558</v>
       </c>
-      <c r="M48" s="27">
+      <c r="M48" s="17">
         <f ca="1">M49*M25</f>
         <v>-680.45580000000007</v>
       </c>
-      <c r="N48" s="27">
+      <c r="N48" s="17">
         <f t="shared" ref="N48:V48" ca="1" si="18">N49*N25</f>
         <v>-725.70611069999995</v>
       </c>
-      <c r="O48" s="27">
+      <c r="O48" s="17">
         <f t="shared" ca="1" si="18"/>
         <v>-771.55259424347241</v>
       </c>
-      <c r="P48" s="27">
+      <c r="P48" s="17">
         <f t="shared" ca="1" si="18"/>
         <v>-817.85828762773713</v>
       </c>
-      <c r="Q48" s="27">
+      <c r="Q48" s="17">
         <f t="shared" ca="1" si="18"/>
         <v>-864.48883570983355</v>
       </c>
-      <c r="R48" s="27">
+      <c r="R48" s="17">
         <f t="shared" ca="1" si="18"/>
         <v>-911.31358443260206</v>
       </c>
-      <c r="S48" s="27">
+      <c r="S48" s="17">
         <f t="shared" ca="1" si="18"/>
         <v>-958.20653023389866</v>
       </c>
-      <c r="T48" s="27">
+      <c r="T48" s="17">
         <f t="shared" ca="1" si="18"/>
         <v>-1005.0471252535026</v>
       </c>
-      <c r="U48" s="27">
+      <c r="U48" s="17">
         <f t="shared" ca="1" si="18"/>
         <v>-1051.7209410646085</v>
       </c>
-      <c r="V48" s="27">
+      <c r="V48" s="17">
         <f t="shared" ca="1" si="18"/>
         <v>-1098.1201962256773</v>
       </c>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B49" s="28" t="s">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B49" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="G49" s="37">
+      <c r="G49" s="53">
         <f t="shared" ref="G49:L49" si="19">G48/G25</f>
         <v>-6.0488408732838173E-2</v>
       </c>
-      <c r="H49" s="37">
+      <c r="H49" s="53">
         <f t="shared" si="19"/>
         <v>-4.4374009508716325E-2</v>
       </c>
-      <c r="I49" s="37">
+      <c r="I49" s="53">
         <f t="shared" si="19"/>
         <v>-4.3435418391076425E-2</v>
       </c>
-      <c r="J49" s="37">
+      <c r="J49" s="53">
         <f t="shared" si="19"/>
         <v>-1.649829202703685E-2</v>
       </c>
-      <c r="K49" s="37">
+      <c r="K49" s="53">
         <f t="shared" si="19"/>
         <v>-4.4136911759766216E-2</v>
       </c>
-      <c r="L49" s="37">
+      <c r="L49" s="53">
         <f t="shared" si="19"/>
         <v>-1.7548825360883102E-2</v>
       </c>
-      <c r="M49" s="38">
+      <c r="M49" s="54">
         <v>-0.02</v>
       </c>
-      <c r="N49" s="38">
+      <c r="N49" s="54">
         <v>-0.02</v>
       </c>
-      <c r="O49" s="38">
+      <c r="O49" s="54">
         <v>-0.02</v>
       </c>
-      <c r="P49" s="38">
+      <c r="P49" s="54">
         <v>-0.02</v>
       </c>
-      <c r="Q49" s="38">
+      <c r="Q49" s="54">
         <v>-0.02</v>
       </c>
-      <c r="R49" s="38">
+      <c r="R49" s="54">
         <v>-0.02</v>
       </c>
-      <c r="S49" s="38">
+      <c r="S49" s="54">
         <v>-0.02</v>
       </c>
-      <c r="T49" s="38">
+      <c r="T49" s="54">
         <v>-0.02</v>
       </c>
-      <c r="U49" s="38">
+      <c r="U49" s="54">
         <v>-0.02</v>
       </c>
-      <c r="V49" s="38">
+      <c r="V49" s="54">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B51" s="39" t="s">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B51" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="41">
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="57">
         <f>G40+G42+G45+G48</f>
         <v>1313</v>
       </c>
-      <c r="H51" s="41">
+      <c r="H51" s="57">
         <f t="shared" ref="H51:U51" si="20">H40+H42+H45+H48</f>
         <v>1797</v>
       </c>
-      <c r="I51" s="41">
+      <c r="I51" s="57">
         <f t="shared" si="20"/>
         <v>3587</v>
       </c>
-      <c r="J51" s="41">
+      <c r="J51" s="57">
         <f t="shared" si="20"/>
         <v>3047</v>
       </c>
-      <c r="K51" s="41">
+      <c r="K51" s="57">
         <f t="shared" si="20"/>
         <v>2998</v>
       </c>
-      <c r="L51" s="41">
+      <c r="L51" s="57">
         <f t="shared" si="20"/>
         <v>3934</v>
       </c>
-      <c r="M51" s="41">
+      <c r="M51" s="57">
         <f ca="1">M40+M42+M45+M48</f>
         <v>4171.1940540000014</v>
       </c>
-      <c r="N51" s="41">
+      <c r="N51" s="57">
         <f t="shared" ca="1" si="20"/>
         <v>4689.1500342880508</v>
       </c>
-      <c r="O51" s="41">
+      <c r="O51" s="57">
         <f t="shared" ca="1" si="20"/>
         <v>5253.9452569454943</v>
       </c>
-      <c r="P51" s="41">
+      <c r="P51" s="57">
         <f t="shared" ca="1" si="20"/>
         <v>5868.1771736119745</v>
       </c>
-      <c r="Q51" s="41">
+      <c r="Q51" s="57">
         <f t="shared" ca="1" si="20"/>
         <v>6310.7685006817856</v>
       </c>
-      <c r="R51" s="41">
+      <c r="R51" s="57">
         <f t="shared" ca="1" si="20"/>
         <v>6652.5891663579951</v>
       </c>
-      <c r="S51" s="41">
+      <c r="S51" s="57">
         <f t="shared" ca="1" si="20"/>
         <v>6994.907670707461</v>
       </c>
-      <c r="T51" s="41">
+      <c r="T51" s="57">
         <f t="shared" ca="1" si="20"/>
         <v>7336.8440143505686</v>
       </c>
-      <c r="U51" s="41">
+      <c r="U51" s="57">
         <f t="shared" ca="1" si="20"/>
         <v>7677.562869771642</v>
       </c>
-      <c r="V51" s="42">
+      <c r="V51" s="58">
         <f ca="1">V40+V42+V45+V48</f>
         <v>8016.277432447444</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B52" s="43" t="s">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B52" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="45">
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="61"/>
+      <c r="M52" s="61">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>1644.3442426776612</v>
-      </c>
-      <c r="N52" s="45">
+        <v>1340.0880008879531</v>
+      </c>
+      <c r="N52" s="61">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>4153.2219830203821</v>
-      </c>
-      <c r="O52" s="45">
+        <v>4181.1533276002183</v>
+      </c>
+      <c r="O52" s="61">
         <f t="shared" ref="O52:U52" ca="1" si="21">O51/(1+$E$18)^O53</f>
-        <v>4269.2349964589175</v>
-      </c>
-      <c r="P52" s="45">
+        <v>4297.9465544411059</v>
+      </c>
+      <c r="P52" s="61">
         <f t="shared" ca="1" si="21"/>
-        <v>4374.6290967153054</v>
-      </c>
-      <c r="Q52" s="45">
+        <v>4404.0494535392072</v>
+      </c>
+      <c r="Q52" s="61">
         <f t="shared" ca="1" si="21"/>
-        <v>4316.1225836001513</v>
-      </c>
-      <c r="R52" s="45">
+        <v>4345.1494710682928</v>
+      </c>
+      <c r="R52" s="61">
         <f t="shared" ca="1" si="21"/>
-        <v>4174.2237799425338</v>
-      </c>
-      <c r="S52" s="45">
+        <v>4202.2963662929824</v>
+      </c>
+      <c r="S52" s="61">
         <f t="shared" ca="1" si="21"/>
-        <v>4026.618755470477</v>
-      </c>
-      <c r="T52" s="45">
+        <v>4053.6986650949761</v>
+      </c>
+      <c r="T52" s="61">
         <f t="shared" ca="1" si="21"/>
-        <v>3874.7288250065776</v>
-      </c>
-      <c r="U52" s="45">
+        <v>3900.7872409562051</v>
+      </c>
+      <c r="U52" s="61">
         <f t="shared" ca="1" si="21"/>
-        <v>3719.8798383317062</v>
-      </c>
-      <c r="V52" s="46">
+        <v>3744.8968602931632</v>
+      </c>
+      <c r="V52" s="62">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>3563.294938895926</v>
-      </c>
-    </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+        <v>3587.2588924685456</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="M53" s="70">
+      <c r="M53" s="23">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.40833333333333333</v>
-      </c>
-      <c r="N53" s="70">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="N53" s="23">
         <f ca="1">M53+1</f>
-        <v>1.4083333333333332</v>
-      </c>
-      <c r="O53" s="70">
+        <v>1.3305555555555555</v>
+      </c>
+      <c r="O53" s="23">
         <f ca="1">N53+1</f>
-        <v>2.4083333333333332</v>
-      </c>
-      <c r="P53" s="70">
+        <v>2.3305555555555557</v>
+      </c>
+      <c r="P53" s="23">
         <f t="shared" ref="P53:V53" ca="1" si="22">O53+1</f>
-        <v>3.4083333333333332</v>
-      </c>
-      <c r="Q53" s="70">
+        <v>3.3305555555555557</v>
+      </c>
+      <c r="Q53" s="23">
         <f t="shared" ca="1" si="22"/>
-        <v>4.4083333333333332</v>
-      </c>
-      <c r="R53" s="70">
+        <v>4.3305555555555557</v>
+      </c>
+      <c r="R53" s="23">
         <f t="shared" ca="1" si="22"/>
-        <v>5.4083333333333332</v>
-      </c>
-      <c r="S53" s="70">
+        <v>5.3305555555555557</v>
+      </c>
+      <c r="S53" s="23">
         <f t="shared" ca="1" si="22"/>
-        <v>6.4083333333333332</v>
-      </c>
-      <c r="T53" s="70">
+        <v>6.3305555555555557</v>
+      </c>
+      <c r="T53" s="23">
         <f t="shared" ca="1" si="22"/>
-        <v>7.4083333333333332</v>
-      </c>
-      <c r="U53" s="70">
+        <v>7.3305555555555557</v>
+      </c>
+      <c r="U53" s="23">
         <f t="shared" ca="1" si="22"/>
-        <v>8.4083333333333332</v>
-      </c>
-      <c r="V53" s="70">
+        <v>8.3305555555555557</v>
+      </c>
+      <c r="V53" s="23">
         <f t="shared" ca="1" si="22"/>
-        <v>9.4083333333333332</v>
-      </c>
-    </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+        <v>9.3305555555555557</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="N54" s="47"/>
-      <c r="O54" s="47"/>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="47"/>
-      <c r="V54" s="27">
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="V54" s="17">
         <f ca="1">SUM(M52:V52)</f>
-        <v>38116.299040119637</v>
-      </c>
-    </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+        <v>38057.324832642647</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="N55" s="47"/>
-      <c r="O55" s="47"/>
-      <c r="P55" s="47"/>
-      <c r="Q55" s="47"/>
-      <c r="V55" s="27">
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="V55" s="17">
         <f ca="1">+(V40*(1+E19))*(1-(E19/E20))/(E18-E19)</f>
         <v>101301.58810181872</v>
       </c>
-      <c r="X55" s="48" t="s">
+      <c r="X55" s="20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B56" s="14" t="s">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B56" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="49"/>
-      <c r="O56" s="49"/>
-      <c r="P56" s="49"/>
-      <c r="Q56" s="49"/>
-      <c r="R56" s="49"/>
-      <c r="S56" s="49"/>
-      <c r="T56" s="49"/>
-      <c r="U56" s="49"/>
-      <c r="V56" s="50">
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="63"/>
+      <c r="O56" s="63"/>
+      <c r="P56" s="63"/>
+      <c r="Q56" s="63"/>
+      <c r="R56" s="63"/>
+      <c r="S56" s="63"/>
+      <c r="T56" s="63"/>
+      <c r="U56" s="63"/>
+      <c r="V56" s="64">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>45029.309330568372</v>
-      </c>
-    </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B57" s="51" t="s">
+        <v>45332.141483592233</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B57" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="51"/>
-      <c r="M57" s="51"/>
-      <c r="N57" s="52"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="52"/>
-      <c r="Q57" s="52"/>
-      <c r="R57" s="52"/>
-      <c r="S57" s="52"/>
-      <c r="T57" s="52"/>
-      <c r="U57" s="52"/>
-      <c r="V57" s="53">
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="65"/>
+      <c r="O57" s="65"/>
+      <c r="P57" s="65"/>
+      <c r="Q57" s="65"/>
+      <c r="R57" s="65"/>
+      <c r="S57" s="65"/>
+      <c r="T57" s="65"/>
+      <c r="U57" s="65"/>
+      <c r="V57" s="66">
         <f ca="1">V54+V56</f>
-        <v>83145.608370688016</v>
-      </c>
-    </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+        <v>83389.466316234873</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="N58" s="47"/>
-      <c r="O58" s="47"/>
-      <c r="P58" s="47"/>
-      <c r="Q58" s="47"/>
-      <c r="V58" s="54">
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="V58" s="67">
         <f>+Main!I5</f>
         <v>10008</v>
       </c>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B59" s="14" t="s">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B59" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="49"/>
-      <c r="O59" s="49"/>
-      <c r="P59" s="49"/>
-      <c r="Q59" s="49"/>
-      <c r="R59" s="49"/>
-      <c r="S59" s="49"/>
-      <c r="T59" s="49"/>
-      <c r="U59" s="49"/>
-      <c r="V59" s="50">
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="63"/>
+      <c r="O59" s="63"/>
+      <c r="P59" s="63"/>
+      <c r="Q59" s="63"/>
+      <c r="R59" s="63"/>
+      <c r="S59" s="63"/>
+      <c r="T59" s="63"/>
+      <c r="U59" s="63"/>
+      <c r="V59" s="64">
         <f>+Main!I6</f>
         <v>11296</v>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="N60" s="47"/>
-      <c r="O60" s="47"/>
-      <c r="P60" s="47"/>
-      <c r="Q60" s="47"/>
-      <c r="V60" s="54">
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="24"/>
+      <c r="V60" s="67">
         <f ca="1">V57+V58-V59</f>
-        <v>81857.608370688016</v>
-      </c>
-    </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B61" s="14" t="s">
+        <v>82101.466316234873</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B61" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="49"/>
-      <c r="O61" s="49"/>
-      <c r="P61" s="49"/>
-      <c r="Q61" s="49"/>
-      <c r="R61" s="49"/>
-      <c r="S61" s="49"/>
-      <c r="T61" s="49"/>
-      <c r="U61" s="49"/>
-      <c r="V61" s="50">
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="63"/>
+      <c r="O61" s="63"/>
+      <c r="P61" s="63"/>
+      <c r="Q61" s="63"/>
+      <c r="R61" s="63"/>
+      <c r="S61" s="63"/>
+      <c r="T61" s="63"/>
+      <c r="U61" s="63"/>
+      <c r="V61" s="64">
         <f>+Main!I3</f>
         <v>969</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="V62" s="54">
+      <c r="V62" s="67">
         <f ca="1">V60/V61</f>
-        <v>84.476376027541818</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" s="21" t="s">
+        <v>84.728035414071073</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A66" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
-      <c r="R66" s="22"/>
-      <c r="S66" s="22"/>
-      <c r="T66" s="22"/>
-      <c r="U66" s="22"/>
-      <c r="V66" s="22"/>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B68" s="55"/>
-      <c r="C68" s="73" t="s">
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="25"/>
+      <c r="T66" s="25"/>
+      <c r="U66" s="25"/>
+      <c r="V66" s="25"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B68" s="68"/>
+      <c r="C68" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="D68" s="73"/>
-      <c r="E68" s="73"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="73"/>
-      <c r="H68" s="73"/>
-      <c r="I68" s="73"/>
-      <c r="J68" s="74"/>
-      <c r="M68" s="55"/>
-      <c r="N68" s="75" t="s">
+      <c r="D68" s="69"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="69"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="69"/>
+      <c r="J68" s="70"/>
+      <c r="M68" s="68"/>
+      <c r="N68" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="O68" s="75"/>
-      <c r="P68" s="75"/>
-      <c r="Q68" s="75"/>
-      <c r="R68" s="75"/>
-      <c r="S68" s="75"/>
-      <c r="T68" s="75"/>
-      <c r="U68" s="76"/>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B69" s="77" t="s">
+      <c r="O68" s="71"/>
+      <c r="P68" s="71"/>
+      <c r="Q68" s="71"/>
+      <c r="R68" s="71"/>
+      <c r="S68" s="71"/>
+      <c r="T68" s="71"/>
+      <c r="U68" s="72"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B69" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="C69" s="56">
+      <c r="C69" s="74">
         <f ca="1">+J4</f>
-        <v>84.476376027541818</v>
-      </c>
-      <c r="D69" s="57">
+        <v>84.728035414071073</v>
+      </c>
+      <c r="D69" s="75">
         <v>0.01</v>
       </c>
-      <c r="E69" s="57">
+      <c r="E69" s="75">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F69" s="57">
+      <c r="F69" s="75">
         <v>0.02</v>
       </c>
-      <c r="G69" s="57">
+      <c r="G69" s="75">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H69" s="57">
+      <c r="H69" s="75">
         <v>0.03</v>
       </c>
-      <c r="I69" s="57">
+      <c r="I69" s="75">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J69" s="57">
+      <c r="J69" s="75">
         <v>0.04</v>
       </c>
-      <c r="M69" s="77" t="s">
+      <c r="M69" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="N69" s="56">
+      <c r="N69" s="74">
         <f ca="1">+J4</f>
-        <v>84.476376027541818</v>
-      </c>
-      <c r="O69" s="57">
+        <v>84.728035414071073</v>
+      </c>
+      <c r="O69" s="75">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P69" s="57">
+      <c r="P69" s="75">
         <v>0.08</v>
       </c>
-      <c r="Q69" s="57">
+      <c r="Q69" s="75">
         <v>0.09</v>
       </c>
-      <c r="R69" s="57">
+      <c r="R69" s="75">
         <v>0.1</v>
       </c>
-      <c r="S69" s="57">
+      <c r="S69" s="75">
         <v>0.11</v>
       </c>
-      <c r="T69" s="57">
+      <c r="T69" s="75">
         <v>0.12</v>
       </c>
-      <c r="U69" s="57">
+      <c r="U69" s="75">
         <v>0.13</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B70" s="77"/>
-      <c r="C70" s="58">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B70" s="73"/>
+      <c r="C70" s="76">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D70" s="59">
+      <c r="D70" s="77">
         <f t="dataTable" ref="D70:J76" dt2D="1" dtr="1" r1="E19" r2="E18" ca="1"/>
-        <v>103.48827343504711</v>
-      </c>
-      <c r="E70" s="59">
-        <v>105.25440422699502</v>
-      </c>
-      <c r="F70" s="59">
-        <v>107.30095605156153</v>
-      </c>
-      <c r="G70" s="60">
-        <v>109.71205521853216</v>
-      </c>
-      <c r="H70" s="59">
-        <v>112.60921750870828</v>
-      </c>
-      <c r="I70" s="59">
-        <v>116.17471659329202</v>
-      </c>
-      <c r="J70" s="59">
-        <v>120.69498252702948</v>
-      </c>
-      <c r="M70" s="77"/>
-      <c r="N70" s="58">
+        <v>103.75263059860433</v>
+      </c>
+      <c r="E70" s="77">
+        <v>105.52872376350795</v>
+      </c>
+      <c r="F70" s="77">
+        <v>107.58681975719402</v>
+      </c>
+      <c r="G70" s="78">
+        <v>110.01151942829723</v>
+      </c>
+      <c r="H70" s="77">
+        <v>112.92502400262327</v>
+      </c>
+      <c r="I70" s="77">
+        <v>116.51063531888076</v>
+      </c>
+      <c r="J70" s="77">
+        <v>121.05639912361177</v>
+      </c>
+      <c r="M70" s="73"/>
+      <c r="N70" s="76">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="O70" s="59">
+      <c r="O70" s="77">
         <f t="dataTable" ref="O70:U76" dt2D="1" dtr="1" r1="E20" r2="E18" ca="1"/>
-        <v>99.880177060270341</v>
-      </c>
-      <c r="P70" s="59">
-        <v>103.9767929595461</v>
-      </c>
-      <c r="Q70" s="59">
-        <v>107.16304977009391</v>
-      </c>
-      <c r="R70" s="60">
-        <v>109.71205521853216</v>
-      </c>
-      <c r="S70" s="59">
-        <v>111.79760513089072</v>
-      </c>
-      <c r="T70" s="59">
-        <v>113.53556339118951</v>
-      </c>
-      <c r="U70" s="59">
-        <v>115.0061434575962</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B71" s="77"/>
-      <c r="C71" s="58">
+        <v>100.12418170978417</v>
+      </c>
+      <c r="P70" s="77">
+        <v>104.2439057591646</v>
+      </c>
+      <c r="Q70" s="77">
+        <v>107.44813557534938</v>
+      </c>
+      <c r="R70" s="78">
+        <v>110.01151942829723</v>
+      </c>
+      <c r="S70" s="77">
+        <v>112.10883348979996</v>
+      </c>
+      <c r="T70" s="77">
+        <v>113.85659520771895</v>
+      </c>
+      <c r="U70" s="77">
+        <v>115.33547050749652</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B71" s="73"/>
+      <c r="C71" s="76">
         <v>0.08</v>
       </c>
-      <c r="D71" s="59">
-        <v>95.539372349671851</v>
-      </c>
-      <c r="E71" s="59">
-        <v>96.770744062303649</v>
-      </c>
-      <c r="F71" s="59">
-        <v>98.17163539885415</v>
-      </c>
-      <c r="G71" s="60">
-        <v>99.788278984028437</v>
-      </c>
-      <c r="H71" s="59">
-        <v>101.68540049241372</v>
-      </c>
-      <c r="I71" s="59">
-        <v>103.95649256508025</v>
-      </c>
-      <c r="J71" s="59">
-        <v>106.74179416363361</v>
-      </c>
-      <c r="M71" s="77"/>
-      <c r="N71" s="58">
+      <c r="D71" s="77">
+        <v>95.794557683967128</v>
+      </c>
+      <c r="E71" s="77">
+        <v>97.033322318163471</v>
+      </c>
+      <c r="F71" s="77">
+        <v>98.442624339859108</v>
+      </c>
+      <c r="G71" s="78">
+        <v>100.06897394564479</v>
+      </c>
+      <c r="H71" s="77">
+        <v>101.97748541074748</v>
+      </c>
+      <c r="I71" s="77">
+        <v>104.26221268827287</v>
+      </c>
+      <c r="J71" s="77">
+        <v>107.06423670787953</v>
+      </c>
+      <c r="M71" s="73"/>
+      <c r="N71" s="76">
         <v>0.08</v>
       </c>
-      <c r="O71" s="59">
-        <v>91.232032814646345</v>
-      </c>
-      <c r="P71" s="59">
-        <v>94.797135385222219</v>
-      </c>
-      <c r="Q71" s="59">
-        <v>97.56999294011456</v>
-      </c>
-      <c r="R71" s="60">
-        <v>99.788278984028437</v>
-      </c>
-      <c r="S71" s="59">
-        <v>101.60324029268524</v>
-      </c>
-      <c r="T71" s="59">
-        <v>103.11570804989925</v>
-      </c>
-      <c r="U71" s="59">
-        <v>104.39548845984957</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B72" s="77"/>
-      <c r="C72" s="58">
+      <c r="O71" s="77">
+        <v>91.461357701598445</v>
+      </c>
+      <c r="P71" s="77">
+        <v>95.04786446995108</v>
+      </c>
+      <c r="Q71" s="77">
+        <v>97.837369734225362</v>
+      </c>
+      <c r="R71" s="78">
+        <v>100.06897394564479</v>
+      </c>
+      <c r="S71" s="77">
+        <v>101.89483193680613</v>
+      </c>
+      <c r="T71" s="77">
+        <v>103.41638026277391</v>
+      </c>
+      <c r="U71" s="77">
+        <v>104.7038442309005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B72" s="73"/>
+      <c r="C72" s="76">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D72" s="60">
-        <v>88.660799465120419</v>
-      </c>
-      <c r="E72" s="60">
-        <v>89.501884254325063</v>
-      </c>
-      <c r="F72" s="60">
-        <v>90.440806298559167</v>
-      </c>
-      <c r="G72" s="60">
-        <v>91.502024911580037</v>
-      </c>
-      <c r="H72" s="60">
-        <v>92.718893703056821</v>
-      </c>
-      <c r="I72" s="60">
-        <v>94.138107726526314</v>
-      </c>
-      <c r="J72" s="60">
-        <v>95.827115392652729</v>
-      </c>
-      <c r="M72" s="77"/>
-      <c r="N72" s="58">
+      <c r="D72" s="78">
+        <v>88.907714092186637</v>
+      </c>
+      <c r="E72" s="78">
+        <v>89.754152624063096</v>
+      </c>
+      <c r="F72" s="78">
+        <v>90.699051172780727</v>
+      </c>
+      <c r="G72" s="78">
+        <v>91.767024742549793</v>
+      </c>
+      <c r="H72" s="78">
+        <v>92.991639248202546</v>
+      </c>
+      <c r="I72" s="78">
+        <v>94.419886970504066</v>
+      </c>
+      <c r="J72" s="78">
+        <v>96.119645648337283</v>
+      </c>
+      <c r="M72" s="73"/>
+      <c r="N72" s="76">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="O72" s="60">
-        <v>83.992339293681368</v>
-      </c>
-      <c r="P72" s="60">
-        <v>87.121374967805792</v>
-      </c>
-      <c r="Q72" s="60">
-        <v>89.555069381013695</v>
-      </c>
-      <c r="R72" s="60">
-        <v>91.502024911580037</v>
-      </c>
-      <c r="S72" s="60">
-        <v>93.094988527497932</v>
-      </c>
-      <c r="T72" s="60">
-        <v>94.422458207429514</v>
-      </c>
-      <c r="U72" s="60">
-        <v>95.54570178275624</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B73" s="77"/>
-      <c r="C73" s="58">
+      <c r="O72" s="78">
+        <v>84.209537850795698</v>
+      </c>
+      <c r="P72" s="78">
+        <v>87.358490722359917</v>
+      </c>
+      <c r="Q72" s="78">
+        <v>89.807676289132075</v>
+      </c>
+      <c r="R72" s="78">
+        <v>91.767024742549793</v>
+      </c>
+      <c r="S72" s="78">
+        <v>93.370128022618857</v>
+      </c>
+      <c r="T72" s="78">
+        <v>94.706047422676406</v>
+      </c>
+      <c r="U72" s="78">
+        <v>95.836440761186637</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B73" s="73"/>
+      <c r="C73" s="76">
         <v>0.09</v>
       </c>
-      <c r="D73" s="59">
-        <v>82.651583356641069</v>
-      </c>
-      <c r="E73" s="59">
-        <v>83.204940085139199</v>
-      </c>
-      <c r="F73" s="59">
-        <v>83.809282344834529</v>
-      </c>
-      <c r="G73" s="60">
-        <v>84.476376027541818</v>
-      </c>
-      <c r="H73" s="59">
-        <v>85.221908989014011</v>
-      </c>
-      <c r="I73" s="59">
-        <v>86.067273759823422</v>
-      </c>
-      <c r="J73" s="59">
-        <v>87.042419882771171</v>
-      </c>
-      <c r="M73" s="77"/>
-      <c r="N73" s="58">
+      <c r="D73" s="77">
+        <v>82.89097060527692</v>
+      </c>
+      <c r="E73" s="77">
+        <v>83.448048781249426</v>
+      </c>
+      <c r="F73" s="77">
+        <v>84.056455377493279</v>
+      </c>
+      <c r="G73" s="78">
+        <v>84.728035414071073</v>
+      </c>
+      <c r="H73" s="77">
+        <v>85.478582251066356</v>
+      </c>
+      <c r="I73" s="77">
+        <v>86.329632288592947</v>
+      </c>
+      <c r="J73" s="77">
+        <v>87.31133648681022</v>
+      </c>
+      <c r="M73" s="73"/>
+      <c r="N73" s="76">
         <v>0.09</v>
       </c>
-      <c r="O73" s="59">
-        <v>77.837822388949974</v>
-      </c>
-      <c r="P73" s="59">
-        <v>80.603886405029897</v>
-      </c>
-      <c r="Q73" s="59">
-        <v>82.755269528647631</v>
-      </c>
-      <c r="R73" s="60">
-        <v>84.476376027541818</v>
-      </c>
-      <c r="S73" s="59">
-        <v>85.884554072091589</v>
-      </c>
-      <c r="T73" s="59">
-        <v>87.05803577588307</v>
-      </c>
-      <c r="U73" s="59">
-        <v>88.050981832937424</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B74" s="77"/>
-      <c r="C74" s="58">
+      <c r="O73" s="77">
+        <v>78.044836020942356</v>
+      </c>
+      <c r="P73" s="77">
+        <v>80.82950243474599</v>
+      </c>
+      <c r="Q73" s="77">
+        <v>82.995354089926593</v>
+      </c>
+      <c r="R73" s="78">
+        <v>84.728035414071073</v>
+      </c>
+      <c r="S73" s="77">
+        <v>86.145683770189308</v>
+      </c>
+      <c r="T73" s="77">
+        <v>87.327057400287813</v>
+      </c>
+      <c r="U73" s="77">
+        <v>88.326681241140406</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B74" s="73"/>
+      <c r="C74" s="76">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D74" s="59">
-        <v>77.358048855782215</v>
-      </c>
-      <c r="E74" s="59">
-        <v>77.697738358157423</v>
-      </c>
-      <c r="F74" s="59">
-        <v>78.05762935436023</v>
-      </c>
-      <c r="G74" s="60">
-        <v>78.44205073592515</v>
-      </c>
-      <c r="H74" s="59">
-        <v>78.856663361012622</v>
-      </c>
-      <c r="I74" s="59">
-        <v>79.30901504050334</v>
-      </c>
-      <c r="J74" s="59">
-        <v>79.809398243779995</v>
-      </c>
-      <c r="M74" s="77"/>
-      <c r="N74" s="58">
+      <c r="D74" s="77">
+        <v>77.590530955541922</v>
+      </c>
+      <c r="E74" s="77">
+        <v>77.932626697371049</v>
+      </c>
+      <c r="F74" s="77">
+        <v>78.29506703321529</v>
+      </c>
+      <c r="G74" s="78">
+        <v>78.682211518935006</v>
+      </c>
+      <c r="H74" s="77">
+        <v>79.099761112193747</v>
+      </c>
+      <c r="I74" s="77">
+        <v>79.555317089876283</v>
+      </c>
+      <c r="J74" s="77">
+        <v>80.059244829552767</v>
+      </c>
+      <c r="M74" s="73"/>
+      <c r="N74" s="76">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="O74" s="59">
-        <v>72.537476568532028</v>
-      </c>
-      <c r="P74" s="59">
-        <v>74.997715804945827</v>
-      </c>
-      <c r="Q74" s="59">
-        <v>76.911235211045451</v>
-      </c>
-      <c r="R74" s="60">
-        <v>78.44205073592515</v>
-      </c>
-      <c r="S74" s="59">
-        <v>79.694536165372156</v>
-      </c>
-      <c r="T74" s="59">
-        <v>80.738274023244685</v>
-      </c>
-      <c r="U74" s="59">
-        <v>81.621436826059892</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B75" s="77"/>
-      <c r="C75" s="58">
+      <c r="O74" s="77">
+        <v>72.735811451062389</v>
+      </c>
+      <c r="P74" s="77">
+        <v>75.213478146009308</v>
+      </c>
+      <c r="Q74" s="77">
+        <v>77.140552242079139</v>
+      </c>
+      <c r="R74" s="78">
+        <v>78.682211518935006</v>
+      </c>
+      <c r="S74" s="77">
+        <v>79.943569109089793</v>
+      </c>
+      <c r="T74" s="77">
+        <v>80.994700434218771</v>
+      </c>
+      <c r="U74" s="77">
+        <v>81.884119247789457</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B75" s="73"/>
+      <c r="C75" s="76">
         <v>0.1</v>
       </c>
-      <c r="D75" s="59">
-        <v>72.66067891091231</v>
-      </c>
-      <c r="E75" s="59">
-        <v>72.840961808424424</v>
-      </c>
-      <c r="F75" s="59">
-        <v>73.021244705936567</v>
-      </c>
-      <c r="G75" s="60">
-        <v>73.201527603448696</v>
-      </c>
-      <c r="H75" s="59">
-        <v>73.381810500960825</v>
-      </c>
-      <c r="I75" s="59">
-        <v>73.562093398472939</v>
-      </c>
-      <c r="J75" s="59">
-        <v>73.742376295985082</v>
-      </c>
-      <c r="M75" s="77"/>
-      <c r="N75" s="58">
+      <c r="D75" s="77">
+        <v>72.886783511512093</v>
+      </c>
+      <c r="E75" s="77">
+        <v>73.068407814450453</v>
+      </c>
+      <c r="F75" s="77">
+        <v>73.250032117388841</v>
+      </c>
+      <c r="G75" s="78">
+        <v>73.431656420327201</v>
+      </c>
+      <c r="H75" s="77">
+        <v>73.613280723265575</v>
+      </c>
+      <c r="I75" s="77">
+        <v>73.794905026203921</v>
+      </c>
+      <c r="J75" s="77">
+        <v>73.976529329142323</v>
+      </c>
+      <c r="M75" s="73"/>
+      <c r="N75" s="76">
         <v>0.1</v>
       </c>
-      <c r="O75" s="59">
-        <v>67.921814176307777</v>
-      </c>
-      <c r="P75" s="59">
-        <v>70.12169477094983</v>
-      </c>
-      <c r="Q75" s="59">
-        <v>71.832713011226971</v>
-      </c>
-      <c r="R75" s="60">
-        <v>73.201527603448696</v>
-      </c>
-      <c r="S75" s="59">
-        <v>74.321466815266447</v>
-      </c>
-      <c r="T75" s="59">
-        <v>75.254749491781254</v>
-      </c>
-      <c r="U75" s="59">
-        <v>76.04445021806302</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B76" s="78"/>
-      <c r="C76" s="58">
+      <c r="O75" s="77">
+        <v>68.112658977132057</v>
+      </c>
+      <c r="P75" s="77">
+        <v>70.328907911796691</v>
+      </c>
+      <c r="Q75" s="77">
+        <v>72.052657083202533</v>
+      </c>
+      <c r="R75" s="78">
+        <v>73.431656420327201</v>
+      </c>
+      <c r="S75" s="77">
+        <v>74.559928605247364</v>
+      </c>
+      <c r="T75" s="77">
+        <v>75.500155426014203</v>
+      </c>
+      <c r="U75" s="77">
+        <v>76.295731966663055</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B76" s="79"/>
+      <c r="C76" s="76">
         <v>0.105</v>
       </c>
-      <c r="D76" s="59">
-        <v>68.465125342866813</v>
-      </c>
-      <c r="E76" s="59">
-        <v>68.526245323439412</v>
-      </c>
-      <c r="F76" s="59">
-        <v>68.574232085045978</v>
-      </c>
-      <c r="G76" s="60">
-        <v>68.606623149130414</v>
-      </c>
-      <c r="H76" s="59">
-        <v>68.620299376188285</v>
-      </c>
-      <c r="I76" s="59">
-        <v>68.611250443999623</v>
-      </c>
-      <c r="J76" s="59">
-        <v>68.574232085045978</v>
-      </c>
-      <c r="M76" s="78"/>
-      <c r="N76" s="58">
+      <c r="D76" s="77">
+        <v>68.685305071245949</v>
+      </c>
+      <c r="E76" s="77">
+        <v>68.746901541958863</v>
+      </c>
+      <c r="F76" s="77">
+        <v>68.795262407394631</v>
+      </c>
+      <c r="G76" s="78">
+        <v>68.827905991563767</v>
+      </c>
+      <c r="H76" s="77">
+        <v>68.84168883821296</v>
+      </c>
+      <c r="I76" s="77">
+        <v>68.832569360730773</v>
+      </c>
+      <c r="J76" s="77">
+        <v>68.795262407394631</v>
+      </c>
+      <c r="M76" s="79"/>
+      <c r="N76" s="76">
         <v>0.105</v>
       </c>
-      <c r="O76" s="59">
-        <v>63.863645908194805</v>
-      </c>
-      <c r="P76" s="59">
-        <v>65.839886425251308</v>
-      </c>
-      <c r="Q76" s="59">
-        <v>67.376962382961921</v>
-      </c>
-      <c r="R76" s="60">
-        <v>68.606623149130414</v>
-      </c>
-      <c r="S76" s="59">
-        <v>69.612709230541</v>
-      </c>
-      <c r="T76" s="59">
-        <v>70.45111429838316</v>
-      </c>
-      <c r="U76" s="59">
-        <v>71.160533971172683</v>
+      <c r="O76" s="77">
+        <v>64.047952595368116</v>
+      </c>
+      <c r="P76" s="77">
+        <v>66.03959984378298</v>
+      </c>
+      <c r="Q76" s="77">
+        <v>67.588658814772302</v>
+      </c>
+      <c r="R76" s="78">
+        <v>68.827905991563767</v>
+      </c>
+      <c r="S76" s="77">
+        <v>69.841835499847704</v>
+      </c>
+      <c r="T76" s="77">
+        <v>70.686776756750987</v>
+      </c>
+      <c r="U76" s="77">
+        <v>71.401727051053754</v>
       </c>
     </row>
   </sheetData>

--- a/PYPL.xlsx
+++ b/PYPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938B0258-E71F-4BBF-AB0D-A0CE941B772E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73850F2E-57BA-4385-9277-F572C60F9C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{B690896D-DF4D-4BA1-A25A-CD8C19559281}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{B690896D-DF4D-4BA1-A25A-CD8C19559281}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="337">
   <si>
     <t>PYPL</t>
   </si>
@@ -1070,6 +1070,9 @@
   </si>
   <si>
     <t xml:space="preserve"> typical fee: 2,99% in the US, currency conversion fees, instant transfer; </t>
+  </si>
+  <si>
+    <t>Deal with OpenAi</t>
   </si>
 </sst>
 </file>
@@ -1085,13 +1088,19 @@
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="\F\Y#,##0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1393,140 +1402,144 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1582,6 +1595,61 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE776124-9778-B1B2-C5B1-EDBAD05A6873}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9691688" y="957263"/>
+          <a:ext cx="19050" cy="4695825"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1953,10 +2021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F113AC37-A5A9-4DE4-95F6-ABC9256F2DCD}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1978,7 +2046,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="2">
-        <v>76.400000000000006</v>
+        <v>68.06</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1986,10 +2054,10 @@
         <v>4</v>
       </c>
       <c r="I3" s="3">
-        <v>969</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>324</v>
+        <v>935.65195300000005</v>
+      </c>
+      <c r="J3" s="80" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -2001,7 +2069,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I3*I2</f>
-        <v>74031.600000000006</v>
+        <v>63680.471921180004</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -2012,11 +2080,11 @@
         <v>6</v>
       </c>
       <c r="I5" s="3">
-        <f>6688+3320</f>
-        <v>10008</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>324</v>
+        <f>8995+1760</f>
+        <v>10755</v>
+      </c>
+      <c r="J5" s="80" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2024,10 +2092,10 @@
         <v>7</v>
       </c>
       <c r="I6" s="3">
-        <v>11296</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>324</v>
+        <v>11276</v>
+      </c>
+      <c r="J6" s="80" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2039,7 +2107,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>75319.600000000006</v>
+        <v>64201.471921180004</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -2157,8 +2225,13 @@
         <v>128000</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="81" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>333</v>
       </c>
     </row>
@@ -2174,11 +2247,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35B573E-9756-42F4-98C2-02394799BD8E}">
   <dimension ref="A1:AR236"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2520,7 +2593,9 @@
       <c r="L7" s="3">
         <v>438</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3">
+        <v>438</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3">
@@ -2596,7 +2671,9 @@
       <c r="L8" s="3">
         <v>6226</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="3">
+        <v>6331</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3">
@@ -2671,7 +2748,7 @@
         <v>63.737143718896093</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" ref="J9:K9" si="2">+J12/J8</f>
+        <f t="shared" ref="J9:M9" si="2">+J12/J8</f>
         <v>66.148360779573949</v>
       </c>
       <c r="K9" s="8">
@@ -2681,7 +2758,10 @@
       <c r="L9" s="8">
         <v>58.3</v>
       </c>
-      <c r="M9" s="8"/>
+      <c r="M9" s="8">
+        <f t="shared" si="2"/>
+        <v>72.356341810140577</v>
+      </c>
       <c r="N9" s="8"/>
       <c r="O9" s="3"/>
       <c r="P9" s="8">
@@ -2773,10 +2853,13 @@
         <v>956.89908256880733</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" ref="L10" si="8">+L12/L7</f>
+        <f t="shared" ref="L10:M10" si="8">+L12/L7</f>
         <v>1012.6643835616438</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" s="3">
+        <f t="shared" si="8"/>
+        <v>1045.8630136986301</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3">
@@ -2868,10 +2951,13 @@
         <v>13.864678899082568</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" ref="L11" si="14">+L8/L7</f>
+        <f t="shared" ref="L11:M11" si="14">+L8/L7</f>
         <v>14.214611872146119</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3">
+        <f t="shared" si="14"/>
+        <v>14.454337899543379</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3">
@@ -2956,7 +3042,9 @@
       <c r="L12" s="9">
         <v>443547</v>
       </c>
-      <c r="M12" s="9"/>
+      <c r="M12" s="9">
+        <v>458088</v>
+      </c>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="1">
@@ -3043,7 +3131,10 @@
         <f>+L19/L12</f>
         <v>1.8685731162650182E-2</v>
       </c>
-      <c r="M13" s="11"/>
+      <c r="M13" s="10">
+        <f>+M19/M12</f>
+        <v>1.8374198843890258E-2</v>
+      </c>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="10">
@@ -3165,7 +3256,9 @@
       <c r="L15" s="3">
         <v>4709</v>
       </c>
-      <c r="M15" s="3"/>
+      <c r="M15" s="3">
+        <v>4753</v>
+      </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3">
@@ -3242,7 +3335,9 @@
       <c r="L16" s="3">
         <v>3579</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="3">
+        <v>3664</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3">
@@ -3325,7 +3420,9 @@
       <c r="L17" s="3">
         <v>7441</v>
       </c>
-      <c r="M17" s="3"/>
+      <c r="M17" s="3">
+        <v>7522</v>
+      </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3">
@@ -3402,7 +3499,9 @@
       <c r="L18" s="3">
         <v>847</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M18" s="3">
+        <v>895</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3">
@@ -3487,7 +3586,9 @@
       <c r="L19" s="9">
         <v>8288</v>
       </c>
-      <c r="M19" s="9"/>
+      <c r="M19" s="9">
+        <v>8417</v>
+      </c>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9">
@@ -3572,7 +3673,9 @@
       <c r="L20" s="3">
         <v>3968</v>
       </c>
-      <c r="M20" s="3"/>
+      <c r="M20" s="3">
+        <v>4063</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3">
@@ -3660,7 +3763,9 @@
       <c r="L21" s="3">
         <v>476</v>
       </c>
-      <c r="M21" s="3"/>
+      <c r="M21" s="3">
+        <v>483</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3">
@@ -3744,7 +3849,7 @@
         <v>3654</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" ref="J22:L22" si="28">+J19-SUM(J20:J21)</f>
+        <f t="shared" ref="J22:M22" si="28">+J19-SUM(J20:J21)</f>
         <v>3935</v>
       </c>
       <c r="K22" s="3">
@@ -3755,7 +3860,10 @@
         <f t="shared" si="28"/>
         <v>3844</v>
       </c>
-      <c r="M22" s="3"/>
+      <c r="M22" s="3">
+        <f t="shared" si="28"/>
+        <v>3871</v>
+      </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3">
@@ -3849,7 +3957,9 @@
       <c r="L23" s="3">
         <v>413</v>
       </c>
-      <c r="M23" s="3"/>
+      <c r="M23" s="3">
+        <v>447</v>
+      </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3">
@@ -3934,7 +4044,9 @@
       <c r="L24" s="3">
         <v>583</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="3">
+        <v>521</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3">
@@ -4019,7 +4131,9 @@
       <c r="L25" s="3">
         <v>767</v>
       </c>
-      <c r="M25" s="3"/>
+      <c r="M25" s="3">
+        <v>801</v>
+      </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3">
@@ -4104,7 +4218,9 @@
       <c r="L26" s="3">
         <v>461</v>
       </c>
-      <c r="M26" s="3"/>
+      <c r="M26" s="3">
+        <v>513</v>
+      </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3">
@@ -4189,7 +4305,9 @@
       <c r="L27" s="3">
         <v>116</v>
       </c>
-      <c r="M27" s="3"/>
+      <c r="M27" s="3">
+        <v>69</v>
+      </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3">
@@ -4284,7 +4402,10 @@
         <f>+L22-SUM(L23:L27)</f>
         <v>1504</v>
       </c>
-      <c r="M28" s="3"/>
+      <c r="M28" s="3">
+        <f>+M22-SUM(M23:M27)</f>
+        <v>1520</v>
+      </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3">
@@ -4378,7 +4499,9 @@
       <c r="L29" s="3">
         <v>25</v>
       </c>
-      <c r="M29" s="3"/>
+      <c r="M29" s="3">
+        <v>13</v>
+      </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3">
@@ -4473,7 +4596,10 @@
         <f t="shared" si="41"/>
         <v>1529</v>
       </c>
-      <c r="M30" s="3"/>
+      <c r="M30" s="3">
+        <f t="shared" si="41"/>
+        <v>1533</v>
+      </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3">
@@ -4567,7 +4693,9 @@
       <c r="L31" s="3">
         <v>269</v>
       </c>
-      <c r="M31" s="3"/>
+      <c r="M31" s="3">
+        <v>285</v>
+      </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3">
@@ -4651,7 +4779,7 @@
         <v>1010</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" ref="J32:L32" si="43">+J30-J31</f>
+        <f t="shared" ref="J32:M32" si="43">+J30-J31</f>
         <v>1121</v>
       </c>
       <c r="K32" s="3">
@@ -4662,7 +4790,10 @@
         <f t="shared" si="43"/>
         <v>1260</v>
       </c>
-      <c r="M32" s="3"/>
+      <c r="M32" s="3">
+        <f t="shared" si="43"/>
+        <v>1248</v>
+      </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3">
@@ -4787,7 +4918,7 @@
         <v>1.3017641597028784</v>
       </c>
       <c r="G34" s="12">
-        <f t="shared" ref="G34:L34" si="47">+G32/G35</f>
+        <f t="shared" ref="G34:M34" si="47">+G32/G35</f>
         <v>0.83458646616541354</v>
       </c>
       <c r="H34" s="12">
@@ -4810,7 +4941,10 @@
         <f t="shared" si="47"/>
         <v>1.3003095975232197</v>
       </c>
-      <c r="M34" s="12"/>
+      <c r="M34" s="12">
+        <f t="shared" si="47"/>
+        <v>1.3136842105263158</v>
+      </c>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12">
@@ -4904,7 +5038,9 @@
       <c r="L35" s="3">
         <v>969</v>
       </c>
-      <c r="M35" s="3"/>
+      <c r="M35" s="3">
+        <v>950</v>
+      </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3">
@@ -5031,7 +5167,10 @@
         <f>+L7/H7-1</f>
         <v>2.0979020979021046E-2</v>
       </c>
-      <c r="M37" s="3"/>
+      <c r="M37" s="11">
+        <f>+M7/I7-1</f>
+        <v>1.388888888888884E-2</v>
+      </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
@@ -5120,7 +5259,10 @@
         <f>+L8/H8-1</f>
         <v>-5.3799392097264476E-2</v>
       </c>
-      <c r="M38" s="3"/>
+      <c r="M38" s="11">
+        <f>+M8/I8-1</f>
+        <v>-4.524204494043127E-2</v>
+      </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -5186,7 +5328,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="11">
-        <f t="shared" ref="G39:L39" si="54">+G12/C12-1</f>
+        <f t="shared" ref="G39:M39" si="54">+G12/C12-1</f>
         <v>0.1392126552856352</v>
       </c>
       <c r="H39" s="11">
@@ -5209,7 +5351,10 @@
         <f t="shared" si="54"/>
         <v>6.4136521326059182E-2</v>
       </c>
-      <c r="M39" s="11"/>
+      <c r="M39" s="11">
+        <f t="shared" si="54"/>
+        <v>8.387023502215829E-2</v>
+      </c>
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
@@ -5275,7 +5420,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="11">
-        <f t="shared" ref="G40:L42" si="56">+G17/C17-1</f>
+        <f t="shared" ref="G40:M42" si="56">+G17/C17-1</f>
         <v>0.10527969830295403</v>
       </c>
       <c r="H40" s="11">
@@ -5298,7 +5443,10 @@
         <f t="shared" si="56"/>
         <v>4.0262826785963934E-2</v>
       </c>
-      <c r="M40" s="11"/>
+      <c r="M40" s="11">
+        <f t="shared" si="56"/>
+        <v>6.438375548323183E-2</v>
+      </c>
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
@@ -5387,7 +5535,10 @@
         <f t="shared" si="56"/>
         <v>0.15710382513661192</v>
       </c>
-      <c r="M41" s="11"/>
+      <c r="M41" s="11">
+        <f t="shared" si="56"/>
+        <v>0.14743589743589736</v>
+      </c>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
@@ -5476,7 +5627,10 @@
         <f t="shared" si="56"/>
         <v>5.1109701965757814E-2</v>
       </c>
-      <c r="M42" s="13"/>
+      <c r="M42" s="13">
+        <f t="shared" si="56"/>
+        <v>7.2639225181598155E-2</v>
+      </c>
       <c r="N42" s="13"/>
       <c r="O42" s="11"/>
       <c r="P42" s="13"/>
@@ -5577,23 +5731,26 @@
         <f t="shared" si="62"/>
         <v>0.46380308880308879</v>
       </c>
-      <c r="M43" s="11"/>
+      <c r="M43" s="11">
+        <f t="shared" ref="M43" si="63">+M22/M19</f>
+        <v>0.45990257811571816</v>
+      </c>
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11">
-        <f t="shared" ref="P43:S43" si="63">+P22/P19</f>
+        <f t="shared" ref="P43:S43" si="64">+P22/P19</f>
         <v>0.5242575170632725</v>
       </c>
       <c r="Q43" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.52382770734687645</v>
       </c>
       <c r="R43" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.50611610898970938</v>
       </c>
       <c r="S43" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.54028809363042984</v>
       </c>
       <c r="T43" s="11">
@@ -5642,82 +5799,85 @@
         <v>43</v>
       </c>
       <c r="C44" s="11">
-        <f t="shared" ref="C44:J44" si="64">+C28/C19</f>
+        <f t="shared" ref="C44:J44" si="65">+C28/C19</f>
         <v>0.14190340909090909</v>
       </c>
       <c r="D44" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.15548236585700562</v>
       </c>
       <c r="E44" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.15745483957940146</v>
       </c>
       <c r="F44" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.21530027410914529</v>
       </c>
       <c r="G44" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.15170801402779582</v>
       </c>
       <c r="H44" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.16804058338617628</v>
       </c>
       <c r="I44" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.17726519689053141</v>
       </c>
       <c r="J44" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.17224480038250059</v>
       </c>
       <c r="K44" s="11">
-        <f t="shared" ref="K44:L44" si="65">+K28/K19</f>
+        <f t="shared" ref="K44:L44" si="66">+K28/K19</f>
         <v>0.19638043896804006</v>
       </c>
       <c r="L44" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.18146718146718147</v>
       </c>
-      <c r="M44" s="11"/>
+      <c r="M44" s="11">
+        <f t="shared" ref="M44" si="67">+M28/M19</f>
+        <v>0.18058690744920994</v>
+      </c>
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11">
-        <f t="shared" ref="P44:R44" si="66">+P28/P19</f>
+        <f t="shared" ref="P44:R44" si="68">+P28/P19</f>
         <v>0.14628297362110312</v>
       </c>
       <c r="Q44" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0.16244081258591722</v>
       </c>
       <c r="R44" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0.1419972817293379</v>
       </c>
       <c r="S44" s="11">
-        <f t="shared" ref="S44:X44" si="67">+S28/S19</f>
+        <f t="shared" ref="S44:X44" si="69">+S28/S19</f>
         <v>0.15299347287868556</v>
       </c>
       <c r="T44" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0.15330474503589075</v>
       </c>
       <c r="U44" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0.16798707185369122</v>
       </c>
       <c r="V44" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0.13943600552365723</v>
       </c>
       <c r="W44" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0.16888918746431092</v>
       </c>
       <c r="X44" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0.16746862911595434</v>
       </c>
       <c r="Y44" s="11"/>
@@ -5746,27 +5906,27 @@
         <v>44</v>
       </c>
       <c r="C45" s="11">
-        <f t="shared" ref="C45:H45" si="68">+C31/C30</f>
+        <f t="shared" ref="C45:H45" si="70">+C31/C30</f>
         <v>0.25977653631284914</v>
       </c>
       <c r="D45" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0.21028396009209516</v>
       </c>
       <c r="E45" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0.17808219178082191</v>
       </c>
       <c r="F45" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0.2180702732849972</v>
       </c>
       <c r="G45" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0.26550868486352358</v>
       </c>
       <c r="H45" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0.1937097927090779</v>
       </c>
       <c r="I45" s="11">
@@ -5774,54 +5934,57 @@
         <v>0.2295957284515637</v>
       </c>
       <c r="J45" s="11">
-        <f t="shared" ref="J45:X45" si="69">+J31/J30</f>
+        <f t="shared" ref="J45:X45" si="71">+J31/J30</f>
         <v>0.20496453900709219</v>
       </c>
       <c r="K45" s="11">
-        <f t="shared" ref="K45:L45" si="70">+K31/K30</f>
+        <f t="shared" ref="K45:L45" si="72">+K31/K30</f>
         <v>0.19713038053649407</v>
       </c>
       <c r="L45" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0.17593198168737736</v>
       </c>
-      <c r="M45" s="11"/>
+      <c r="M45" s="11">
+        <f t="shared" ref="M45" si="73">+M31/M30</f>
+        <v>0.18590998043052837</v>
+      </c>
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11">
-        <f t="shared" ref="P45:R45" si="71">+P31/P30</f>
+        <f t="shared" ref="P45:R45" si="74">+P31/P30</f>
         <v>0.14101778050275904</v>
       </c>
       <c r="Q45" s="11">
+        <f t="shared" si="74"/>
+        <v>0.18409090909090908</v>
+      </c>
+      <c r="R45" s="11">
+        <f t="shared" si="74"/>
+        <v>0.13425925925925927</v>
+      </c>
+      <c r="S45" s="11">
         <f t="shared" si="71"/>
-        <v>0.18409090909090908</v>
-      </c>
-      <c r="R45" s="11">
+        <v>0.17978652434956638</v>
+      </c>
+      <c r="T45" s="11">
+        <f t="shared" ref="T45:U45" si="75">+T31/T30</f>
+        <v>0.17038499506416585</v>
+      </c>
+      <c r="U45" s="11">
+        <f t="shared" si="75"/>
+        <v>-1.7077335935594046E-2</v>
+      </c>
+      <c r="V45" s="11">
         <f t="shared" si="71"/>
-        <v>0.13425925925925927</v>
-      </c>
-      <c r="S45" s="11">
-        <f t="shared" si="69"/>
-        <v>0.17978652434956638</v>
-      </c>
-      <c r="T45" s="11">
-        <f t="shared" ref="T45:U45" si="72">+T31/T30</f>
-        <v>0.17038499506416585</v>
-      </c>
-      <c r="U45" s="11">
-        <f t="shared" si="72"/>
-        <v>-1.7077335935594046E-2</v>
-      </c>
-      <c r="V45" s="11">
-        <f t="shared" si="69"/>
         <v>0.28134284016636957</v>
       </c>
       <c r="W45" s="11">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>0.21530216226205878</v>
       </c>
       <c r="X45" s="11">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>0.22180521673860012</v>
       </c>
       <c r="Y45" s="11"/>
@@ -6336,31 +6499,31 @@
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3">
-        <f t="shared" ref="Q54:W54" si="73">+SUM(Q48:Q53)</f>
+        <f t="shared" ref="Q54:W54" si="76">+SUM(Q48:Q53)</f>
         <v>32645</v>
       </c>
       <c r="R54" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>32963</v>
       </c>
       <c r="S54" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>38495</v>
       </c>
       <c r="T54" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>50995</v>
       </c>
       <c r="U54" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>52574</v>
       </c>
       <c r="V54" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>57517</v>
       </c>
       <c r="W54" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>62569</v>
       </c>
       <c r="X54" s="3">
@@ -6730,23 +6893,23 @@
         <v>10369</v>
       </c>
       <c r="S60" s="3">
-        <f t="shared" ref="S60:W60" si="74">+SUM(S55:S59)</f>
+        <f t="shared" ref="S60:W60" si="77">+SUM(S55:S59)</f>
         <v>12838</v>
       </c>
       <c r="T60" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>19384</v>
       </c>
       <c r="U60" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>23229</v>
       </c>
       <c r="V60" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>21200</v>
       </c>
       <c r="W60" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>19597</v>
       </c>
       <c r="X60" s="3">
@@ -6801,23 +6964,23 @@
         <v>43332</v>
       </c>
       <c r="S61" s="3">
-        <f t="shared" ref="S61:W61" si="75">+S60+S54</f>
+        <f t="shared" ref="S61:W61" si="78">+S60+S54</f>
         <v>51333</v>
       </c>
       <c r="T61" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>70379</v>
       </c>
       <c r="U61" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>75803</v>
       </c>
       <c r="V61" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>78717</v>
       </c>
       <c r="W61" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>82166</v>
       </c>
       <c r="X61" s="3">
@@ -7126,31 +7289,31 @@
         <v>22863</v>
       </c>
       <c r="R66" s="3">
-        <f t="shared" ref="R66:X66" si="76">+SUM(R62:R65)</f>
+        <f t="shared" ref="R66:X66" si="79">+SUM(R62:R65)</f>
         <v>25904</v>
       </c>
       <c r="S66" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>26919</v>
       </c>
       <c r="T66" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>38447</v>
       </c>
       <c r="U66" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>43029</v>
       </c>
       <c r="V66" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>45101</v>
       </c>
       <c r="W66" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>48466</v>
       </c>
       <c r="X66" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>48376</v>
       </c>
       <c r="Y66" s="3"/>
@@ -7319,27 +7482,27 @@
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3">
-        <f t="shared" ref="Q69:V69" si="77">+SUM(Q67:Q68)</f>
+        <f t="shared" ref="Q69:V69" si="80">+SUM(Q67:Q68)</f>
         <v>1917</v>
       </c>
       <c r="R69" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>2042</v>
       </c>
       <c r="S69" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>7485</v>
       </c>
       <c r="T69" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>11869</v>
       </c>
       <c r="U69" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>11047</v>
       </c>
       <c r="V69" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>13342</v>
       </c>
       <c r="W69" s="3">
@@ -7390,31 +7553,31 @@
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3">
-        <f t="shared" ref="Q70:W70" si="78">+Q69+Q66</f>
+        <f t="shared" ref="Q70:W70" si="81">+Q69+Q66</f>
         <v>24780</v>
       </c>
       <c r="R70" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>27946</v>
       </c>
       <c r="S70" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>34404</v>
       </c>
       <c r="T70" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>50316</v>
       </c>
       <c r="U70" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>54076</v>
       </c>
       <c r="V70" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>58443</v>
       </c>
       <c r="W70" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>61115</v>
       </c>
       <c r="X70" s="3">
@@ -7524,31 +7687,31 @@
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
       <c r="Q72" s="3">
-        <f t="shared" ref="Q72:W72" si="79">+Q70+Q71</f>
+        <f t="shared" ref="Q72:W72" si="82">+Q70+Q71</f>
         <v>40774</v>
       </c>
       <c r="R72" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>43332</v>
       </c>
       <c r="S72" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>51333</v>
       </c>
       <c r="T72" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>70379</v>
       </c>
       <c r="U72" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>75803</v>
       </c>
       <c r="V72" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>78717</v>
       </c>
       <c r="W72" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>82166</v>
       </c>
       <c r="X72" s="3">
@@ -7638,35 +7801,35 @@
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3">
-        <f t="shared" ref="P74:W74" si="80">+P32</f>
+        <f t="shared" ref="P74:W74" si="83">+P32</f>
         <v>1401</v>
       </c>
       <c r="Q74" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>1795</v>
       </c>
       <c r="R74" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>2057</v>
       </c>
       <c r="S74" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>2459</v>
       </c>
       <c r="T74" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>4202</v>
       </c>
       <c r="U74" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>4169</v>
       </c>
       <c r="V74" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>2419</v>
       </c>
       <c r="W74" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>4246</v>
       </c>
       <c r="X74" s="3">
@@ -8699,35 +8862,35 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3">
-        <f t="shared" ref="P90:S90" si="81">+SUM(P85:P89)</f>
+        <f t="shared" ref="P90:S90" si="84">+SUM(P85:P89)</f>
         <v>-481</v>
       </c>
       <c r="Q90" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>-581</v>
       </c>
       <c r="R90" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>622</v>
       </c>
       <c r="S90" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>-1075</v>
       </c>
       <c r="T90" s="3">
-        <f t="shared" ref="T90" si="82">+SUM(T85:T89)</f>
+        <f t="shared" ref="T90" si="85">+SUM(T85:T89)</f>
         <v>-952</v>
       </c>
       <c r="U90" s="3">
-        <f t="shared" ref="U90:W90" si="83">+SUM(U85:U89)</f>
+        <f t="shared" ref="U90:W90" si="86">+SUM(U85:U89)</f>
         <v>-1102</v>
       </c>
       <c r="V90" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>-454</v>
       </c>
       <c r="W90" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>-1314</v>
       </c>
       <c r="X90" s="3">
@@ -8773,35 +8936,35 @@
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
       <c r="P91" s="3">
-        <f t="shared" ref="P91:W91" si="84">+SUM(P74:P84)+P90</f>
+        <f t="shared" ref="P91:W91" si="87">+SUM(P74:P84)+P90</f>
         <v>3158</v>
       </c>
       <c r="Q91" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>2531</v>
       </c>
       <c r="R91" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>5483</v>
       </c>
       <c r="S91" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>4071</v>
       </c>
       <c r="T91" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>5854</v>
       </c>
       <c r="U91" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>6340</v>
       </c>
       <c r="V91" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>5813</v>
       </c>
       <c r="W91" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>4843</v>
       </c>
       <c r="X91" s="3">
@@ -9498,35 +9661,35 @@
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
       <c r="P102" s="3">
-        <f t="shared" ref="P102:W102" si="85">+SUM(P92:P101)</f>
+        <f t="shared" ref="P102:W102" si="88">+SUM(P92:P101)</f>
         <v>-5904</v>
       </c>
       <c r="Q102" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>-4485</v>
       </c>
       <c r="R102" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>840</v>
       </c>
       <c r="S102" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>-5742</v>
       </c>
       <c r="T102" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>-16218</v>
       </c>
       <c r="U102" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>-5485</v>
       </c>
       <c r="V102" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>-3328</v>
       </c>
       <c r="W102" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>752</v>
       </c>
       <c r="X102" s="3">
@@ -10094,35 +10257,35 @@
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
       <c r="P111" s="3">
-        <f t="shared" ref="P111:W111" si="86">+SUM(P103:P110)</f>
+        <f t="shared" ref="P111:W111" si="89">+SUM(P103:P110)</f>
         <v>2038</v>
       </c>
       <c r="Q111" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>4084</v>
       </c>
       <c r="R111" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>-1262</v>
       </c>
       <c r="S111" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>4187</v>
       </c>
       <c r="T111" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>12492</v>
       </c>
       <c r="U111" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>-764</v>
       </c>
       <c r="V111" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>-1203</v>
       </c>
       <c r="W111" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>-2993</v>
       </c>
       <c r="X111" s="3">
@@ -10233,39 +10396,39 @@
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
       <c r="P113" s="3">
-        <f t="shared" ref="P113" si="87">+SUM(P112,P111,P102,P91)</f>
+        <f t="shared" ref="P113" si="90">+SUM(P112,P111,P102,P91)</f>
         <v>-708</v>
       </c>
       <c r="Q113" s="3">
-        <f t="shared" ref="Q113" si="88">+SUM(Q112,Q111,Q102,Q91)</f>
+        <f t="shared" ref="Q113" si="91">+SUM(Q112,Q111,Q102,Q91)</f>
         <v>2166</v>
       </c>
       <c r="R113" s="3">
-        <f t="shared" ref="R113" si="89">+SUM(R112,R111,R102,R91)</f>
+        <f t="shared" ref="R113" si="92">+SUM(R112,R111,R102,R91)</f>
         <v>4948</v>
       </c>
       <c r="S113" s="3">
-        <f t="shared" ref="S113:X113" si="90">+SUM(S112,S111,S102,S91)</f>
+        <f t="shared" ref="S113:X113" si="93">+SUM(S112,S111,S102,S91)</f>
         <v>2510</v>
       </c>
       <c r="T113" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>2297</v>
       </c>
       <c r="U113" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>-11</v>
       </c>
       <c r="V113" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>1127</v>
       </c>
       <c r="W113" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>2678</v>
       </c>
       <c r="X113" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>556</v>
       </c>
       <c r="Y113" s="3"/>
@@ -10307,35 +10470,35 @@
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
       <c r="P114" s="3">
-        <f t="shared" ref="P114:W114" si="91">+P115-P113</f>
+        <f t="shared" ref="P114:W114" si="94">+P115-P113</f>
         <v>6827</v>
       </c>
       <c r="Q114" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>6119</v>
       </c>
       <c r="R114" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>8285</v>
       </c>
       <c r="S114" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>13233</v>
       </c>
       <c r="T114" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>15743</v>
       </c>
       <c r="U114" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>18040</v>
       </c>
       <c r="V114" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>18029</v>
       </c>
       <c r="W114" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>19156</v>
       </c>
       <c r="X114" s="3">
@@ -10380,35 +10543,35 @@
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
       <c r="P115" s="3">
-        <f t="shared" ref="P115:W115" si="92">+Q114</f>
+        <f t="shared" ref="P115:W115" si="95">+Q114</f>
         <v>6119</v>
       </c>
       <c r="Q115" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>8285</v>
       </c>
       <c r="R115" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>13233</v>
       </c>
       <c r="S115" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>15743</v>
       </c>
       <c r="T115" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>18040</v>
       </c>
       <c r="U115" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>18029</v>
       </c>
       <c r="V115" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>19156</v>
       </c>
       <c r="W115" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>21834</v>
       </c>
       <c r="X115" s="3">
@@ -15765,6 +15928,7 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{CA44E9E1-3CA1-452F-AF24-49FEDDA86509}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16747,14 +16911,14 @@
       </c>
       <c r="J3" s="33">
         <f>+Main!I2</f>
-        <v>76.400000000000006</v>
+        <v>68.06</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>145</v>
       </c>
       <c r="O3" s="33">
         <f>+J3</f>
-        <v>76.400000000000006</v>
+        <v>68.06</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
@@ -16763,14 +16927,14 @@
       </c>
       <c r="E4" s="34">
         <f ca="1">+TODAY()</f>
-        <v>45902</v>
+        <v>45961</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>147</v>
       </c>
       <c r="J4" s="35">
         <f ca="1">V62</f>
-        <v>84.728035414071073</v>
+        <v>89.115098050464908</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>148</v>
@@ -16792,7 +16956,7 @@
       </c>
       <c r="J5" s="37">
         <f ca="1">J4/J3-1</f>
-        <v>0.10900569913705582</v>
+        <v>0.30936082942205267</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>150</v>
@@ -18376,43 +18540,43 @@
       <c r="L52" s="61"/>
       <c r="M52" s="61">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>1340.0880008879531</v>
+        <v>685.28526654816153</v>
       </c>
       <c r="N52" s="61">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>4181.1533276002183</v>
+        <v>4240.6251145630968</v>
       </c>
       <c r="O52" s="61">
         <f t="shared" ref="O52:U52" ca="1" si="21">O51/(1+$E$18)^O53</f>
-        <v>4297.9465544411059</v>
+        <v>4359.0795820620424</v>
       </c>
       <c r="P52" s="61">
         <f t="shared" ca="1" si="21"/>
-        <v>4404.0494535392072</v>
+        <v>4466.6916649945788</v>
       </c>
       <c r="Q52" s="61">
         <f t="shared" ca="1" si="21"/>
-        <v>4345.1494710682928</v>
+        <v>4406.9539023861835</v>
       </c>
       <c r="R52" s="61">
         <f t="shared" ca="1" si="21"/>
-        <v>4202.2963662929824</v>
+        <v>4262.0688870951535</v>
       </c>
       <c r="S52" s="61">
         <f t="shared" ca="1" si="21"/>
-        <v>4053.6986650949761</v>
+        <v>4111.3575655306131</v>
       </c>
       <c r="T52" s="61">
         <f t="shared" ca="1" si="21"/>
-        <v>3900.7872409562051</v>
+        <v>3956.2711635979058</v>
       </c>
       <c r="U52" s="61">
         <f t="shared" ca="1" si="21"/>
-        <v>3744.8968602931632</v>
+        <v>3798.1634331316045</v>
       </c>
       <c r="V52" s="62">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>3587.2588924685456</v>
+        <v>3638.2832582159817</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.2">
@@ -18421,43 +18585,43 @@
       </c>
       <c r="M53" s="23">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.33055555555555555</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N53" s="23">
         <f ca="1">M53+1</f>
-        <v>1.3305555555555555</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="O53" s="23">
         <f ca="1">N53+1</f>
-        <v>2.3305555555555557</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="P53" s="23">
         <f t="shared" ref="P53:V53" ca="1" si="22">O53+1</f>
-        <v>3.3305555555555557</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="Q53" s="23">
         <f t="shared" ca="1" si="22"/>
-        <v>4.3305555555555557</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="R53" s="23">
         <f t="shared" ca="1" si="22"/>
-        <v>5.3305555555555557</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="S53" s="23">
         <f t="shared" ca="1" si="22"/>
-        <v>6.3305555555555557</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="T53" s="23">
         <f t="shared" ca="1" si="22"/>
-        <v>7.3305555555555557</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="U53" s="23">
         <f t="shared" ca="1" si="22"/>
-        <v>8.3305555555555557</v>
+        <v>8.1666666666666679</v>
       </c>
       <c r="V53" s="23">
         <f t="shared" ca="1" si="22"/>
-        <v>9.3305555555555557</v>
+        <v>9.1666666666666679</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.2">
@@ -18470,7 +18634,7 @@
       <c r="Q54" s="24"/>
       <c r="V54" s="17">
         <f ca="1">SUM(M52:V52)</f>
-        <v>38057.324832642647</v>
+        <v>37924.779838125323</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.2">
@@ -18514,7 +18678,7 @@
       <c r="U56" s="63"/>
       <c r="V56" s="64">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>45332.141483592233</v>
+        <v>45976.935694578671</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.2">
@@ -18542,7 +18706,7 @@
       <c r="U57" s="65"/>
       <c r="V57" s="66">
         <f ca="1">V54+V56</f>
-        <v>83389.466316234873</v>
+        <v>83901.715532703995</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.2">
@@ -18555,7 +18719,7 @@
       <c r="Q58" s="24"/>
       <c r="V58" s="67">
         <f>+Main!I5</f>
-        <v>10008</v>
+        <v>10755</v>
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.2">
@@ -18583,7 +18747,7 @@
       <c r="U59" s="63"/>
       <c r="V59" s="64">
         <f>+Main!I6</f>
-        <v>11296</v>
+        <v>11276</v>
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.2">
@@ -18596,7 +18760,7 @@
       <c r="Q60" s="24"/>
       <c r="V60" s="67">
         <f ca="1">V57+V58-V59</f>
-        <v>82101.466316234873</v>
+        <v>83380.715532703995</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.2">
@@ -18624,7 +18788,7 @@
       <c r="U61" s="63"/>
       <c r="V61" s="64">
         <f>+Main!I3</f>
-        <v>969</v>
+        <v>935.65195300000005</v>
       </c>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.2">
@@ -18633,7 +18797,7 @@
       </c>
       <c r="V62" s="67">
         <f ca="1">V60/V61</f>
-        <v>84.728035414071073</v>
+        <v>89.115098050464908</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
@@ -18666,450 +18830,450 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B68" s="68"/>
-      <c r="C68" s="69" t="s">
+      <c r="C68" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="D68" s="69"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="69"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="69"/>
-      <c r="J68" s="70"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="74"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="74"/>
+      <c r="J68" s="75"/>
       <c r="M68" s="68"/>
-      <c r="N68" s="71" t="s">
+      <c r="N68" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="O68" s="71"/>
-      <c r="P68" s="71"/>
-      <c r="Q68" s="71"/>
-      <c r="R68" s="71"/>
-      <c r="S68" s="71"/>
-      <c r="T68" s="71"/>
-      <c r="U68" s="72"/>
+      <c r="O68" s="76"/>
+      <c r="P68" s="76"/>
+      <c r="Q68" s="76"/>
+      <c r="R68" s="76"/>
+      <c r="S68" s="76"/>
+      <c r="T68" s="76"/>
+      <c r="U68" s="77"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B69" s="73" t="s">
+      <c r="B69" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="C69" s="74">
+      <c r="C69" s="69">
         <f ca="1">+J4</f>
-        <v>84.728035414071073</v>
-      </c>
-      <c r="D69" s="75">
+        <v>89.115098050464908</v>
+      </c>
+      <c r="D69" s="70">
         <v>0.01</v>
       </c>
-      <c r="E69" s="75">
+      <c r="E69" s="70">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F69" s="75">
+      <c r="F69" s="70">
         <v>0.02</v>
       </c>
-      <c r="G69" s="75">
+      <c r="G69" s="70">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H69" s="75">
+      <c r="H69" s="70">
         <v>0.03</v>
       </c>
-      <c r="I69" s="75">
+      <c r="I69" s="70">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J69" s="75">
+      <c r="J69" s="70">
         <v>0.04</v>
       </c>
-      <c r="M69" s="73" t="s">
+      <c r="M69" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="N69" s="74">
+      <c r="N69" s="69">
         <f ca="1">+J4</f>
-        <v>84.728035414071073</v>
-      </c>
-      <c r="O69" s="75">
+        <v>89.115098050464908</v>
+      </c>
+      <c r="O69" s="70">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P69" s="75">
+      <c r="P69" s="70">
         <v>0.08</v>
       </c>
-      <c r="Q69" s="75">
+      <c r="Q69" s="70">
         <v>0.09</v>
       </c>
-      <c r="R69" s="75">
+      <c r="R69" s="70">
         <v>0.1</v>
       </c>
-      <c r="S69" s="75">
+      <c r="S69" s="70">
         <v>0.11</v>
       </c>
-      <c r="T69" s="75">
+      <c r="T69" s="70">
         <v>0.12</v>
       </c>
-      <c r="U69" s="75">
+      <c r="U69" s="70">
         <v>0.13</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="73"/>
-      <c r="C70" s="76">
+      <c r="B70" s="78"/>
+      <c r="C70" s="71">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D70" s="77">
+      <c r="D70" s="72">
         <f t="dataTable" ref="D70:J76" dt2D="1" dtr="1" r1="E19" r2="E18" ca="1"/>
-        <v>103.75263059860433</v>
-      </c>
-      <c r="E70" s="77">
-        <v>105.52872376350795</v>
-      </c>
-      <c r="F70" s="77">
-        <v>107.58681975719402</v>
-      </c>
-      <c r="G70" s="78">
-        <v>110.01151942829723</v>
-      </c>
-      <c r="H70" s="77">
-        <v>112.92502400262327</v>
-      </c>
-      <c r="I70" s="77">
-        <v>116.51063531888076</v>
-      </c>
-      <c r="J70" s="77">
-        <v>121.05639912361177</v>
-      </c>
-      <c r="M70" s="73"/>
-      <c r="N70" s="76">
+        <v>108.84596062521658</v>
+      </c>
+      <c r="E70" s="72">
+        <v>110.70728767960999</v>
+      </c>
+      <c r="F70" s="72">
+        <v>112.86415074810472</v>
+      </c>
+      <c r="G70" s="73">
+        <v>115.40521063493111</v>
+      </c>
+      <c r="H70" s="72">
+        <v>118.45853294619977</v>
+      </c>
+      <c r="I70" s="72">
+        <v>122.21621609107655</v>
+      </c>
+      <c r="J70" s="72">
+        <v>126.98012899825069</v>
+      </c>
+      <c r="M70" s="78"/>
+      <c r="N70" s="71">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="O70" s="77">
+      <c r="O70" s="72">
         <f t="dataTable" ref="O70:U76" dt2D="1" dtr="1" r1="E20" r2="E18" ca="1"/>
-        <v>100.12418170978417</v>
-      </c>
-      <c r="P70" s="77">
-        <v>104.2439057591646</v>
-      </c>
-      <c r="Q70" s="77">
-        <v>107.44813557534938</v>
-      </c>
-      <c r="R70" s="78">
-        <v>110.01151942829723</v>
-      </c>
-      <c r="S70" s="77">
-        <v>112.10883348979996</v>
-      </c>
-      <c r="T70" s="77">
-        <v>113.85659520771895</v>
-      </c>
-      <c r="U70" s="77">
-        <v>115.33547050749652</v>
+        <v>105.04338415248345</v>
+      </c>
+      <c r="P70" s="72">
+        <v>109.36081185350331</v>
+      </c>
+      <c r="Q70" s="72">
+        <v>112.71881117651874</v>
+      </c>
+      <c r="R70" s="73">
+        <v>115.40521063493111</v>
+      </c>
+      <c r="S70" s="72">
+        <v>117.60317382817757</v>
+      </c>
+      <c r="T70" s="72">
+        <v>119.43480982254964</v>
+      </c>
+      <c r="U70" s="72">
+        <v>120.98465566394137</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="73"/>
-      <c r="C71" s="76">
+      <c r="B71" s="78"/>
+      <c r="C71" s="71">
         <v>0.08</v>
       </c>
-      <c r="D71" s="77">
-        <v>95.794557683967128</v>
-      </c>
-      <c r="E71" s="77">
-        <v>97.033322318163471</v>
-      </c>
-      <c r="F71" s="77">
-        <v>98.442624339859108</v>
-      </c>
-      <c r="G71" s="78">
-        <v>100.06897394564479</v>
-      </c>
-      <c r="H71" s="77">
-        <v>101.97748541074748</v>
-      </c>
-      <c r="I71" s="77">
-        <v>104.26221268827287</v>
-      </c>
-      <c r="J71" s="77">
-        <v>107.06423670787953</v>
-      </c>
-      <c r="M71" s="73"/>
-      <c r="N71" s="76">
+      <c r="D71" s="72">
+        <v>100.58397892433419</v>
+      </c>
+      <c r="E71" s="72">
+        <v>101.88317897502496</v>
+      </c>
+      <c r="F71" s="72">
+        <v>103.36123639407084</v>
+      </c>
+      <c r="G71" s="73">
+        <v>105.06693046375054</v>
+      </c>
+      <c r="H71" s="72">
+        <v>107.06855217925417</v>
+      </c>
+      <c r="I71" s="72">
+        <v>109.46474408918974</v>
+      </c>
+      <c r="J71" s="72">
+        <v>112.40347001646923</v>
+      </c>
+      <c r="M71" s="78"/>
+      <c r="N71" s="71">
         <v>0.08</v>
       </c>
-      <c r="O71" s="77">
-        <v>91.461357701598445</v>
-      </c>
-      <c r="P71" s="77">
-        <v>95.04786446995108</v>
-      </c>
-      <c r="Q71" s="77">
-        <v>97.837369734225362</v>
-      </c>
-      <c r="R71" s="78">
-        <v>100.06897394564479</v>
-      </c>
-      <c r="S71" s="77">
-        <v>101.89483193680613</v>
-      </c>
-      <c r="T71" s="77">
-        <v>103.41638026277391</v>
-      </c>
-      <c r="U71" s="77">
-        <v>104.7038442309005</v>
+      <c r="O71" s="72">
+        <v>96.039375792037887</v>
+      </c>
+      <c r="P71" s="72">
+        <v>99.800856905251479</v>
+      </c>
+      <c r="Q71" s="72">
+        <v>102.72645332663986</v>
+      </c>
+      <c r="R71" s="73">
+        <v>105.06693046375054</v>
+      </c>
+      <c r="S71" s="72">
+        <v>106.98186630320473</v>
+      </c>
+      <c r="T71" s="72">
+        <v>108.57764616941657</v>
+      </c>
+      <c r="U71" s="72">
+        <v>109.92792144082658</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B72" s="73"/>
-      <c r="C72" s="76">
+      <c r="B72" s="78"/>
+      <c r="C72" s="71">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D72" s="78">
-        <v>88.907714092186637</v>
-      </c>
-      <c r="E72" s="78">
-        <v>89.754152624063096</v>
-      </c>
-      <c r="F72" s="78">
-        <v>90.699051172780727</v>
-      </c>
-      <c r="G72" s="78">
-        <v>91.767024742549793</v>
-      </c>
-      <c r="H72" s="78">
-        <v>92.991639248202546</v>
-      </c>
-      <c r="I72" s="78">
-        <v>94.419886970504066</v>
-      </c>
-      <c r="J72" s="78">
-        <v>96.119645648337283</v>
-      </c>
-      <c r="M72" s="73"/>
-      <c r="N72" s="76">
+      <c r="D72" s="73">
+        <v>93.433371534802916</v>
+      </c>
+      <c r="E72" s="73">
+        <v>94.321777394309024</v>
+      </c>
+      <c r="F72" s="73">
+        <v>95.313525023588852</v>
+      </c>
+      <c r="G72" s="73">
+        <v>96.434449865085767</v>
+      </c>
+      <c r="H72" s="73">
+        <v>97.719782067586294</v>
+      </c>
+      <c r="I72" s="73">
+        <v>99.218843839391525</v>
+      </c>
+      <c r="J72" s="73">
+        <v>101.00287837026967</v>
+      </c>
+      <c r="M72" s="78"/>
+      <c r="N72" s="71">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="O72" s="78">
-        <v>84.209537850795698</v>
-      </c>
-      <c r="P72" s="78">
-        <v>87.358490722359917</v>
-      </c>
-      <c r="Q72" s="78">
-        <v>89.807676289132075</v>
-      </c>
-      <c r="R72" s="78">
-        <v>91.767024742549793</v>
-      </c>
-      <c r="S72" s="78">
-        <v>93.370128022618857</v>
-      </c>
-      <c r="T72" s="78">
-        <v>94.706047422676406</v>
-      </c>
-      <c r="U72" s="78">
-        <v>95.836440761186637</v>
+      <c r="O72" s="73">
+        <v>88.502254690924019</v>
+      </c>
+      <c r="P72" s="73">
+        <v>91.807336013491422</v>
+      </c>
+      <c r="Q72" s="73">
+        <v>94.377954819932725</v>
+      </c>
+      <c r="R72" s="73">
+        <v>96.434449865085767</v>
+      </c>
+      <c r="S72" s="73">
+        <v>98.11703672021099</v>
+      </c>
+      <c r="T72" s="73">
+        <v>99.519192432815345</v>
+      </c>
+      <c r="U72" s="73">
+        <v>100.70563188194211</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B73" s="73"/>
-      <c r="C73" s="76">
+      <c r="B73" s="78"/>
+      <c r="C73" s="71">
         <v>0.09</v>
       </c>
-      <c r="D73" s="77">
-        <v>82.89097060527692</v>
-      </c>
-      <c r="E73" s="77">
-        <v>83.448048781249426</v>
-      </c>
-      <c r="F73" s="77">
-        <v>84.056455377493279</v>
-      </c>
-      <c r="G73" s="78">
-        <v>84.728035414071073</v>
-      </c>
-      <c r="H73" s="77">
-        <v>85.478582251066356</v>
-      </c>
-      <c r="I73" s="77">
-        <v>86.329632288592947</v>
-      </c>
-      <c r="J73" s="77">
-        <v>87.31133648681022</v>
-      </c>
-      <c r="M73" s="73"/>
-      <c r="N73" s="76">
+      <c r="D73" s="72">
+        <v>87.185496170481642</v>
+      </c>
+      <c r="E73" s="72">
+        <v>87.770635622562139</v>
+      </c>
+      <c r="F73" s="72">
+        <v>88.409689022467504</v>
+      </c>
+      <c r="G73" s="73">
+        <v>89.115098050464908</v>
+      </c>
+      <c r="H73" s="72">
+        <v>89.903451613577474</v>
+      </c>
+      <c r="I73" s="72">
+        <v>90.797370948654731</v>
+      </c>
+      <c r="J73" s="72">
+        <v>91.828525787286125</v>
+      </c>
+      <c r="M73" s="78"/>
+      <c r="N73" s="71">
         <v>0.09</v>
       </c>
-      <c r="O73" s="77">
-        <v>78.044836020942356</v>
-      </c>
-      <c r="P73" s="77">
-        <v>80.82950243474599</v>
-      </c>
-      <c r="Q73" s="77">
-        <v>82.995354089926593</v>
-      </c>
-      <c r="R73" s="78">
-        <v>84.728035414071073</v>
-      </c>
-      <c r="S73" s="77">
-        <v>86.145683770189308</v>
-      </c>
-      <c r="T73" s="77">
-        <v>87.327057400287813</v>
-      </c>
-      <c r="U73" s="77">
-        <v>88.326681241140406</v>
+      <c r="O73" s="72">
+        <v>82.095250927189483</v>
+      </c>
+      <c r="P73" s="72">
+        <v>85.020187228554235</v>
+      </c>
+      <c r="Q73" s="72">
+        <v>87.295137685171284</v>
+      </c>
+      <c r="R73" s="73">
+        <v>89.115098050464908</v>
+      </c>
+      <c r="S73" s="72">
+        <v>90.604156531159688</v>
+      </c>
+      <c r="T73" s="72">
+        <v>91.845038598405353</v>
+      </c>
+      <c r="U73" s="72">
+        <v>92.895015732228615</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B74" s="73"/>
-      <c r="C74" s="76">
+      <c r="B74" s="78"/>
+      <c r="C74" s="71">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D74" s="77">
-        <v>77.590530955541922</v>
-      </c>
-      <c r="E74" s="77">
-        <v>77.932626697371049</v>
-      </c>
-      <c r="F74" s="77">
-        <v>78.29506703321529</v>
-      </c>
-      <c r="G74" s="78">
-        <v>78.682211518935006</v>
-      </c>
-      <c r="H74" s="77">
-        <v>79.099761112193747</v>
-      </c>
-      <c r="I74" s="77">
-        <v>79.555317089876283</v>
-      </c>
-      <c r="J74" s="77">
-        <v>80.059244829552767</v>
-      </c>
-      <c r="M74" s="73"/>
-      <c r="N74" s="76">
+      <c r="D74" s="72">
+        <v>81.680810673726086</v>
+      </c>
+      <c r="E74" s="72">
+        <v>82.040408165008529</v>
+      </c>
+      <c r="F74" s="72">
+        <v>82.421391087544421</v>
+      </c>
+      <c r="G74" s="73">
+        <v>82.82834203374523</v>
+      </c>
+      <c r="H74" s="72">
+        <v>83.2672536244567</v>
+      </c>
+      <c r="I74" s="72">
+        <v>83.746116020806497</v>
+      </c>
+      <c r="J74" s="72">
+        <v>84.27582489705965</v>
+      </c>
+      <c r="M74" s="78"/>
+      <c r="N74" s="71">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="O74" s="77">
-        <v>72.735811451062389</v>
-      </c>
-      <c r="P74" s="77">
-        <v>75.213478146009308</v>
-      </c>
-      <c r="Q74" s="77">
-        <v>77.140552242079139</v>
-      </c>
-      <c r="R74" s="78">
-        <v>78.682211518935006</v>
-      </c>
-      <c r="S74" s="77">
-        <v>79.943569109089793</v>
-      </c>
-      <c r="T74" s="77">
-        <v>80.994700434218771</v>
-      </c>
-      <c r="U74" s="77">
-        <v>81.884119247789457</v>
+      <c r="O74" s="72">
+        <v>76.57772185608539</v>
+      </c>
+      <c r="P74" s="72">
+        <v>79.182146930110335</v>
+      </c>
+      <c r="Q74" s="72">
+        <v>81.207810876574172</v>
+      </c>
+      <c r="R74" s="73">
+        <v>82.82834203374523</v>
+      </c>
+      <c r="S74" s="72">
+        <v>84.154231162339741</v>
+      </c>
+      <c r="T74" s="72">
+        <v>85.259138769501845</v>
+      </c>
+      <c r="U74" s="72">
+        <v>86.194060590946691</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B75" s="73"/>
-      <c r="C75" s="76">
+      <c r="B75" s="78"/>
+      <c r="C75" s="71">
         <v>0.1</v>
       </c>
-      <c r="D75" s="77">
-        <v>72.886783511512093</v>
-      </c>
-      <c r="E75" s="77">
-        <v>73.068407814450453</v>
-      </c>
-      <c r="F75" s="77">
-        <v>73.250032117388841</v>
-      </c>
-      <c r="G75" s="78">
-        <v>73.431656420327201</v>
-      </c>
-      <c r="H75" s="77">
-        <v>73.613280723265575</v>
-      </c>
-      <c r="I75" s="77">
-        <v>73.794905026203921</v>
-      </c>
-      <c r="J75" s="77">
-        <v>73.976529329142323</v>
-      </c>
-      <c r="M75" s="73"/>
-      <c r="N75" s="76">
+      <c r="D75" s="72">
+        <v>76.795233845964944</v>
+      </c>
+      <c r="E75" s="72">
+        <v>76.986292718378479</v>
+      </c>
+      <c r="F75" s="72">
+        <v>77.177351590792043</v>
+      </c>
+      <c r="G75" s="73">
+        <v>77.368410463205606</v>
+      </c>
+      <c r="H75" s="72">
+        <v>77.559469335619156</v>
+      </c>
+      <c r="I75" s="72">
+        <v>77.750528208032677</v>
+      </c>
+      <c r="J75" s="72">
+        <v>77.941587080446268</v>
+      </c>
+      <c r="M75" s="78"/>
+      <c r="N75" s="71">
         <v>0.1</v>
       </c>
-      <c r="O75" s="77">
-        <v>68.112658977132057</v>
-      </c>
-      <c r="P75" s="77">
-        <v>70.328907911796691</v>
-      </c>
-      <c r="Q75" s="77">
-        <v>72.052657083202533</v>
-      </c>
-      <c r="R75" s="78">
-        <v>73.431656420327201</v>
-      </c>
-      <c r="S75" s="77">
-        <v>74.559928605247364</v>
-      </c>
-      <c r="T75" s="77">
-        <v>75.500155426014203</v>
-      </c>
-      <c r="U75" s="77">
-        <v>76.295731966663055</v>
+      <c r="O75" s="72">
+        <v>71.773114913951517</v>
+      </c>
+      <c r="P75" s="72">
+        <v>74.104488059474036</v>
+      </c>
+      <c r="Q75" s="72">
+        <v>75.917778283769351</v>
+      </c>
+      <c r="R75" s="73">
+        <v>77.368410463205606</v>
+      </c>
+      <c r="S75" s="72">
+        <v>78.555291337289773</v>
+      </c>
+      <c r="T75" s="72">
+        <v>79.544358732359953</v>
+      </c>
+      <c r="U75" s="72">
+        <v>80.38126191280395</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B76" s="79"/>
-      <c r="C76" s="76">
+      <c r="C76" s="71">
         <v>0.105</v>
       </c>
-      <c r="D76" s="77">
-        <v>68.685305071245949</v>
-      </c>
-      <c r="E76" s="77">
-        <v>68.746901541958863</v>
-      </c>
-      <c r="F76" s="77">
-        <v>68.795262407394631</v>
-      </c>
-      <c r="G76" s="78">
-        <v>68.827905991563767</v>
-      </c>
-      <c r="H76" s="77">
-        <v>68.84168883821296</v>
-      </c>
-      <c r="I76" s="77">
-        <v>68.832569360730773</v>
-      </c>
-      <c r="J76" s="77">
-        <v>68.795262407394631</v>
+      <c r="D76" s="72">
+        <v>72.430813391307836</v>
+      </c>
+      <c r="E76" s="72">
+        <v>72.495657701305475</v>
+      </c>
+      <c r="F76" s="72">
+        <v>72.546568523204442</v>
+      </c>
+      <c r="G76" s="73">
+        <v>72.580933327986244</v>
+      </c>
+      <c r="H76" s="72">
+        <v>72.595442912227441</v>
+      </c>
+      <c r="I76" s="72">
+        <v>72.585842585812216</v>
+      </c>
+      <c r="J76" s="72">
+        <v>72.546568523204442</v>
       </c>
       <c r="M76" s="79"/>
-      <c r="N76" s="76">
+      <c r="N76" s="71">
         <v>0.105</v>
       </c>
-      <c r="O76" s="77">
-        <v>64.047952595368116</v>
-      </c>
-      <c r="P76" s="77">
-        <v>66.03959984378298</v>
-      </c>
-      <c r="Q76" s="77">
-        <v>67.588658814772302</v>
-      </c>
-      <c r="R76" s="78">
-        <v>68.827905991563767</v>
-      </c>
-      <c r="S76" s="77">
-        <v>69.841835499847704</v>
-      </c>
-      <c r="T76" s="77">
-        <v>70.686776756750987</v>
-      </c>
-      <c r="U76" s="77">
-        <v>71.401727051053754</v>
+      <c r="O76" s="72">
+        <v>67.548944056365215</v>
+      </c>
+      <c r="P76" s="72">
+        <v>69.645606252873961</v>
+      </c>
+      <c r="Q76" s="72">
+        <v>71.276343516825236</v>
+      </c>
+      <c r="R76" s="73">
+        <v>72.580933327986244</v>
+      </c>
+      <c r="S76" s="72">
+        <v>73.648324991663429</v>
+      </c>
+      <c r="T76" s="72">
+        <v>74.537818044727757</v>
+      </c>
+      <c r="U76" s="72">
+        <v>75.290466012705267</v>
       </c>
     </row>
   </sheetData>
